--- a/data/raw/Performance-Matrix-RW.xlsx
+++ b/data/raw/Performance-Matrix-RW.xlsx
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="1030">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="1031">
   <si>
     <t>knee, hip or both filter (1/0/10)</t>
   </si>
@@ -4069,6 +4069,9 @@
   </si>
   <si>
     <t>$17,290-$30,600</t>
+  </si>
+  <si>
+    <t>-0.64 [-0.95, -0.33]</t>
   </si>
 </sst>
 </file>
@@ -4497,9 +4500,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4524,6 +4524,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -4532,317 +4535,7 @@
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="295">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="264">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7794,13 +7487,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AR141"/>
+  <dimension ref="A1:AQ141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="R114" sqref="R114"/>
+      <selection pane="bottomRight" activeCell="A83" sqref="A83:XFD83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -7815,13 +7508,13 @@
     <col min="11" max="15" width="4" style="95" customWidth="1"/>
     <col min="16" max="16" width="10" style="15" customWidth="1"/>
     <col min="17" max="17" width="5.5703125" style="15" customWidth="1"/>
-    <col min="18" max="18" width="18.5703125" style="106" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.5703125" style="105" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="10.28515625" style="15" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="33.85546875" style="15" customWidth="1"/>
     <col min="21" max="21" width="11.28515625" style="17" customWidth="1"/>
     <col min="22" max="25" width="12" style="15" customWidth="1"/>
     <col min="26" max="26" width="8.85546875" style="15" customWidth="1"/>
-    <col min="27" max="27" width="20.7109375" style="106" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.7109375" style="105" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="26.5703125" style="59" customWidth="1"/>
     <col min="29" max="29" width="13.140625" style="59" customWidth="1"/>
     <col min="30" max="30" width="21.5703125" style="15" customWidth="1"/>
@@ -7831,7 +7524,7 @@
     <col min="35" max="36" width="18.5703125" style="15" customWidth="1"/>
     <col min="37" max="37" width="26.85546875" style="19" customWidth="1"/>
     <col min="38" max="38" width="11.42578125" style="13" customWidth="1"/>
-    <col min="39" max="39" width="17.85546875" style="111" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="17.85546875" style="110" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="22.5703125" style="15" customWidth="1"/>
     <col min="41" max="41" width="10.5703125" style="13" customWidth="1"/>
     <col min="42" max="42" width="17.42578125" style="15" customWidth="1"/>
@@ -7870,20 +7563,20 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="104" t="s">
+      <c r="K1" s="114" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="104"/>
-      <c r="M1" s="104"/>
-      <c r="N1" s="104"/>
-      <c r="O1" s="104"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="114"/>
       <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="105"/>
+      <c r="R1" s="104"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6" t="s">
         <v>13</v>
@@ -7906,7 +7599,7 @@
       <c r="Z1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA1" s="110"/>
+      <c r="AA1" s="109"/>
       <c r="AB1" s="8" t="s">
         <v>20</v>
       </c>
@@ -7940,7 +7633,7 @@
       <c r="AL1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="113"/>
+      <c r="AM1" s="112"/>
       <c r="AN1" s="1" t="s">
         <v>31</v>
       </c>
@@ -8001,7 +7694,7 @@
       <c r="Q2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="R2" s="105" t="s">
+      <c r="R2" s="104" t="s">
         <v>953</v>
       </c>
       <c r="S2" s="6" t="s">
@@ -8016,7 +7709,7 @@
       <c r="Z2" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="110" t="s">
+      <c r="AA2" s="109" t="s">
         <v>990</v>
       </c>
       <c r="AB2" s="8"/>
@@ -8032,7 +7725,7 @@
       <c r="AL2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="113" t="s">
+      <c r="AM2" s="112" t="s">
         <v>1015</v>
       </c>
       <c r="AO2" s="11" t="s">
@@ -8053,7 +7746,7 @@
       <c r="O3" s="15"/>
       <c r="P3" s="16"/>
       <c r="Z3" s="13"/>
-      <c r="AA3" s="111"/>
+      <c r="AA3" s="110"/>
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="16"/>
@@ -8105,7 +7798,7 @@
       <c r="Q4" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="106" t="s">
+      <c r="R4" s="105" t="s">
         <v>956</v>
       </c>
       <c r="T4" s="21" t="s">
@@ -8129,7 +7822,7 @@
       <c r="Z4" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA4" s="111" t="s">
+      <c r="AA4" s="110" t="s">
         <v>991</v>
       </c>
       <c r="AB4" s="17" t="s">
@@ -8165,7 +7858,7 @@
       <c r="AL4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM4" s="114" t="s">
+      <c r="AM4" s="113" t="s">
         <v>73</v>
       </c>
       <c r="AN4" s="28" t="s">
@@ -8332,7 +8025,7 @@
       <c r="Q6" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R6" s="106" t="s">
+      <c r="R6" s="105" t="s">
         <v>956</v>
       </c>
       <c r="T6" s="25" t="s">
@@ -8356,7 +8049,7 @@
       <c r="Z6" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA6" s="111" t="s">
+      <c r="AA6" s="110" t="s">
         <v>991</v>
       </c>
       <c r="AB6" s="13" t="s">
@@ -8392,7 +8085,7 @@
       <c r="AL6" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM6" s="114" t="s">
+      <c r="AM6" s="113" t="s">
         <v>94</v>
       </c>
       <c r="AN6" s="28" t="s">
@@ -8559,7 +8252,7 @@
       <c r="Q8" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R8" s="106" t="s">
+      <c r="R8" s="105" t="s">
         <v>957</v>
       </c>
       <c r="T8" s="33" t="s">
@@ -8583,7 +8276,7 @@
       <c r="Z8" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA8" s="111" t="s">
+      <c r="AA8" s="110" t="s">
         <v>992</v>
       </c>
       <c r="AB8" s="12" t="s">
@@ -8616,7 +8309,7 @@
       <c r="AL8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM8" s="114" t="s">
+      <c r="AM8" s="113" t="s">
         <v>112</v>
       </c>
       <c r="AN8" s="28" t="s">
@@ -8671,7 +8364,7 @@
       <c r="Q9" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R9" s="106" t="s">
+      <c r="R9" s="105" t="s">
         <v>957</v>
       </c>
       <c r="T9" s="15" t="s">
@@ -8695,7 +8388,7 @@
       <c r="Z9" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA9" s="111" t="s">
+      <c r="AA9" s="110" t="s">
         <v>992</v>
       </c>
       <c r="AB9" s="15" t="s">
@@ -8725,8 +8418,8 @@
       <c r="AL9" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM9" s="114" t="s">
-        <v>119</v>
+      <c r="AM9" s="113" t="s">
+        <v>1030</v>
       </c>
       <c r="AN9" s="39" t="s">
         <v>120</v>
@@ -8780,7 +8473,7 @@
       <c r="Q10" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R10" s="106" t="s">
+      <c r="R10" s="105" t="s">
         <v>957</v>
       </c>
       <c r="T10" s="15" t="s">
@@ -8804,7 +8497,7 @@
       <c r="Z10" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA10" s="111" t="s">
+      <c r="AA10" s="110" t="s">
         <v>992</v>
       </c>
       <c r="AB10" s="15" t="s">
@@ -8834,7 +8527,7 @@
       <c r="AL10" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="114" t="s">
+      <c r="AM10" s="113" t="s">
         <v>123</v>
       </c>
       <c r="AN10" s="39" t="s">
@@ -8889,7 +8582,7 @@
       <c r="Q11" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R11" s="106" t="s">
+      <c r="R11" s="105" t="s">
         <v>957</v>
       </c>
       <c r="T11" s="15" t="s">
@@ -8913,7 +8606,7 @@
       <c r="Z11" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA11" s="111" t="s">
+      <c r="AA11" s="110" t="s">
         <v>992</v>
       </c>
       <c r="AB11" s="15" t="s">
@@ -8946,7 +8639,7 @@
       <c r="AL11" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM11" s="114" t="s">
+      <c r="AM11" s="113" t="s">
         <v>128</v>
       </c>
       <c r="AN11" s="39" t="s">
@@ -9001,7 +8694,7 @@
       <c r="Q12" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R12" s="106" t="s">
+      <c r="R12" s="105" t="s">
         <v>957</v>
       </c>
       <c r="T12" s="15" t="s">
@@ -9025,7 +8718,7 @@
       <c r="Z12" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA12" s="111" t="s">
+      <c r="AA12" s="110" t="s">
         <v>992</v>
       </c>
       <c r="AB12" s="15" t="s">
@@ -9058,7 +8751,7 @@
       <c r="AL12" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM12" s="114" t="s">
+      <c r="AM12" s="113" t="s">
         <v>134</v>
       </c>
       <c r="AN12" s="40" t="s">
@@ -9116,7 +8809,7 @@
       <c r="Q13" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R13" s="106" t="s">
+      <c r="R13" s="105" t="s">
         <v>957</v>
       </c>
       <c r="T13" s="15" t="s">
@@ -9140,7 +8833,7 @@
       <c r="Z13" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA13" s="111" t="s">
+      <c r="AA13" s="110" t="s">
         <v>993</v>
       </c>
       <c r="AB13" s="17" t="s">
@@ -9173,7 +8866,7 @@
       <c r="AL13" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM13" s="114" t="s">
+      <c r="AM13" s="113" t="s">
         <v>140</v>
       </c>
       <c r="AN13" s="39" t="s">
@@ -9228,7 +8921,7 @@
       <c r="Q14" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R14" s="106" t="s">
+      <c r="R14" s="105" t="s">
         <v>957</v>
       </c>
       <c r="T14" s="15" t="s">
@@ -9252,7 +8945,7 @@
       <c r="Z14" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA14" s="111" t="s">
+      <c r="AA14" s="110" t="s">
         <v>992</v>
       </c>
       <c r="AB14" s="15" t="s">
@@ -9285,7 +8978,7 @@
       <c r="AL14" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM14" s="114" t="s">
+      <c r="AM14" s="113" t="s">
         <v>145</v>
       </c>
       <c r="AN14" s="41" t="s">
@@ -9343,7 +9036,7 @@
       <c r="Q15" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R15" s="106" t="s">
+      <c r="R15" s="105" t="s">
         <v>957</v>
       </c>
       <c r="T15" s="15" t="s">
@@ -9367,7 +9060,7 @@
       <c r="Z15" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA15" s="111" t="s">
+      <c r="AA15" s="110" t="s">
         <v>992</v>
       </c>
       <c r="AB15" s="15" t="s">
@@ -9403,7 +9096,7 @@
       <c r="AL15" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM15" s="114"/>
+      <c r="AM15" s="113"/>
       <c r="AN15" s="19" t="s">
         <v>149</v>
       </c>
@@ -10101,7 +9794,7 @@
       <c r="Q22" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R22" s="106" t="s">
+      <c r="R22" s="105" t="s">
         <v>958</v>
       </c>
       <c r="T22" s="38">
@@ -10125,7 +9818,7 @@
       <c r="Z22" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA22" s="111" t="s">
+      <c r="AA22" s="110" t="s">
         <v>994</v>
       </c>
       <c r="AB22" s="12" t="s">
@@ -10161,7 +9854,7 @@
       <c r="AL22" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM22" s="114" t="s">
+      <c r="AM22" s="113" t="s">
         <v>173</v>
       </c>
       <c r="AN22" s="28" t="s">
@@ -10325,7 +10018,7 @@
       <c r="Q24" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="R24" s="106" t="s">
+      <c r="R24" s="105" t="s">
         <v>959</v>
       </c>
       <c r="S24" s="15" t="s">
@@ -10352,7 +10045,7 @@
       <c r="Z24" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA24" s="111" t="s">
+      <c r="AA24" s="110" t="s">
         <v>995</v>
       </c>
       <c r="AB24" s="12" t="s">
@@ -10388,7 +10081,7 @@
       <c r="AL24" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM24" s="114" t="s">
+      <c r="AM24" s="113" t="s">
         <v>187</v>
       </c>
       <c r="AN24" s="28" t="s">
@@ -10552,7 +10245,7 @@
       <c r="Q26" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R26" s="106" t="s">
+      <c r="R26" s="105" t="s">
         <v>960</v>
       </c>
       <c r="T26" s="33" t="s">
@@ -10576,7 +10269,7 @@
       <c r="Z26" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA26" s="111" t="s">
+      <c r="AA26" s="110" t="s">
         <v>995</v>
       </c>
       <c r="AB26" s="17" t="s">
@@ -10609,7 +10302,7 @@
       <c r="AL26" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM26" s="114" t="s">
+      <c r="AM26" s="113" t="s">
         <v>198</v>
       </c>
       <c r="AN26" s="28" t="s">
@@ -10776,7 +10469,7 @@
       <c r="Q28" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="R28" s="106" t="s">
+      <c r="R28" s="105" t="s">
         <v>961</v>
       </c>
       <c r="T28" s="38">
@@ -10800,7 +10493,7 @@
       <c r="Z28" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA28" s="111" t="s">
+      <c r="AA28" s="110" t="s">
         <v>996</v>
       </c>
       <c r="AB28" s="44" t="s">
@@ -10836,7 +10529,7 @@
       <c r="AL28" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM28" s="114" t="s">
+      <c r="AM28" s="113" t="s">
         <v>215</v>
       </c>
       <c r="AN28" s="28" t="s">
@@ -11000,7 +10693,7 @@
       <c r="Q30" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R30" s="106" t="s">
+      <c r="R30" s="105" t="s">
         <v>962</v>
       </c>
       <c r="T30" s="38">
@@ -11024,7 +10717,7 @@
       <c r="Z30" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA30" s="111"/>
+      <c r="AA30" s="110"/>
       <c r="AB30" s="12" t="s">
         <v>223</v>
       </c>
@@ -11058,7 +10751,7 @@
       <c r="AL30" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM30" s="114" t="s">
+      <c r="AM30" s="113" t="s">
         <v>227</v>
       </c>
       <c r="AN30" s="28" t="s">
@@ -11113,7 +10806,7 @@
       <c r="Q31" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R31" s="106" t="s">
+      <c r="R31" s="105" t="s">
         <v>962</v>
       </c>
       <c r="T31" s="38">
@@ -11137,7 +10830,7 @@
       <c r="Z31" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA31" s="111"/>
+      <c r="AA31" s="110"/>
       <c r="AB31" s="46" t="s">
         <v>232</v>
       </c>
@@ -11171,7 +10864,7 @@
       <c r="AL31" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM31" s="114" t="s">
+      <c r="AM31" s="113" t="s">
         <v>235</v>
       </c>
       <c r="AN31" s="43" t="s">
@@ -11229,7 +10922,7 @@
       <c r="Q32" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R32" s="106" t="s">
+      <c r="R32" s="105" t="s">
         <v>963</v>
       </c>
       <c r="T32" s="38">
@@ -11253,7 +10946,7 @@
       <c r="Z32" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA32" s="111"/>
+      <c r="AA32" s="110"/>
       <c r="AB32" s="46" t="s">
         <v>241</v>
       </c>
@@ -11287,7 +10980,7 @@
       <c r="AL32" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM32" s="114"/>
+      <c r="AM32" s="113"/>
       <c r="AN32" s="48" t="s">
         <v>247</v>
       </c>
@@ -11343,7 +11036,7 @@
       <c r="Q33" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R33" s="106" t="s">
+      <c r="R33" s="105" t="s">
         <v>963</v>
       </c>
       <c r="T33" s="15" t="s">
@@ -11367,7 +11060,7 @@
       <c r="Z33" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA33" s="111"/>
+      <c r="AA33" s="110"/>
       <c r="AB33" s="46" t="s">
         <v>241</v>
       </c>
@@ -11401,7 +11094,7 @@
       <c r="AL33" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM33" s="114" t="s">
+      <c r="AM33" s="113" t="s">
         <v>1023</v>
       </c>
       <c r="AN33" s="43" t="s">
@@ -11459,7 +11152,7 @@
       <c r="Q34" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R34" s="106" t="s">
+      <c r="R34" s="105" t="s">
         <v>963</v>
       </c>
       <c r="T34" s="15" t="s">
@@ -11483,7 +11176,7 @@
       <c r="Z34" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA34" s="111"/>
+      <c r="AA34" s="110"/>
       <c r="AB34" s="46" t="s">
         <v>258</v>
       </c>
@@ -11517,7 +11210,7 @@
       <c r="AL34" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM34" s="114" t="s">
+      <c r="AM34" s="113" t="s">
         <v>261</v>
       </c>
       <c r="AN34" s="50" t="s">
@@ -11575,7 +11268,7 @@
       <c r="Q35" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R35" s="106" t="s">
+      <c r="R35" s="105" t="s">
         <v>964</v>
       </c>
       <c r="T35" s="15" t="s">
@@ -11599,7 +11292,7 @@
       <c r="Z35" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA35" s="111"/>
+      <c r="AA35" s="110"/>
       <c r="AB35" s="46" t="s">
         <v>267</v>
       </c>
@@ -11633,7 +11326,7 @@
       <c r="AL35" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM35" s="114"/>
+      <c r="AM35" s="113"/>
       <c r="AN35" s="51" t="s">
         <v>271</v>
       </c>
@@ -11689,7 +11382,7 @@
       <c r="Q36" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R36" s="106" t="s">
+      <c r="R36" s="105" t="s">
         <v>964</v>
       </c>
       <c r="T36" s="15" t="s">
@@ -11713,7 +11406,7 @@
       <c r="Z36" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA36" s="111"/>
+      <c r="AA36" s="110"/>
       <c r="AB36" s="46" t="s">
         <v>274</v>
       </c>
@@ -11747,7 +11440,7 @@
       <c r="AL36" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM36" s="114" t="s">
+      <c r="AM36" s="113" t="s">
         <v>276</v>
       </c>
       <c r="AN36" s="28" t="s">
@@ -11805,7 +11498,7 @@
       <c r="Q37" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R37" s="106" t="s">
+      <c r="R37" s="105" t="s">
         <v>964</v>
       </c>
       <c r="T37" s="38">
@@ -11829,7 +11522,7 @@
       <c r="Z37" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA37" s="111"/>
+      <c r="AA37" s="110"/>
       <c r="AB37" s="44" t="s">
         <v>282</v>
       </c>
@@ -11863,7 +11556,7 @@
       <c r="AL37" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM37" s="114" t="s">
+      <c r="AM37" s="113" t="s">
         <v>284</v>
       </c>
       <c r="AN37" s="40" t="s">
@@ -11921,7 +11614,7 @@
       <c r="Q38" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="R38" s="107" t="s">
+      <c r="R38" s="106" t="s">
         <v>955</v>
       </c>
       <c r="T38" s="55" t="s">
@@ -11945,7 +11638,7 @@
       <c r="Z38" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="AA38" s="112"/>
+      <c r="AA38" s="111"/>
       <c r="AB38" s="46" t="s">
         <v>291</v>
       </c>
@@ -11979,7 +11672,7 @@
       <c r="AL38" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="AM38" s="114" t="s">
+      <c r="AM38" s="113" t="s">
         <v>294</v>
       </c>
       <c r="AN38" s="32" t="s">
@@ -12037,7 +11730,7 @@
       <c r="Q39" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R39" s="107" t="s">
+      <c r="R39" s="106" t="s">
         <v>955</v>
       </c>
       <c r="T39" s="59" t="s">
@@ -12061,7 +11754,7 @@
       <c r="Z39" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA39" s="111"/>
+      <c r="AA39" s="110"/>
       <c r="AB39" s="46" t="s">
         <v>299</v>
       </c>
@@ -12095,7 +11788,7 @@
       <c r="AL39" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM39" s="114" t="s">
+      <c r="AM39" s="113" t="s">
         <v>1022</v>
       </c>
       <c r="AN39" s="40" t="s">
@@ -12153,7 +11846,7 @@
       <c r="Q40" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R40" s="107" t="s">
+      <c r="R40" s="106" t="s">
         <v>955</v>
       </c>
       <c r="T40" s="15" t="s">
@@ -12177,7 +11870,7 @@
       <c r="Z40" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA40" s="111"/>
+      <c r="AA40" s="110"/>
       <c r="AB40" s="46" t="s">
         <v>306</v>
       </c>
@@ -12211,7 +11904,7 @@
       <c r="AL40" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM40" s="114" t="s">
+      <c r="AM40" s="113" t="s">
         <v>309</v>
       </c>
       <c r="AN40" s="40" t="s">
@@ -12269,7 +11962,7 @@
       <c r="Q41" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R41" s="106" t="s">
+      <c r="R41" s="105" t="s">
         <v>965</v>
       </c>
       <c r="S41" s="15" t="s">
@@ -12296,7 +11989,7 @@
       <c r="Z41" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA41" s="111" t="s">
+      <c r="AA41" s="110" t="s">
         <v>997</v>
       </c>
       <c r="AB41" s="59" t="s">
@@ -12332,7 +12025,7 @@
       <c r="AL41" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM41" s="114" t="s">
+      <c r="AM41" s="113" t="s">
         <v>323</v>
       </c>
       <c r="AN41" s="40" t="s">
@@ -12390,7 +12083,7 @@
       <c r="Q42" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R42" s="106" t="s">
+      <c r="R42" s="105" t="s">
         <v>965</v>
       </c>
       <c r="S42" s="15" t="s">
@@ -12417,7 +12110,7 @@
       <c r="Z42" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA42" s="111" t="s">
+      <c r="AA42" s="110" t="s">
         <v>997</v>
       </c>
       <c r="AB42" s="46" t="s">
@@ -12453,7 +12146,7 @@
       <c r="AL42" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM42" s="114" t="s">
+      <c r="AM42" s="113" t="s">
         <v>330</v>
       </c>
       <c r="AN42" s="40" t="s">
@@ -12511,7 +12204,7 @@
       <c r="Q43" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R43" s="106" t="s">
+      <c r="R43" s="105" t="s">
         <v>966</v>
       </c>
       <c r="T43" s="33" t="s">
@@ -12535,7 +12228,7 @@
       <c r="Z43" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA43" s="111"/>
+      <c r="AA43" s="110"/>
       <c r="AB43" s="46" t="s">
         <v>336</v>
       </c>
@@ -12569,7 +12262,7 @@
       <c r="AL43" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM43" s="114" t="s">
+      <c r="AM43" s="113" t="s">
         <v>340</v>
       </c>
       <c r="AN43" s="40" t="s">
@@ -12766,9 +12459,9 @@
         <v>85</v>
       </c>
       <c r="Q46" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R46" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="R46" s="105" t="s">
         <v>967</v>
       </c>
       <c r="S46" s="15" t="s">
@@ -12795,7 +12488,7 @@
       <c r="Z46" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA46" s="111"/>
+      <c r="AA46" s="110"/>
       <c r="AB46" s="17" t="s">
         <v>349</v>
       </c>
@@ -12829,7 +12522,7 @@
       <c r="AL46" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM46" s="114" t="s">
+      <c r="AM46" s="113" t="s">
         <v>354</v>
       </c>
       <c r="AN46" s="29" t="s">
@@ -12994,9 +12687,9 @@
         <v>85</v>
       </c>
       <c r="Q48" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R48" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="R48" s="105" t="s">
         <v>967</v>
       </c>
       <c r="S48" s="15" t="s">
@@ -13023,7 +12716,7 @@
       <c r="Z48" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA48" s="111" t="s">
+      <c r="AA48" s="110" t="s">
         <v>997</v>
       </c>
       <c r="AB48" s="12" t="s">
@@ -13059,7 +12752,7 @@
       <c r="AL48" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM48" s="114" t="s">
+      <c r="AM48" s="113" t="s">
         <v>368</v>
       </c>
       <c r="AN48" s="28" t="s">
@@ -13112,9 +12805,9 @@
         <v>56</v>
       </c>
       <c r="Q49" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R49" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="R49" s="105" t="s">
         <v>967</v>
       </c>
       <c r="S49" s="15" t="s">
@@ -13141,7 +12834,7 @@
       <c r="Z49" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA49" s="111" t="s">
+      <c r="AA49" s="110" t="s">
         <v>997</v>
       </c>
       <c r="AB49" s="63" t="s">
@@ -13174,7 +12867,7 @@
       <c r="AL49" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM49" s="114" t="s">
+      <c r="AM49" s="113" t="s">
         <v>373</v>
       </c>
       <c r="AN49" s="64" t="s">
@@ -13339,9 +13032,9 @@
         <v>56</v>
       </c>
       <c r="Q51" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R51" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="R51" s="105" t="s">
         <v>967</v>
       </c>
       <c r="S51" s="15" t="s">
@@ -13368,7 +13061,7 @@
       <c r="Z51" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA51" s="111" t="s">
+      <c r="AA51" s="110" t="s">
         <v>997</v>
       </c>
       <c r="AB51" s="63" t="s">
@@ -13401,7 +13094,7 @@
       <c r="AL51" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM51" s="114" t="s">
+      <c r="AM51" s="113" t="s">
         <v>380</v>
       </c>
       <c r="AN51" s="64" t="s">
@@ -13675,9 +13368,9 @@
         <v>56</v>
       </c>
       <c r="Q54" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R54" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="R54" s="105" t="s">
         <v>967</v>
       </c>
       <c r="S54" s="15" t="s">
@@ -13704,7 +13397,7 @@
       <c r="Z54" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA54" s="111" t="s">
+      <c r="AA54" s="110" t="s">
         <v>998</v>
       </c>
       <c r="AB54" s="17" t="s">
@@ -13740,7 +13433,7 @@
       <c r="AL54" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM54" s="114" t="s">
+      <c r="AM54" s="113" t="s">
         <v>391</v>
       </c>
       <c r="AN54" s="28" t="s">
@@ -13905,9 +13598,9 @@
         <v>151</v>
       </c>
       <c r="Q56" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R56" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="R56" s="105" t="s">
         <v>967</v>
       </c>
       <c r="S56" s="15" t="s">
@@ -13934,7 +13627,7 @@
       <c r="Z56" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA56" s="111" t="s">
+      <c r="AA56" s="110" t="s">
         <v>999</v>
       </c>
       <c r="AB56" s="17" t="s">
@@ -13970,7 +13663,7 @@
       <c r="AL56" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM56" s="114" t="s">
+      <c r="AM56" s="113" t="s">
         <v>401</v>
       </c>
       <c r="AN56" s="28" t="s">
@@ -14134,7 +13827,7 @@
       <c r="Q58" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R58" s="106" t="s">
+      <c r="R58" s="105" t="s">
         <v>968</v>
       </c>
       <c r="T58" s="38">
@@ -14158,7 +13851,7 @@
       <c r="Z58" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="AA58" s="112" t="s">
+      <c r="AA58" s="111" t="s">
         <v>1000</v>
       </c>
       <c r="AB58" s="44" t="s">
@@ -14194,7 +13887,7 @@
       <c r="AL58" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="AM58" s="114" t="s">
+      <c r="AM58" s="113" t="s">
         <v>414</v>
       </c>
       <c r="AN58" s="28" t="s">
@@ -14252,7 +13945,7 @@
       <c r="Q59" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R59" s="106" t="s">
+      <c r="R59" s="105" t="s">
         <v>968</v>
       </c>
       <c r="T59" s="15" t="s">
@@ -14276,7 +13969,7 @@
       <c r="Z59" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="AA59" s="112" t="s">
+      <c r="AA59" s="111" t="s">
         <v>1000</v>
       </c>
       <c r="AB59" s="19" t="s">
@@ -14312,7 +14005,7 @@
       <c r="AL59" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="AM59" s="114" t="s">
+      <c r="AM59" s="113" t="s">
         <v>424</v>
       </c>
       <c r="AN59" s="67" t="s">
@@ -14617,7 +14310,7 @@
       <c r="Q63" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R63" s="106" t="s">
+      <c r="R63" s="105" t="s">
         <v>969</v>
       </c>
       <c r="S63" s="15" t="s">
@@ -14644,7 +14337,7 @@
       <c r="Z63" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA63" s="111" t="s">
+      <c r="AA63" s="110" t="s">
         <v>1001</v>
       </c>
       <c r="AB63" s="17" t="s">
@@ -14680,7 +14373,7 @@
       <c r="AL63" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="AM63" s="114" t="s">
+      <c r="AM63" s="113" t="s">
         <v>448</v>
       </c>
       <c r="AN63" s="64" t="s">
@@ -14738,7 +14431,7 @@
       <c r="Q64" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="R64" s="107" t="s">
+      <c r="R64" s="106" t="s">
         <v>970</v>
       </c>
       <c r="S64" s="15" t="s">
@@ -14765,7 +14458,7 @@
       <c r="Z64" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="AA64" s="112" t="s">
+      <c r="AA64" s="111" t="s">
         <v>1002</v>
       </c>
       <c r="AB64" s="44" t="s">
@@ -14801,7 +14494,7 @@
       <c r="AL64" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="AM64" s="114" t="s">
+      <c r="AM64" s="113" t="s">
         <v>461</v>
       </c>
       <c r="AN64" s="74" t="s">
@@ -14965,7 +14658,7 @@
       <c r="Q66" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R66" s="106" t="s">
+      <c r="R66" s="105" t="s">
         <v>971</v>
       </c>
       <c r="S66" s="15" t="s">
@@ -14992,7 +14685,7 @@
       <c r="Z66" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA66" s="111" t="s">
+      <c r="AA66" s="110" t="s">
         <v>1003</v>
       </c>
       <c r="AB66" s="17" t="s">
@@ -15025,7 +14718,7 @@
       <c r="AL66" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM66" s="114" t="s">
+      <c r="AM66" s="113" t="s">
         <v>478</v>
       </c>
       <c r="AN66" s="64" t="s">
@@ -15192,7 +14885,7 @@
       <c r="Q68" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R68" s="106" t="s">
+      <c r="R68" s="105" t="s">
         <v>972</v>
       </c>
       <c r="S68" s="15" t="s">
@@ -15219,7 +14912,7 @@
       <c r="Z68" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA68" s="111" t="s">
+      <c r="AA68" s="110" t="s">
         <v>1004</v>
       </c>
       <c r="AB68" s="17" t="s">
@@ -15255,7 +14948,7 @@
       <c r="AL68" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM68" s="114" t="s">
+      <c r="AM68" s="113" t="s">
         <v>495</v>
       </c>
       <c r="AN68" s="28" t="s">
@@ -15419,7 +15112,7 @@
       <c r="Q70" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R70" s="106" t="s">
+      <c r="R70" s="105" t="s">
         <v>973</v>
       </c>
       <c r="S70" s="15" t="s">
@@ -15446,7 +15139,7 @@
       <c r="Z70" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA70" s="111" t="s">
+      <c r="AA70" s="110" t="s">
         <v>1005</v>
       </c>
       <c r="AB70" s="17" t="s">
@@ -15482,7 +15175,7 @@
       <c r="AL70" s="30" t="s">
         <v>60</v>
       </c>
-      <c r="AM70" s="114" t="s">
+      <c r="AM70" s="113" t="s">
         <v>60</v>
       </c>
       <c r="AN70" s="28" t="s">
@@ -15537,7 +15230,7 @@
       <c r="Q71" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="R71" s="108" t="s">
+      <c r="R71" s="107" t="s">
         <v>974</v>
       </c>
       <c r="S71" s="15" t="s">
@@ -15564,7 +15257,7 @@
       <c r="Z71" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA71" s="111" t="s">
+      <c r="AA71" s="110" t="s">
         <v>1005</v>
       </c>
       <c r="AB71" s="17" t="s">
@@ -15600,7 +15293,7 @@
       <c r="AL71" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM71" s="114" t="s">
+      <c r="AM71" s="113" t="s">
         <v>511</v>
       </c>
       <c r="AN71" s="28" t="s">
@@ -15655,7 +15348,7 @@
       <c r="Q72" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R72" s="106" t="s">
+      <c r="R72" s="105" t="s">
         <v>975</v>
       </c>
       <c r="S72" s="15" t="s">
@@ -15682,7 +15375,7 @@
       <c r="Z72" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA72" s="111" t="s">
+      <c r="AA72" s="110" t="s">
         <v>1005</v>
       </c>
       <c r="AB72" s="17" t="s">
@@ -15718,7 +15411,7 @@
       <c r="AL72" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM72" s="114" t="s">
+      <c r="AM72" s="113" t="s">
         <v>517</v>
       </c>
       <c r="AN72" s="28" t="s">
@@ -15773,7 +15466,7 @@
       <c r="Q73" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R73" s="106" t="s">
+      <c r="R73" s="105" t="s">
         <v>976</v>
       </c>
       <c r="S73" s="15" t="s">
@@ -15800,7 +15493,7 @@
       <c r="Z73" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA73" s="111" t="s">
+      <c r="AA73" s="110" t="s">
         <v>1006</v>
       </c>
       <c r="AB73" s="17" t="s">
@@ -15836,7 +15529,7 @@
       <c r="AL73" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM73" s="114" t="s">
+      <c r="AM73" s="113" t="s">
         <v>527</v>
       </c>
       <c r="AN73" s="64" t="s">
@@ -16006,7 +15699,7 @@
       <c r="Q75" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="R75" s="107" t="s">
+      <c r="R75" s="106" t="s">
         <v>977</v>
       </c>
       <c r="S75" s="15" t="s">
@@ -16033,7 +15726,7 @@
       <c r="Z75" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA75" s="111" t="s">
+      <c r="AA75" s="110" t="s">
         <v>1007</v>
       </c>
       <c r="AB75" s="12" t="s">
@@ -16069,7 +15762,7 @@
       <c r="AL75" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM75" s="114" t="s">
+      <c r="AM75" s="113" t="s">
         <v>539</v>
       </c>
       <c r="AN75" s="28" t="s">
@@ -16234,7 +15927,7 @@
       <c r="Q77" s="47" t="s">
         <v>543</v>
       </c>
-      <c r="R77" s="107" t="s">
+      <c r="R77" s="106" t="s">
         <v>1024</v>
       </c>
       <c r="S77" s="47"/>
@@ -16259,7 +15952,7 @@
       <c r="Z77" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA77" s="111" t="s">
+      <c r="AA77" s="110" t="s">
         <v>1007</v>
       </c>
       <c r="AB77" s="44" t="s">
@@ -16295,7 +15988,7 @@
       <c r="AL77" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM77" s="114" t="s">
+      <c r="AM77" s="113" t="s">
         <v>551</v>
       </c>
       <c r="AN77" s="64" t="s">
@@ -16353,7 +16046,7 @@
       <c r="Q78" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="R78" s="107" t="s">
+      <c r="R78" s="106" t="s">
         <v>1024</v>
       </c>
       <c r="S78" s="47"/>
@@ -16378,7 +16071,7 @@
       <c r="Z78" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA78" s="111"/>
+      <c r="AA78" s="110"/>
       <c r="AB78" s="63" t="s">
         <v>556</v>
       </c>
@@ -16412,7 +16105,7 @@
       <c r="AL78" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM78" s="114" t="s">
+      <c r="AM78" s="113" t="s">
         <v>561</v>
       </c>
       <c r="AN78" s="64" t="s">
@@ -16470,7 +16163,7 @@
       <c r="Q79" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R79" s="106" t="s">
+      <c r="R79" s="105" t="s">
         <v>969</v>
       </c>
       <c r="S79" s="15" t="s">
@@ -16497,7 +16190,7 @@
       <c r="Z79" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA79" s="111" t="s">
+      <c r="AA79" s="110" t="s">
         <v>1008</v>
       </c>
       <c r="AB79" s="17" t="s">
@@ -16533,7 +16226,7 @@
       <c r="AL79" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM79" s="114" t="s">
+      <c r="AM79" s="113" t="s">
         <v>572</v>
       </c>
       <c r="AN79" s="28" t="s">
@@ -16694,7 +16387,7 @@
       <c r="Q81" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="R81" s="108" t="s">
+      <c r="R81" s="107" t="s">
         <v>980</v>
       </c>
       <c r="S81" s="15" t="s">
@@ -16721,7 +16414,7 @@
       <c r="Z81" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA81" s="111" t="s">
+      <c r="AA81" s="110" t="s">
         <v>1009</v>
       </c>
       <c r="AB81" s="17" t="s">
@@ -16757,7 +16450,7 @@
       <c r="AL81" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM81" s="114" t="s">
+      <c r="AM81" s="113" t="s">
         <v>585</v>
       </c>
       <c r="AN81" s="28" t="s">
@@ -16920,9 +16613,9 @@
         <v>56</v>
       </c>
       <c r="Q83" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="R83" s="106" t="s">
+        <v>177</v>
+      </c>
+      <c r="R83" s="105" t="s">
         <v>978</v>
       </c>
       <c r="S83" s="15" t="s">
@@ -16949,7 +16642,7 @@
       <c r="Z83" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA83" s="111" t="s">
+      <c r="AA83" s="110" t="s">
         <v>1007</v>
       </c>
       <c r="AB83" s="17" t="s">
@@ -16985,7 +16678,7 @@
       <c r="AL83" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM83" s="114" t="s">
+      <c r="AM83" s="113" t="s">
         <v>604</v>
       </c>
       <c r="AN83" s="64" t="s">
@@ -17043,7 +16736,7 @@
       <c r="Q84" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="R84" s="108" t="s">
+      <c r="R84" s="107" t="s">
         <v>981</v>
       </c>
       <c r="S84" s="15" t="s">
@@ -17071,7 +16764,7 @@
       <c r="Z84" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA84" s="111"/>
+      <c r="AA84" s="110"/>
       <c r="AB84" s="17" t="s">
         <v>611</v>
       </c>
@@ -17105,7 +16798,7 @@
       <c r="AL84" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM84" s="114" t="s">
+      <c r="AM84" s="113" t="s">
         <v>616</v>
       </c>
       <c r="AN84" s="64" t="s">
@@ -17163,7 +16856,7 @@
       <c r="Q85" s="52" t="s">
         <v>177</v>
       </c>
-      <c r="R85" s="109" t="s">
+      <c r="R85" s="108" t="s">
         <v>619</v>
       </c>
       <c r="S85" s="15" t="s">
@@ -17190,7 +16883,7 @@
       <c r="Z85" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="AA85" s="112" t="s">
+      <c r="AA85" s="111" t="s">
         <v>1010</v>
       </c>
       <c r="AB85" s="46" t="s">
@@ -17226,7 +16919,7 @@
       <c r="AL85" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AM85" s="114" t="s">
+      <c r="AM85" s="113" t="s">
         <v>626</v>
       </c>
       <c r="AN85" s="67" t="s">
@@ -17391,7 +17084,7 @@
       <c r="Q87" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R87" s="106" t="s">
+      <c r="R87" s="105" t="s">
         <v>982</v>
       </c>
       <c r="S87" s="15" t="s">
@@ -17418,7 +17111,7 @@
       <c r="Z87" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA87" s="111" t="s">
+      <c r="AA87" s="110" t="s">
         <v>1009</v>
       </c>
       <c r="AB87" s="12" t="s">
@@ -17454,7 +17147,7 @@
       <c r="AL87" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM87" s="114" t="s">
+      <c r="AM87" s="113" t="s">
         <v>643</v>
       </c>
       <c r="AN87" s="64" t="s">
@@ -17512,7 +17205,7 @@
       <c r="Q88" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="R88" s="106" t="s">
+      <c r="R88" s="105" t="s">
         <v>979</v>
       </c>
       <c r="S88" s="15" t="s">
@@ -17539,7 +17232,7 @@
       <c r="Z88" s="53" t="s">
         <v>222</v>
       </c>
-      <c r="AA88" s="112" t="s">
+      <c r="AA88" s="111" t="s">
         <v>1009</v>
       </c>
       <c r="AB88" s="46" t="s">
@@ -17575,7 +17268,7 @@
       <c r="AL88" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="AM88" s="114" t="s">
+      <c r="AM88" s="113" t="s">
         <v>657</v>
       </c>
       <c r="AN88" s="62" t="s">
@@ -17745,7 +17438,7 @@
       <c r="Q90" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R90" s="106" t="s">
+      <c r="R90" s="105" t="s">
         <v>1025</v>
       </c>
       <c r="S90" s="15" t="s">
@@ -17772,7 +17465,7 @@
       <c r="Z90" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA90" s="111" t="s">
+      <c r="AA90" s="110" t="s">
         <v>1011</v>
       </c>
       <c r="AB90" s="17" t="s">
@@ -17808,7 +17501,7 @@
       <c r="AL90" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM90" s="114" t="s">
+      <c r="AM90" s="113" t="s">
         <v>1021</v>
       </c>
       <c r="AN90" s="28" t="s">
@@ -17975,7 +17668,7 @@
       <c r="Q92" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="R92" s="106" t="s">
+      <c r="R92" s="105" t="s">
         <v>983</v>
       </c>
       <c r="S92" s="15" t="s">
@@ -18002,7 +17695,7 @@
       <c r="Z92" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA92" s="111" t="s">
+      <c r="AA92" s="110" t="s">
         <v>996</v>
       </c>
       <c r="AB92" s="12" t="s">
@@ -18038,7 +17731,7 @@
       <c r="AL92" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM92" s="114" t="s">
+      <c r="AM92" s="113" t="s">
         <v>688</v>
       </c>
       <c r="AN92" s="28" t="s">
@@ -18202,7 +17895,7 @@
       <c r="Q94" s="47" t="s">
         <v>177</v>
       </c>
-      <c r="R94" s="106" t="s">
+      <c r="R94" s="105" t="s">
         <v>989</v>
       </c>
       <c r="T94" s="71">
@@ -18226,7 +17919,7 @@
       <c r="Z94" s="53" t="s">
         <v>64</v>
       </c>
-      <c r="AA94" s="112" t="s">
+      <c r="AA94" s="111" t="s">
         <v>995</v>
       </c>
       <c r="AB94" s="44" t="s">
@@ -18262,7 +17955,7 @@
       <c r="AL94" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AM94" s="114" t="s">
+      <c r="AM94" s="113" t="s">
         <v>706</v>
       </c>
       <c r="AN94" s="62" t="s">
@@ -18320,7 +18013,7 @@
       <c r="Q95" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="R95" s="106" t="s">
+      <c r="R95" s="105" t="s">
         <v>987</v>
       </c>
       <c r="T95" s="38">
@@ -18344,7 +18037,7 @@
       <c r="Z95" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA95" s="111" t="s">
+      <c r="AA95" s="110" t="s">
         <v>995</v>
       </c>
       <c r="AB95" s="17" t="s">
@@ -18380,7 +18073,7 @@
       <c r="AL95" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM95" s="114" t="s">
+      <c r="AM95" s="113" t="s">
         <v>715</v>
       </c>
       <c r="AN95" s="28" t="s">
@@ -18438,7 +18131,7 @@
       <c r="Q96" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R96" s="106" t="s">
+      <c r="R96" s="105" t="s">
         <v>984</v>
       </c>
       <c r="T96" s="38">
@@ -18462,7 +18155,7 @@
       <c r="Z96" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA96" s="111" t="s">
+      <c r="AA96" s="110" t="s">
         <v>1012</v>
       </c>
       <c r="AB96" s="17" t="s">
@@ -18498,7 +18191,7 @@
       <c r="AL96" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM96" s="114" t="s">
+      <c r="AM96" s="113" t="s">
         <v>726</v>
       </c>
       <c r="AN96" s="64" t="s">
@@ -18691,7 +18384,7 @@
       <c r="Q99" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R99" s="106" t="s">
+      <c r="R99" s="105" t="s">
         <v>985</v>
       </c>
       <c r="S99" s="15" t="s">
@@ -18718,7 +18411,7 @@
       <c r="Z99" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA99" s="111"/>
+      <c r="AA99" s="110"/>
       <c r="AB99" s="17" t="s">
         <v>738</v>
       </c>
@@ -18752,7 +18445,7 @@
       <c r="AL99" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM99" s="114" t="s">
+      <c r="AM99" s="113" t="s">
         <v>1020</v>
       </c>
       <c r="AN99" s="28" t="s">
@@ -18807,7 +18500,7 @@
       <c r="Q100" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R100" s="106" t="s">
+      <c r="R100" s="105" t="s">
         <v>962</v>
       </c>
       <c r="S100" s="15" t="s">
@@ -18834,7 +18527,7 @@
       <c r="Z100" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA100" s="111"/>
+      <c r="AA100" s="110"/>
       <c r="AB100" s="17" t="s">
         <v>746</v>
       </c>
@@ -18868,7 +18561,7 @@
       <c r="AL100" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM100" s="114" t="s">
+      <c r="AM100" s="113" t="s">
         <v>750</v>
       </c>
       <c r="AN100" s="28" t="s">
@@ -18924,7 +18617,7 @@
       <c r="Q101" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R101" s="106" t="s">
+      <c r="R101" s="105" t="s">
         <v>986</v>
       </c>
       <c r="S101" s="15" t="s">
@@ -18951,7 +18644,7 @@
       <c r="Z101" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA101" s="111"/>
+      <c r="AA101" s="110"/>
       <c r="AB101" s="17" t="s">
         <v>746</v>
       </c>
@@ -18985,7 +18678,7 @@
       <c r="AL101" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM101" s="114" t="s">
+      <c r="AM101" s="113" t="s">
         <v>759</v>
       </c>
       <c r="AN101" s="28" t="s">
@@ -19040,7 +18733,7 @@
       <c r="Q102" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R102" s="106" t="s">
+      <c r="R102" s="105" t="s">
         <v>1026</v>
       </c>
       <c r="S102" s="15" t="s">
@@ -19067,7 +18760,7 @@
       <c r="Z102" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA102" s="111"/>
+      <c r="AA102" s="110"/>
       <c r="AB102" s="17" t="s">
         <v>746</v>
       </c>
@@ -19101,7 +18794,7 @@
       <c r="AL102" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM102" s="114" t="s">
+      <c r="AM102" s="113" t="s">
         <v>767</v>
       </c>
       <c r="AN102" s="64" t="s">
@@ -19294,7 +18987,7 @@
       <c r="Q105" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R105" s="106" t="s">
+      <c r="R105" s="105" t="s">
         <v>962</v>
       </c>
       <c r="S105" s="15" t="s">
@@ -19321,7 +19014,7 @@
       <c r="Z105" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA105" s="111"/>
+      <c r="AA105" s="110"/>
       <c r="AB105" s="17" t="s">
         <v>738</v>
       </c>
@@ -19355,7 +19048,7 @@
       <c r="AL105" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM105" s="114" t="s">
+      <c r="AM105" s="113" t="s">
         <v>1019</v>
       </c>
       <c r="AN105" s="28" t="s">
@@ -19522,7 +19215,7 @@
       <c r="Q107" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R107" s="106" t="s">
+      <c r="R107" s="105" t="s">
         <v>962</v>
       </c>
       <c r="S107" s="15" t="s">
@@ -19549,7 +19242,7 @@
       <c r="Z107" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA107" s="111"/>
+      <c r="AA107" s="110"/>
       <c r="AB107" s="17" t="s">
         <v>738</v>
       </c>
@@ -19583,7 +19276,7 @@
       <c r="AL107" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM107" s="114" t="s">
+      <c r="AM107" s="113" t="s">
         <v>1018</v>
       </c>
       <c r="AN107" s="28" t="s">
@@ -19638,7 +19331,7 @@
       <c r="Q108" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R108" s="106" t="s">
+      <c r="R108" s="105" t="s">
         <v>962</v>
       </c>
       <c r="S108" s="15" t="s">
@@ -19665,7 +19358,7 @@
       <c r="Z108" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA108" s="111"/>
+      <c r="AA108" s="110"/>
       <c r="AB108" s="17" t="s">
         <v>738</v>
       </c>
@@ -19699,7 +19392,7 @@
       <c r="AL108" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM108" s="114" t="s">
+      <c r="AM108" s="113" t="s">
         <v>797</v>
       </c>
       <c r="AN108" s="28" t="s">
@@ -19754,7 +19447,7 @@
       <c r="Q109" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R109" s="106" t="s">
+      <c r="R109" s="105" t="s">
         <v>971</v>
       </c>
       <c r="S109" s="15" t="s">
@@ -19781,7 +19474,7 @@
       <c r="Z109" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA109" s="111"/>
+      <c r="AA109" s="110"/>
       <c r="AB109" s="17" t="s">
         <v>738</v>
       </c>
@@ -19815,7 +19508,7 @@
       <c r="AL109" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM109" s="114" t="s">
+      <c r="AM109" s="113" t="s">
         <v>805</v>
       </c>
       <c r="AN109" s="28" t="s">
@@ -19979,7 +19672,7 @@
       <c r="Q111" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R111" s="106" t="s">
+      <c r="R111" s="105" t="s">
         <v>971</v>
       </c>
       <c r="S111" s="15" t="s">
@@ -20006,7 +19699,7 @@
       <c r="Z111" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA111" s="111"/>
+      <c r="AA111" s="110"/>
       <c r="AB111" s="17" t="s">
         <v>738</v>
       </c>
@@ -20040,7 +19733,7 @@
       <c r="AL111" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM111" s="114" t="s">
+      <c r="AM111" s="113" t="s">
         <v>814</v>
       </c>
       <c r="AN111" s="28" t="s">
@@ -20095,7 +19788,7 @@
       <c r="Q112" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R112" s="106" t="s">
+      <c r="R112" s="105" t="s">
         <v>976</v>
       </c>
       <c r="S112" s="15" t="s">
@@ -20122,7 +19815,7 @@
       <c r="Z112" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA112" s="111"/>
+      <c r="AA112" s="110"/>
       <c r="AB112" s="17" t="s">
         <v>738</v>
       </c>
@@ -20156,7 +19849,7 @@
       <c r="AL112" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM112" s="114" t="s">
+      <c r="AM112" s="113" t="s">
         <v>822</v>
       </c>
       <c r="AN112" s="28" t="s">
@@ -20323,7 +20016,7 @@
       <c r="Q114" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R114" s="106" t="s">
+      <c r="R114" s="105" t="s">
         <v>1027</v>
       </c>
       <c r="S114" s="15" t="s">
@@ -20350,7 +20043,7 @@
       <c r="Z114" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA114" s="111"/>
+      <c r="AA114" s="110"/>
       <c r="AB114" s="17" t="s">
         <v>738</v>
       </c>
@@ -20384,7 +20077,7 @@
       <c r="AL114" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM114" s="114" t="s">
+      <c r="AM114" s="113" t="s">
         <v>836</v>
       </c>
       <c r="AN114" s="28" t="s">
@@ -20439,7 +20132,7 @@
       <c r="Q115" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="R115" s="106" t="s">
+      <c r="R115" s="105" t="s">
         <v>1028</v>
       </c>
       <c r="S115" s="15" t="s">
@@ -20466,7 +20159,7 @@
       <c r="Z115" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA115" s="111"/>
+      <c r="AA115" s="110"/>
       <c r="AB115" s="17" t="s">
         <v>738</v>
       </c>
@@ -20500,7 +20193,7 @@
       <c r="AL115" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM115" s="114" t="s">
+      <c r="AM115" s="113" t="s">
         <v>846</v>
       </c>
       <c r="AN115" s="75" t="s">
@@ -20693,7 +20386,7 @@
       <c r="Q118" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="R118" s="106" t="s">
+      <c r="R118" s="105" t="s">
         <v>988</v>
       </c>
       <c r="T118" s="33" t="s">
@@ -20717,7 +20410,7 @@
       <c r="Z118" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="AA118" s="111"/>
+      <c r="AA118" s="110"/>
       <c r="AB118" s="17" t="s">
         <v>860</v>
       </c>
@@ -20751,7 +20444,7 @@
       <c r="AL118" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM118" s="114" t="s">
+      <c r="AM118" s="113" t="s">
         <v>1017</v>
       </c>
       <c r="AN118" s="89" t="s">
@@ -20916,7 +20609,7 @@
       <c r="Q120" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="R120" s="106" t="s">
+      <c r="R120" s="105" t="s">
         <v>988</v>
       </c>
       <c r="T120" s="33" t="s">
@@ -20940,7 +20633,7 @@
       <c r="Z120" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA120" s="111" t="s">
+      <c r="AA120" s="110" t="s">
         <v>1013</v>
       </c>
       <c r="AB120" s="12" t="s">
@@ -20973,7 +20666,7 @@
       <c r="AL120" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM120" s="114" t="s">
+      <c r="AM120" s="113" t="s">
         <v>877</v>
       </c>
       <c r="AN120" s="39" t="s">
@@ -21031,7 +20724,7 @@
       <c r="Q121" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="R121" s="106" t="s">
+      <c r="R121" s="105" t="s">
         <v>988</v>
       </c>
       <c r="T121" s="15" t="s">
@@ -21055,7 +20748,7 @@
       <c r="Z121" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="AA121" s="111" t="s">
+      <c r="AA121" s="110" t="s">
         <v>1013</v>
       </c>
       <c r="AB121" s="17" t="s">
@@ -21091,7 +20784,7 @@
       <c r="AL121" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM121" s="114" t="s">
+      <c r="AM121" s="113" t="s">
         <v>1017</v>
       </c>
       <c r="AN121" s="51" t="s">
@@ -21256,7 +20949,7 @@
       <c r="Q123" s="15" t="s">
         <v>607</v>
       </c>
-      <c r="R123" s="106" t="s">
+      <c r="R123" s="105" t="s">
         <v>1029</v>
       </c>
       <c r="T123" s="92" t="s">
@@ -21280,7 +20973,7 @@
       <c r="Z123" s="13" t="s">
         <v>902</v>
       </c>
-      <c r="AA123" s="111" t="s">
+      <c r="AA123" s="110" t="s">
         <v>1014</v>
       </c>
       <c r="AB123" s="12" t="s">
@@ -21316,7 +21009,7 @@
       <c r="AL123" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="AM123" s="114" t="s">
+      <c r="AM123" s="113" t="s">
         <v>1016</v>
       </c>
       <c r="AN123" s="89" t="s">
@@ -21857,1282 +21550,1282 @@
     <mergeCell ref="K1:O1"/>
   </mergeCells>
   <conditionalFormatting sqref="AH28 AH51 AH90 AH46:AH49 AH63:AH64 AH66:AH68 AH4 AH92:AH96 AP91 AK23 AI25:AJ25 AH24:AK24 AH26:AK26 AJ70:AL70 AH61:AK61 AI46:AI52 AJ46:AJ47 AI55:AI57 AI60:AK60 AI105:AK116 AI63:AI74 AJ118:AK121 AJ35 AJ36:AK38 AJ39:AJ44 AH83:AH85 AH87:AH88 AK74 AJ48:AK52 AH53:AK54 AJ55:AK59 AJ63:AK69 AJ71:AK73 AG99:AK103 AN105:AN116 AN99:AN103 AN71:AN97 AN63:AN69 AN36:AN44 AN118:AN122 AH118 AH120:AH121 AH30:AH43 AI30:AI44 AI22:AI23 AH6:AH22 AI81:AK97 AH56:AH59 AJ30:AK34 AG118:AG122 AG105:AG114 AG46:AG61 AG75:AK80 AH70:AH73 AH105:AH115 AG81:AG97 AG63:AG74 AP136:AP137 AN46:AN61 AI27:AK29 AN23:AN34 AN136:AN137 AG4:AG44 AG136:AJ137 AI118:AI123 AJ122:AJ123 AI4:AO21 AK22:AO22 AM24 AM26 AM28 AM30:AM43 AM46 AM48:AM49 AM51 AM54 AM56 AM58:AM59 AM63:AM64 AM66 AM68 AN70:AO70 AM70:AM73 AM75 AM77:AM79 AM81 AM83:AM85 AM87:AM88 AM90 AM92 AM94:AM96 AM99:AM102 AM105 AM107:AM109 AM111:AM112 AM114:AM115 AM118 AM123 AM120:AM121">
-    <cfRule type="cellIs" dxfId="293" priority="261" operator="equal">
+    <cfRule type="cellIs" dxfId="263" priority="261" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH5">
-    <cfRule type="cellIs" dxfId="292" priority="260" operator="equal">
+    <cfRule type="cellIs" dxfId="262" priority="260" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="291" priority="259" operator="equal">
+    <cfRule type="cellIs" dxfId="261" priority="259" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="290" priority="258" operator="equal">
+    <cfRule type="cellIs" dxfId="260" priority="258" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="289" priority="257" operator="equal">
+    <cfRule type="cellIs" dxfId="259" priority="257" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ23">
-    <cfRule type="cellIs" dxfId="288" priority="256" operator="equal">
+    <cfRule type="cellIs" dxfId="258" priority="256" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK25">
-    <cfRule type="cellIs" dxfId="287" priority="255" operator="equal">
+    <cfRule type="cellIs" dxfId="257" priority="255" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="286" priority="254" operator="equal">
+    <cfRule type="cellIs" dxfId="256" priority="254" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="285" priority="253" operator="equal">
+    <cfRule type="cellIs" dxfId="255" priority="253" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH50">
-    <cfRule type="cellIs" dxfId="284" priority="252" operator="equal">
+    <cfRule type="cellIs" dxfId="254" priority="252" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH55">
-    <cfRule type="cellIs" dxfId="283" priority="251" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="251" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH52">
-    <cfRule type="cellIs" dxfId="282" priority="250" operator="equal">
+    <cfRule type="cellIs" dxfId="252" priority="250" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH65">
-    <cfRule type="cellIs" dxfId="281" priority="249" operator="equal">
+    <cfRule type="cellIs" dxfId="251" priority="249" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH69">
-    <cfRule type="cellIs" dxfId="280" priority="248" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="248" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH74">
-    <cfRule type="cellIs" dxfId="279" priority="247" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="247" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ74">
-    <cfRule type="cellIs" dxfId="278" priority="246" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="246" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH116">
-    <cfRule type="cellIs" dxfId="277" priority="245" operator="equal">
+    <cfRule type="cellIs" dxfId="247" priority="245" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH86">
-    <cfRule type="cellIs" dxfId="276" priority="244" operator="equal">
+    <cfRule type="cellIs" dxfId="246" priority="244" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH91">
-    <cfRule type="cellIs" dxfId="275" priority="243" operator="equal">
+    <cfRule type="cellIs" dxfId="245" priority="243" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH97">
-    <cfRule type="cellIs" dxfId="274" priority="242" operator="equal">
+    <cfRule type="cellIs" dxfId="244" priority="242" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH119">
-    <cfRule type="cellIs" dxfId="273" priority="241" operator="equal">
+    <cfRule type="cellIs" dxfId="243" priority="241" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH122">
-    <cfRule type="cellIs" dxfId="272" priority="240" operator="equal">
+    <cfRule type="cellIs" dxfId="242" priority="240" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:O2 D136:J136 D99:J103 D4:J44 D46:J61 D63:J97 D105:J116 D118:J122 D141:J141">
-    <cfRule type="cellIs" dxfId="271" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="241" priority="239" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI99:AJ103 AG99:AG103 AI105:AJ116 AI46:AJ61 AI63:AJ97 AG105:AG114 AG46:AG61 AG63:AG97 AG4:AG44 AG136:AG137 AI4:AJ44 AI136:AJ136 AI141:AJ141 AG118:AG124 AG141 AI118:AJ124">
-    <cfRule type="cellIs" dxfId="270" priority="262" operator="equal">
+    <cfRule type="cellIs" dxfId="240" priority="262" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE123 AF118:AF123 AE114 AF114:AF116 AE105:AF113 AE99:AF103 AE63:AF97 AE46:AF61 AE4:AF44 AE135:AF137 AE124:AF124 AE141:AF141">
-    <cfRule type="cellIs" dxfId="269" priority="238" operator="equal">
+    <cfRule type="cellIs" dxfId="239" priority="238" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE116">
-    <cfRule type="cellIs" dxfId="268" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="238" priority="237" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF124">
-    <cfRule type="cellIs" dxfId="267" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="237" priority="236" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE124">
-    <cfRule type="cellIs" dxfId="266" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="236" priority="235" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN119:AN122">
-    <cfRule type="cellIs" dxfId="265" priority="234" operator="equal">
+    <cfRule type="cellIs" dxfId="235" priority="234" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK39:AK44">
-    <cfRule type="cellIs" dxfId="264" priority="233" operator="equal">
+    <cfRule type="cellIs" dxfId="234" priority="233" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK46:AK47">
-    <cfRule type="cellIs" dxfId="263" priority="232" operator="equal">
+    <cfRule type="cellIs" dxfId="233" priority="232" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL23:AM23">
-    <cfRule type="cellIs" dxfId="262" priority="231" operator="equal">
+    <cfRule type="cellIs" dxfId="232" priority="231" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO23">
-    <cfRule type="cellIs" dxfId="261" priority="230" operator="equal">
+    <cfRule type="cellIs" dxfId="231" priority="230" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL24">
-    <cfRule type="cellIs" dxfId="260" priority="229" operator="equal">
+    <cfRule type="cellIs" dxfId="230" priority="229" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL25:AM25">
-    <cfRule type="cellIs" dxfId="259" priority="228" operator="equal">
+    <cfRule type="cellIs" dxfId="229" priority="228" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL26">
-    <cfRule type="cellIs" dxfId="258" priority="227" operator="equal">
+    <cfRule type="cellIs" dxfId="228" priority="227" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL27:AM27">
-    <cfRule type="cellIs" dxfId="257" priority="226" operator="equal">
+    <cfRule type="cellIs" dxfId="227" priority="226" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL28">
-    <cfRule type="cellIs" dxfId="256" priority="225" operator="equal">
+    <cfRule type="cellIs" dxfId="226" priority="225" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL29:AM29">
-    <cfRule type="cellIs" dxfId="255" priority="224" operator="equal">
+    <cfRule type="cellIs" dxfId="225" priority="224" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL30">
-    <cfRule type="cellIs" dxfId="254" priority="223" operator="equal">
+    <cfRule type="cellIs" dxfId="224" priority="223" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL63">
-    <cfRule type="cellIs" dxfId="253" priority="205" operator="equal">
+    <cfRule type="cellIs" dxfId="223" priority="205" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL33">
-    <cfRule type="cellIs" dxfId="252" priority="222" operator="equal">
+    <cfRule type="cellIs" dxfId="222" priority="222" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL36">
-    <cfRule type="cellIs" dxfId="251" priority="221" operator="equal">
+    <cfRule type="cellIs" dxfId="221" priority="221" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL65:AM65">
-    <cfRule type="cellIs" dxfId="250" priority="204" operator="equal">
+    <cfRule type="cellIs" dxfId="220" priority="204" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL38">
-    <cfRule type="cellIs" dxfId="249" priority="220" operator="equal">
+    <cfRule type="cellIs" dxfId="219" priority="220" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL40">
-    <cfRule type="cellIs" dxfId="248" priority="219" operator="equal">
+    <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL42">
-    <cfRule type="cellIs" dxfId="247" priority="218" operator="equal">
+    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL43">
-    <cfRule type="cellIs" dxfId="246" priority="217" operator="equal">
+    <cfRule type="cellIs" dxfId="216" priority="217" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL44:AM44">
-    <cfRule type="cellIs" dxfId="245" priority="216" operator="equal">
+    <cfRule type="cellIs" dxfId="215" priority="216" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL46">
-    <cfRule type="cellIs" dxfId="244" priority="215" operator="equal">
+    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL47:AM47">
-    <cfRule type="cellIs" dxfId="243" priority="214" operator="equal">
+    <cfRule type="cellIs" dxfId="213" priority="214" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL48">
-    <cfRule type="cellIs" dxfId="242" priority="213" operator="equal">
+    <cfRule type="cellIs" dxfId="212" priority="213" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL71">
-    <cfRule type="cellIs" dxfId="241" priority="198" operator="equal">
+    <cfRule type="cellIs" dxfId="211" priority="198" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL51">
-    <cfRule type="cellIs" dxfId="240" priority="212" operator="equal">
+    <cfRule type="cellIs" dxfId="210" priority="212" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL53:AM53">
-    <cfRule type="cellIs" dxfId="239" priority="211" operator="equal">
+    <cfRule type="cellIs" dxfId="209" priority="211" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL54">
-    <cfRule type="cellIs" dxfId="238" priority="210" operator="equal">
+    <cfRule type="cellIs" dxfId="208" priority="210" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL56">
-    <cfRule type="cellIs" dxfId="237" priority="209" operator="equal">
+    <cfRule type="cellIs" dxfId="207" priority="209" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL57:AM57">
-    <cfRule type="cellIs" dxfId="236" priority="208" operator="equal">
+    <cfRule type="cellIs" dxfId="206" priority="208" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL58">
-    <cfRule type="cellIs" dxfId="235" priority="207" operator="equal">
+    <cfRule type="cellIs" dxfId="205" priority="207" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL60:AM60">
-    <cfRule type="cellIs" dxfId="234" priority="206" operator="equal">
+    <cfRule type="cellIs" dxfId="204" priority="206" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL64">
-    <cfRule type="cellIs" dxfId="233" priority="203" operator="equal">
+    <cfRule type="cellIs" dxfId="203" priority="203" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL66">
-    <cfRule type="cellIs" dxfId="232" priority="202" operator="equal">
+    <cfRule type="cellIs" dxfId="202" priority="202" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL67:AM67">
-    <cfRule type="cellIs" dxfId="231" priority="201" operator="equal">
+    <cfRule type="cellIs" dxfId="201" priority="201" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL68">
-    <cfRule type="cellIs" dxfId="230" priority="200" operator="equal">
+    <cfRule type="cellIs" dxfId="200" priority="200" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL69:AM69">
-    <cfRule type="cellIs" dxfId="229" priority="199" operator="equal">
+    <cfRule type="cellIs" dxfId="199" priority="199" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL72">
-    <cfRule type="cellIs" dxfId="228" priority="197" operator="equal">
+    <cfRule type="cellIs" dxfId="198" priority="197" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL73">
-    <cfRule type="cellIs" dxfId="227" priority="196" operator="equal">
+    <cfRule type="cellIs" dxfId="197" priority="196" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL74:AM74">
-    <cfRule type="cellIs" dxfId="226" priority="195" operator="equal">
+    <cfRule type="cellIs" dxfId="196" priority="195" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL75">
-    <cfRule type="cellIs" dxfId="225" priority="194" operator="equal">
+    <cfRule type="cellIs" dxfId="195" priority="194" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL76:AM76">
-    <cfRule type="cellIs" dxfId="224" priority="193" operator="equal">
+    <cfRule type="cellIs" dxfId="194" priority="193" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL77">
-    <cfRule type="cellIs" dxfId="223" priority="192" operator="equal">
+    <cfRule type="cellIs" dxfId="193" priority="192" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL78">
-    <cfRule type="cellIs" dxfId="222" priority="191" operator="equal">
+    <cfRule type="cellIs" dxfId="192" priority="191" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL79">
-    <cfRule type="cellIs" dxfId="221" priority="190" operator="equal">
+    <cfRule type="cellIs" dxfId="191" priority="190" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL80:AM80">
-    <cfRule type="cellIs" dxfId="220" priority="189" operator="equal">
+    <cfRule type="cellIs" dxfId="190" priority="189" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL81">
-    <cfRule type="cellIs" dxfId="219" priority="188" operator="equal">
+    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL83">
-    <cfRule type="cellIs" dxfId="218" priority="187" operator="equal">
+    <cfRule type="cellIs" dxfId="188" priority="187" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL82:AM82">
-    <cfRule type="cellIs" dxfId="217" priority="186" operator="equal">
+    <cfRule type="cellIs" dxfId="187" priority="186" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL84">
-    <cfRule type="cellIs" dxfId="216" priority="185" operator="equal">
+    <cfRule type="cellIs" dxfId="186" priority="185" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL85">
-    <cfRule type="cellIs" dxfId="215" priority="184" operator="equal">
+    <cfRule type="cellIs" dxfId="185" priority="184" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL86:AM86">
-    <cfRule type="cellIs" dxfId="214" priority="183" operator="equal">
+    <cfRule type="cellIs" dxfId="184" priority="183" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL89:AM89">
-    <cfRule type="cellIs" dxfId="213" priority="182" operator="equal">
+    <cfRule type="cellIs" dxfId="183" priority="182" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL90">
-    <cfRule type="cellIs" dxfId="212" priority="181" operator="equal">
+    <cfRule type="cellIs" dxfId="182" priority="181" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL91:AM91">
-    <cfRule type="cellIs" dxfId="211" priority="180" operator="equal">
+    <cfRule type="cellIs" dxfId="181" priority="180" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL92">
-    <cfRule type="cellIs" dxfId="210" priority="179" operator="equal">
+    <cfRule type="cellIs" dxfId="180" priority="179" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL93:AM93">
-    <cfRule type="cellIs" dxfId="209" priority="178" operator="equal">
+    <cfRule type="cellIs" dxfId="179" priority="178" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL94">
-    <cfRule type="cellIs" dxfId="208" priority="177" operator="equal">
+    <cfRule type="cellIs" dxfId="178" priority="177" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL101">
-    <cfRule type="cellIs" dxfId="207" priority="173" operator="equal">
+    <cfRule type="cellIs" dxfId="177" priority="173" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL97:AM97">
-    <cfRule type="cellIs" dxfId="206" priority="176" operator="equal">
+    <cfRule type="cellIs" dxfId="176" priority="176" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL99">
-    <cfRule type="cellIs" dxfId="205" priority="175" operator="equal">
+    <cfRule type="cellIs" dxfId="175" priority="175" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL100">
-    <cfRule type="cellIs" dxfId="204" priority="174" operator="equal">
+    <cfRule type="cellIs" dxfId="174" priority="174" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL105">
-    <cfRule type="cellIs" dxfId="203" priority="171" operator="equal">
+    <cfRule type="cellIs" dxfId="173" priority="171" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL103:AM103">
-    <cfRule type="cellIs" dxfId="202" priority="172" operator="equal">
+    <cfRule type="cellIs" dxfId="172" priority="172" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL106:AM106">
-    <cfRule type="cellIs" dxfId="201" priority="170" operator="equal">
+    <cfRule type="cellIs" dxfId="171" priority="170" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL107">
-    <cfRule type="cellIs" dxfId="200" priority="169" operator="equal">
+    <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL108">
-    <cfRule type="cellIs" dxfId="199" priority="168" operator="equal">
+    <cfRule type="cellIs" dxfId="169" priority="168" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL109">
-    <cfRule type="cellIs" dxfId="198" priority="167" operator="equal">
+    <cfRule type="cellIs" dxfId="168" priority="167" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL110:AM110">
-    <cfRule type="cellIs" dxfId="197" priority="166" operator="equal">
+    <cfRule type="cellIs" dxfId="167" priority="166" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL111">
-    <cfRule type="cellIs" dxfId="196" priority="165" operator="equal">
+    <cfRule type="cellIs" dxfId="166" priority="165" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL112">
-    <cfRule type="cellIs" dxfId="195" priority="164" operator="equal">
+    <cfRule type="cellIs" dxfId="165" priority="164" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL113:AM113">
-    <cfRule type="cellIs" dxfId="194" priority="163" operator="equal">
+    <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL114">
-    <cfRule type="cellIs" dxfId="193" priority="162" operator="equal">
+    <cfRule type="cellIs" dxfId="163" priority="162" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL115">
-    <cfRule type="cellIs" dxfId="192" priority="161" operator="equal">
+    <cfRule type="cellIs" dxfId="162" priority="161" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL116:AM116">
-    <cfRule type="cellIs" dxfId="191" priority="160" operator="equal">
+    <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL120">
-    <cfRule type="cellIs" dxfId="190" priority="159" operator="equal">
+    <cfRule type="cellIs" dxfId="160" priority="159" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL123">
-    <cfRule type="cellIs" dxfId="189" priority="158" operator="equal">
+    <cfRule type="cellIs" dxfId="159" priority="158" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL124:AM124">
-    <cfRule type="cellIs" dxfId="188" priority="157" operator="equal">
+    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO124">
-    <cfRule type="cellIs" dxfId="187" priority="156" operator="equal">
+    <cfRule type="cellIs" dxfId="157" priority="156" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO123">
-    <cfRule type="cellIs" dxfId="186" priority="155" operator="equal">
+    <cfRule type="cellIs" dxfId="156" priority="155" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL141:AM141">
-    <cfRule type="cellIs" dxfId="185" priority="154" operator="equal">
+    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO141">
-    <cfRule type="cellIs" dxfId="184" priority="153" operator="equal">
+    <cfRule type="cellIs" dxfId="154" priority="153" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL118">
-    <cfRule type="cellIs" dxfId="183" priority="152" operator="equal">
+    <cfRule type="cellIs" dxfId="153" priority="152" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO118">
-    <cfRule type="cellIs" dxfId="182" priority="151" operator="equal">
+    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL121">
-    <cfRule type="cellIs" dxfId="181" priority="150" operator="equal">
+    <cfRule type="cellIs" dxfId="151" priority="150" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL122:AM122">
-    <cfRule type="cellIs" dxfId="180" priority="149" operator="equal">
+    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO122">
-    <cfRule type="cellIs" dxfId="179" priority="148" operator="equal">
+    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO121">
-    <cfRule type="cellIs" dxfId="178" priority="147" operator="equal">
+    <cfRule type="cellIs" dxfId="148" priority="147" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO120">
-    <cfRule type="cellIs" dxfId="177" priority="146" operator="equal">
+    <cfRule type="cellIs" dxfId="147" priority="146" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO116">
-    <cfRule type="cellIs" dxfId="176" priority="145" operator="equal">
+    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO115">
-    <cfRule type="cellIs" dxfId="175" priority="144" operator="equal">
+    <cfRule type="cellIs" dxfId="145" priority="144" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO113">
-    <cfRule type="cellIs" dxfId="174" priority="143" operator="equal">
+    <cfRule type="cellIs" dxfId="144" priority="143" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO112">
-    <cfRule type="cellIs" dxfId="173" priority="142" operator="equal">
+    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO111">
-    <cfRule type="cellIs" dxfId="172" priority="141" operator="equal">
+    <cfRule type="cellIs" dxfId="142" priority="141" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO110">
-    <cfRule type="cellIs" dxfId="171" priority="140" operator="equal">
+    <cfRule type="cellIs" dxfId="141" priority="140" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO109">
-    <cfRule type="cellIs" dxfId="170" priority="139" operator="equal">
+    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO108">
-    <cfRule type="cellIs" dxfId="169" priority="138" operator="equal">
+    <cfRule type="cellIs" dxfId="139" priority="138" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO114">
-    <cfRule type="cellIs" dxfId="168" priority="137" operator="equal">
+    <cfRule type="cellIs" dxfId="138" priority="137" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO107">
-    <cfRule type="cellIs" dxfId="167" priority="136" operator="equal">
+    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO106">
-    <cfRule type="cellIs" dxfId="166" priority="135" operator="equal">
+    <cfRule type="cellIs" dxfId="136" priority="135" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO105">
-    <cfRule type="cellIs" dxfId="165" priority="134" operator="equal">
+    <cfRule type="cellIs" dxfId="135" priority="134" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO103">
-    <cfRule type="cellIs" dxfId="164" priority="133" operator="equal">
+    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO101">
-    <cfRule type="cellIs" dxfId="163" priority="132" operator="equal">
+    <cfRule type="cellIs" dxfId="133" priority="132" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO100">
-    <cfRule type="cellIs" dxfId="162" priority="131" operator="equal">
+    <cfRule type="cellIs" dxfId="132" priority="131" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO99">
-    <cfRule type="cellIs" dxfId="161" priority="130" operator="equal">
+    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO97">
-    <cfRule type="cellIs" dxfId="160" priority="129" operator="equal">
+    <cfRule type="cellIs" dxfId="130" priority="129" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO93">
-    <cfRule type="cellIs" dxfId="159" priority="127" operator="equal">
+    <cfRule type="cellIs" dxfId="129" priority="127" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO95">
-    <cfRule type="cellIs" dxfId="158" priority="128" operator="equal">
+    <cfRule type="cellIs" dxfId="128" priority="128" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO92">
-    <cfRule type="cellIs" dxfId="157" priority="126" operator="equal">
+    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO91">
-    <cfRule type="cellIs" dxfId="156" priority="125" operator="equal">
+    <cfRule type="cellIs" dxfId="126" priority="125" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO90">
-    <cfRule type="cellIs" dxfId="155" priority="124" operator="equal">
+    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO89">
-    <cfRule type="cellIs" dxfId="154" priority="123" operator="equal">
+    <cfRule type="cellIs" dxfId="124" priority="123" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO76">
-    <cfRule type="cellIs" dxfId="153" priority="114" operator="equal">
+    <cfRule type="cellIs" dxfId="123" priority="114" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO86">
-    <cfRule type="cellIs" dxfId="152" priority="122" operator="equal">
+    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO85">
-    <cfRule type="cellIs" dxfId="151" priority="121" operator="equal">
+    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO84">
-    <cfRule type="cellIs" dxfId="150" priority="120" operator="equal">
+    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO83">
-    <cfRule type="cellIs" dxfId="149" priority="119" operator="equal">
+    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO81">
-    <cfRule type="cellIs" dxfId="148" priority="118" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO80">
-    <cfRule type="cellIs" dxfId="147" priority="117" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO79">
-    <cfRule type="cellIs" dxfId="146" priority="116" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO66">
-    <cfRule type="cellIs" dxfId="145" priority="106" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO77">
-    <cfRule type="cellIs" dxfId="144" priority="115" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO75">
-    <cfRule type="cellIs" dxfId="143" priority="113" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO74">
-    <cfRule type="cellIs" dxfId="142" priority="112" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO58">
-    <cfRule type="cellIs" dxfId="141" priority="100" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="100" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO72">
-    <cfRule type="cellIs" dxfId="140" priority="111" operator="equal">
+    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO71">
-    <cfRule type="cellIs" dxfId="139" priority="110" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO69">
-    <cfRule type="cellIs" dxfId="138" priority="109" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO68">
-    <cfRule type="cellIs" dxfId="137" priority="108" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO67">
-    <cfRule type="cellIs" dxfId="136" priority="107" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO65">
-    <cfRule type="cellIs" dxfId="135" priority="105" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO64">
-    <cfRule type="cellIs" dxfId="134" priority="104" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO63">
-    <cfRule type="cellIs" dxfId="133" priority="103" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="103" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO61">
-    <cfRule type="cellIs" dxfId="132" priority="102" operator="equal">
+    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO60">
-    <cfRule type="cellIs" dxfId="131" priority="101" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO57">
-    <cfRule type="cellIs" dxfId="130" priority="99" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="99" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO56">
-    <cfRule type="cellIs" dxfId="129" priority="98" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO54">
-    <cfRule type="cellIs" dxfId="128" priority="97" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO53">
-    <cfRule type="cellIs" dxfId="127" priority="96" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="96" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO34">
-    <cfRule type="cellIs" dxfId="126" priority="86" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO48">
-    <cfRule type="cellIs" dxfId="125" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO46">
-    <cfRule type="cellIs" dxfId="124" priority="94" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO44">
-    <cfRule type="cellIs" dxfId="123" priority="93" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO43">
-    <cfRule type="cellIs" dxfId="122" priority="92" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO42">
-    <cfRule type="cellIs" dxfId="121" priority="91" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO41">
-    <cfRule type="cellIs" dxfId="120" priority="90" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO40">
-    <cfRule type="cellIs" dxfId="119" priority="89" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO82">
-    <cfRule type="cellIs" dxfId="118" priority="74" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="74" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO38">
-    <cfRule type="cellIs" dxfId="117" priority="88" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO36">
-    <cfRule type="cellIs" dxfId="116" priority="87" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO33">
-    <cfRule type="cellIs" dxfId="115" priority="85" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO47">
-    <cfRule type="cellIs" dxfId="114" priority="63" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="63" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO30">
-    <cfRule type="cellIs" dxfId="113" priority="84" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="112" priority="83" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO28">
-    <cfRule type="cellIs" dxfId="111" priority="82" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="110" priority="81" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO26">
-    <cfRule type="cellIs" dxfId="109" priority="80" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="108" priority="79" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO24">
-    <cfRule type="cellIs" dxfId="107" priority="78" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL119:AM119">
-    <cfRule type="cellIs" dxfId="106" priority="77" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK122">
-    <cfRule type="cellIs" dxfId="105" priority="76" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK122">
-    <cfRule type="cellIs" dxfId="104" priority="75" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO119">
-    <cfRule type="cellIs" dxfId="103" priority="73" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL136:AM136">
-    <cfRule type="cellIs" dxfId="102" priority="72" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO136">
-    <cfRule type="cellIs" dxfId="101" priority="71" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D137:J137">
-    <cfRule type="cellIs" dxfId="100" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="69" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI137:AJ137">
-    <cfRule type="cellIs" dxfId="99" priority="70" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL137:AM137">
-    <cfRule type="cellIs" dxfId="98" priority="67" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO137">
-    <cfRule type="cellIs" dxfId="97" priority="66" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="66" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL32">
-    <cfRule type="cellIs" dxfId="96" priority="65" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="65" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="95" priority="64" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH81">
-    <cfRule type="cellIs" dxfId="94" priority="62" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="93" priority="61" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL59">
-    <cfRule type="cellIs" dxfId="92" priority="60" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO59">
-    <cfRule type="cellIs" dxfId="91" priority="59" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH60">
-    <cfRule type="cellIs" dxfId="90" priority="58" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="58" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE115">
-    <cfRule type="cellIs" dxfId="89" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH89">
-    <cfRule type="cellIs" dxfId="88" priority="56" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL61:AM61">
-    <cfRule type="cellIs" dxfId="87" priority="55" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG137">
-    <cfRule type="cellIs" dxfId="86" priority="54" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH82">
-    <cfRule type="cellIs" dxfId="85" priority="53" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="84" priority="52" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO35">
-    <cfRule type="cellIs" dxfId="83" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL50:AM50">
-    <cfRule type="cellIs" dxfId="82" priority="50" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO50">
-    <cfRule type="cellIs" dxfId="81" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL52:AM52">
-    <cfRule type="cellIs" dxfId="80" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO52">
-    <cfRule type="cellIs" dxfId="79" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL55:AM55">
-    <cfRule type="cellIs" dxfId="78" priority="46" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO55">
-    <cfRule type="cellIs" dxfId="77" priority="45" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI99:AI103 AG99:AG103 AI105:AI116 AI46:AI61 AI63:AI97 AG105:AG114 AG46:AG61 AG63:AG97 AG4:AG44 AI4:AI44 AG135:AG137 AJ15 AI135:AI137 AI141 AG118:AG124 AG141 AI118:AI124 AJ123">
-    <cfRule type="cellIs" dxfId="76" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
       <formula>$AI$135</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C46:C61 C99:C103 C105:C116 C63:C97 W46:Y61 V40:V61 T40:U40 T39:V39 C4:C44 W22:Y44 AB9:AB12 AB14:AB15 AB17:AB21 C135:C137 P1:Y2 P135:Y137 C141 P141:Y141 P118:Y124 C118:C124 P39:S40 P4:Y21 P22:V38 P41:U44 P46:U61 P99:Y103 P105:Y116 P63:Y97">
-    <cfRule type="cellIs" dxfId="75" priority="42" operator="equal">
+  <conditionalFormatting sqref="C46:C61 C99:C103 C105:C116 C63:C97 W46:Y61 V40:V61 T40:U40 T39:V39 C4:C44 W22:Y44 AB9:AB12 AB14:AB15 AB17:AB21 C135:C137 P1:Y2 P135:Y137 C141 P141:Y141 P118:Y124 C118:C124 P39:S40 P4:Y21 P22:V38 P41:U44 P99:Y103 P105:Y116 P63:Y97 P46:U61">
+    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
       <formula>$B$135</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135:J135">
-    <cfRule type="cellIs" dxfId="74" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI135:AJ135 AG135">
-    <cfRule type="cellIs" dxfId="73" priority="44" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q135:AB135 Q1:AC2 W41:AA41 W40:AB40 W77:AB77 W79:AB79 W78:AA78 V40:V61 W63:AC63 W64:AB64 W43:AC44 W42:AB42 T40:U40 AB74:AB75 Q76:AB76 AB89:AB97 Q17:Y29 T39:AB39 AC105:AC114 AC46:AC61 Q136:AC137 AC30:AC42 Z17:AB28 AC4:AC28 Z29:AC29 W46:AB48 W53:AB61 Z74:AA74 Q89:AA89 Q118:AB124 Q141:AB141 AC64:AC97 Q39:S40 Q41:U44 Q46:U61 Q90:Y97 Q63:V64 Q65:AB73 Q74:Y75 Q80:AB88 Q99:AC103 Q105:AB116 Q4:AB16 Q30:AB38 W49:AA52 Q77:V79">
-    <cfRule type="cellIs" dxfId="72" priority="40" operator="equal">
+  <conditionalFormatting sqref="Q135:AB135 Q1:AC2 W41:AA41 W40:AB40 W77:AB77 W79:AB79 W78:AA78 V40:V61 W63:AC63 W64:AB64 W43:AC44 W42:AB42 T40:U40 AB74:AB75 Q76:AB76 AB89:AB97 Q17:Y29 T39:AB39 AC105:AC114 AC46:AC61 Q136:AC137 AC30:AC42 Z17:AB28 AC4:AC28 Z29:AC29 W46:AB48 W53:AB61 Z74:AA74 Q89:AA89 Q118:AB124 Q141:AB141 AC64:AC97 Q39:S40 Q41:U44 Q90:Y97 Q63:V64 Q65:AB73 Q74:Y75 Q80:AB88 Q99:AC103 Q105:AB116 Q4:AB16 Q30:AB38 W49:AA52 Q77:V79 Q46:U61">
+    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL135:AM135">
-    <cfRule type="cellIs" dxfId="71" priority="38" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO135">
-    <cfRule type="cellIs" dxfId="70" priority="37" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI137">
-    <cfRule type="cellIs" dxfId="69" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI137">
-    <cfRule type="cellIs" dxfId="68" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z75:AA75">
-    <cfRule type="cellIs" dxfId="67" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE118:AE122">
-    <cfRule type="cellIs" dxfId="66" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123:J123">
-    <cfRule type="cellIs" dxfId="65" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
       <formula>$B$135</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:J124">
-    <cfRule type="cellIs" dxfId="64" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
       <formula>$B$135</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="63" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="62" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL34">
-    <cfRule type="cellIs" dxfId="61" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL37">
-    <cfRule type="cellIs" dxfId="60" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO37">
-    <cfRule type="cellIs" dxfId="59" priority="26" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL39">
-    <cfRule type="cellIs" dxfId="58" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO39">
-    <cfRule type="cellIs" dxfId="57" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL41">
-    <cfRule type="cellIs" dxfId="56" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL49">
-    <cfRule type="cellIs" dxfId="55" priority="22" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO49">
-    <cfRule type="cellIs" dxfId="54" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO51">
-    <cfRule type="cellIs" dxfId="53" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO73">
-    <cfRule type="cellIs" dxfId="52" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO78">
-    <cfRule type="cellIs" dxfId="51" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO87">
-    <cfRule type="cellIs" dxfId="50" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO88">
-    <cfRule type="cellIs" dxfId="49" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL87">
-    <cfRule type="cellIs" dxfId="48" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL88">
-    <cfRule type="cellIs" dxfId="47" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO94">
-    <cfRule type="cellIs" dxfId="46" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL95">
-    <cfRule type="cellIs" dxfId="45" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL96">
-    <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO96">
-    <cfRule type="cellIs" dxfId="43" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL102">
-    <cfRule type="cellIs" dxfId="42" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO102">
-    <cfRule type="cellIs" dxfId="41" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
       <formula>$AP$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:O2">
-    <cfRule type="cellIs" dxfId="40" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>$A$73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="39" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="cellIs" dxfId="38" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>

--- a/data/raw/Performance-Matrix-RW.xlsx
+++ b/data/raw/Performance-Matrix-RW.xlsx
@@ -15,7 +15,7 @@
     <sheet name="RACGP 2017 (dwngdedSMD4calc'd)" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RACGP 2017 (dwngdedSMD4calc''d)'!$A$3:$AQ$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RACGP 2017 (dwngdedSMD4calc''d)'!$A$3:$AS$124</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -187,7 +187,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3302" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3532" uniqueCount="1102">
   <si>
     <t>knee, hip or both filter (1/0/10)</t>
   </si>
@@ -4032,9 +4032,6 @@
     <t>-1.72 [-0.97, -2.46]</t>
   </si>
   <si>
-    <t>-0.10 [-0.50, 0.29]</t>
-  </si>
-  <si>
     <t>-0.63 [-0.91, -0.36]</t>
   </si>
   <si>
@@ -4044,9 +4041,6 @@
     <t>-0.57 [-0.95, -0.19]</t>
   </si>
   <si>
-    <t>-0.4 [-0.58, -0.22]</t>
-  </si>
-  <si>
     <t>-1.28</t>
   </si>
   <si>
@@ -4072,6 +4066,235 @@
   </si>
   <si>
     <t>-0.64 [-0.95, -0.33]</t>
+  </si>
+  <si>
+    <t>-0.30 [-0.75, +0.14]</t>
+  </si>
+  <si>
+    <t>-0.36 [-0.92, +0.20]</t>
+  </si>
+  <si>
+    <t>-1.08 [-6.18, +4.01]</t>
+  </si>
+  <si>
+    <t>-0.15 [-1.11, +0.80]</t>
+  </si>
+  <si>
+    <t>-0.07 [-3.01, +2.86]</t>
+  </si>
+  <si>
+    <t>-2.00 [-2.27, -1.72]</t>
+  </si>
+  <si>
+    <t>-0.20 [-0.29, -0.11]</t>
+  </si>
+  <si>
+    <t>-0.19 [-0.30, -0.09]</t>
+  </si>
+  <si>
+    <t>-0.09 [-1.23, +1.04]</t>
+  </si>
+  <si>
+    <t>-0.09 [-3.59, +3.41]</t>
+  </si>
+  <si>
+    <t>-0.02 [-15.55, +15.50]</t>
+  </si>
+  <si>
+    <t>-0.44 [-1.07, +0.17]</t>
+  </si>
+  <si>
+    <t>-0.40 [-0.58, -0.22]</t>
+  </si>
+  <si>
+    <t>-1.61 [-2.10, -1.13]</t>
+  </si>
+  <si>
+    <t>-0.58 [-4.76, +3.58]</t>
+  </si>
+  <si>
+    <t>-0.10 [-0.50, +0.29]</t>
+  </si>
+  <si>
+    <t>+0.10 [-0.22, +0.42]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+0.28 [-0.40, +0.97] </t>
+  </si>
+  <si>
+    <t>+0.20 [-0.56, +0.98]</t>
+  </si>
+  <si>
+    <t>-0.60 [-0.83, -0.38]</t>
+  </si>
+  <si>
+    <t>+0.72 [0.26, 1.17]</t>
+  </si>
+  <si>
+    <t>+0.16 [-0.15, +0.48]</t>
+  </si>
+  <si>
+    <t>+0.01 [-41.14, +41.17]</t>
+  </si>
+  <si>
+    <t>-1.10 [-1.66, -0.54]</t>
+  </si>
+  <si>
+    <t>-1.20 [-36.76, +34.35]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Round Table - see word table. Covers, most common complication in past 12 months and emergency readmission rates for all RHT (e.g. cardiac arrhythmias, acute respiratory distress syndrome, infection, peri-operative complications, gastro bleeding...)
+Southland rate of unplanned radmissions of hips: 4.3% 60 days post-surgery.
+1. Jamsen, E., et al. (2010). "Incidence of prosthetic joint infections after primary knee arthroplasty." J Arthroplasty 25(1): 87-92. The rates of superficial and prosthetic joint infections were 2.9% and 0.80%, respectively. 
+2. Marang-van de Mheen, P. J., et al. (2017). "Variation in Prosthetic Joint Infection and treatment strategies during 4.5 years of follow-up after primary joint arthroplasty using administrative data of 41397 patients across Australian, European and United States hospitals." BMC Musculoskelet Disord 18(1): 207. Periprosthetic joint infection occurrence varied from 1.4% in European to 1.7% in Australian patients, which were significantly higher than US patients after adjustment for patient characteristics (OR 1.24 [1.01-1.52] and 1.40 [1.03-1.91] respectively).
+NZ Specific data
+"Revision is defined by the Registry as a new operation in a previously replaced knee joint, during which one or more of the components is exchanged, removed, manipulated or added. It includes arthrodesis or amputation, but not soft tissue procedures. A two or more staged procedure is registered as one revision. "
+4. Early deep infection rate for hip and knees: 1.1% (National Orthopaedic Surgery Report January to march, 2017)
+5. NZ JR 2017 report: overall revision rate of 0.73 per 100 component-years [CI 0.71-0.75] for hips; knees 0.50 per 100 component years [CI 0.48-0.51]. Survival is &gt;85% and &gt;92% 17 years for hip, and knees, respectively.
+p 87 states 3.1% knee repacement revisions for TKA over 18 year period of primary registered knee arthroplasties. For hip, P23 states a 4.9% revision rate for registered primary hip arthroplasties.
+</t>
+  </si>
+  <si>
+    <t>Very low likelihood of serious adverse effects</t>
+  </si>
+  <si>
+    <t>Very low risk of harm reported</t>
+  </si>
+  <si>
+    <t>Low risk of harms</t>
+  </si>
+  <si>
+    <t>No adverse effects reported</t>
+  </si>
+  <si>
+    <t>Low likelihood of adverse effects which can include skin irritation</t>
+  </si>
+  <si>
+    <t>Side effects are minor and include skin irritation from the tape</t>
+  </si>
+  <si>
+    <t>Few adverse events</t>
+  </si>
+  <si>
+    <t>No evidence of harm</t>
+  </si>
+  <si>
+    <t>Statistically significant increase in risk of adverse events</t>
+  </si>
+  <si>
+    <t>Risk of harm is low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potential harms of NSAIDs include gastrointestinal (GI), renal and cardiovascular adverse effects
+</t>
+  </si>
+  <si>
+    <t>Adverse events from topical NSAIDs agents are minimal, but there is mild toxicity due to local skin reactions</t>
+  </si>
+  <si>
+    <t>Mild application site burning is the most comment adverse event</t>
+  </si>
+  <si>
+    <t>Majority of adverse events are of mild or moderate intensity, e.g. constipation, nausea, hyperhidrosis, cough, myalgia, arthralgia and palpitations</t>
+  </si>
+  <si>
+    <t>Listed side effects include myocardial infarction, venous thromboembolism events, pulmonary embolism, and hypersensitivity reaction</t>
+  </si>
+  <si>
+    <t>No local or systemic safety concerns for doses up to 300 μg</t>
+  </si>
+  <si>
+    <t>Higher incidence of gastrointestinal disorders and hot flushes</t>
+  </si>
+  <si>
+    <t>Minor adverse events and restrictions on some day to day activities such as dental procedures</t>
+  </si>
+  <si>
+    <t>Minor adverse events include monilial vaginitis, sun sensitivity, nonspecific gastrointestinal symptoms</t>
+  </si>
+  <si>
+    <t>Minor adverse events include headache, upper respiratory tract infection, back pain, and extremity pain</t>
+  </si>
+  <si>
+    <t>Reported adverse events include arthralgia, headache, upper respiratory tract infection and abnormal peripheral sensation (e.g. paraesthesia, dysesthesia, hyperaesthesia and hypoesthesia)</t>
+  </si>
+  <si>
+    <t>Side-effects can include gastrointestinal side-effects, haematological abnormalities and elevated liver transaminases</t>
+  </si>
+  <si>
+    <t>Most common treatment related adverse events are local swelling and transient regional pain</t>
+  </si>
+  <si>
+    <t>Minimal adverse events</t>
+  </si>
+  <si>
+    <t>Low risk of adverse effects</t>
+  </si>
+  <si>
+    <t>No significant risk of adverse events</t>
+  </si>
+  <si>
+    <t>No safety concerns</t>
+  </si>
+  <si>
+    <t>Side-effects are minor and uncommon</t>
+  </si>
+  <si>
+    <t>Risk of serious adverse events including severe diarrhoea and potentially harmful effects on the liver</t>
+  </si>
+  <si>
+    <t>Side effects can include local pain and swelling, infection, prolonged drainage from the surgical site, bleeding into the joint, and thrombophlebitis&lt;br&gt;Serious potential harms can include deep venous thrombosis, premature joint replacement, and rarely, pulmonary embolism and death</t>
+  </si>
+  <si>
+    <t>Risk of joint infection</t>
+  </si>
+  <si>
+    <t>Rmi value</t>
+  </si>
+  <si>
+    <t>Rse value</t>
+  </si>
+  <si>
+    <t>Minor adverse events include temporary increased pain at affected joint or pain at other sites</t>
+  </si>
+  <si>
+    <t>Low likelihood of skin irritation</t>
+  </si>
+  <si>
+    <t>No serious adverse events</t>
+  </si>
+  <si>
+    <t>Low risk of adverse events</t>
+  </si>
+  <si>
+    <t>No serious adverse events reported</t>
+  </si>
+  <si>
+    <t>Common harmful effects include gastrointestinal disturbance and cognitive dysfunction</t>
+  </si>
+  <si>
+    <t>The risk of additional adverse effects may accumulate with long-term use, including dependence, adverse effects on bone health, endocrine and immune function, and possible potentiation of chronic pain mechanisms</t>
+  </si>
+  <si>
+    <t>Adverse events from topical NSAIDs agents are minimal</t>
+  </si>
+  <si>
+    <t>Common harmful effects may occur in the short-term, such as gastrointestinal disturbance and cognitive dysfunction</t>
+  </si>
+  <si>
+    <t>Majority of adverse events are of mild or moderate intensity</t>
+  </si>
+  <si>
+    <t>Minor side effects include pain at the injection site, local joint pain and swelling, and local skin reactions</t>
+  </si>
+  <si>
+    <t>Pseudoseptic reactions can be severe and may require further medical treatment</t>
+  </si>
+  <si>
+    <t>Minor adverse events include mild pain and effusion</t>
+  </si>
+  <si>
+    <t>No significant risk of mild/moderate adverse events</t>
   </si>
 </sst>
 </file>
@@ -4243,7 +4466,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4524,6 +4747,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4535,7 +4761,127 @@
     <cellStyle name="Normal 2" xfId="4"/>
     <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="264">
+  <dxfs count="276">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7487,13 +7833,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:AQ141"/>
+  <dimension ref="A1:AS141"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C15" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="AD66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A83" sqref="A83:XFD83"/>
+      <selection pane="bottomRight" activeCell="AG118" sqref="AG118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.5703125" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -7518,21 +7864,21 @@
     <col min="28" max="28" width="26.5703125" style="59" customWidth="1"/>
     <col min="29" max="29" width="13.140625" style="59" customWidth="1"/>
     <col min="30" max="30" width="21.5703125" style="15" customWidth="1"/>
-    <col min="31" max="32" width="17.140625" style="15" customWidth="1"/>
-    <col min="33" max="33" width="15.5703125" style="15" customWidth="1"/>
-    <col min="34" max="34" width="51.5703125" style="15" customWidth="1"/>
-    <col min="35" max="36" width="18.5703125" style="15" customWidth="1"/>
-    <col min="37" max="37" width="26.85546875" style="19" customWidth="1"/>
-    <col min="38" max="38" width="11.42578125" style="13" customWidth="1"/>
-    <col min="39" max="39" width="17.85546875" style="110" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.5703125" style="15" customWidth="1"/>
-    <col min="41" max="41" width="10.5703125" style="13" customWidth="1"/>
-    <col min="42" max="42" width="17.42578125" style="15" customWidth="1"/>
-    <col min="43" max="43" width="8.5703125" style="15" customWidth="1"/>
-    <col min="44" max="16384" width="8.5703125" style="15"/>
+    <col min="31" max="34" width="17.140625" style="15" customWidth="1"/>
+    <col min="35" max="35" width="15.5703125" style="15" customWidth="1"/>
+    <col min="36" max="36" width="51.5703125" style="15" customWidth="1"/>
+    <col min="37" max="38" width="18.5703125" style="15" customWidth="1"/>
+    <col min="39" max="39" width="26.85546875" style="19" customWidth="1"/>
+    <col min="40" max="40" width="11.42578125" style="13" customWidth="1"/>
+    <col min="41" max="41" width="20" style="110" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="22.5703125" style="15" customWidth="1"/>
+    <col min="43" max="43" width="10.5703125" style="13" customWidth="1"/>
+    <col min="44" max="44" width="17.42578125" style="15" customWidth="1"/>
+    <col min="45" max="45" width="8.5703125" style="15" customWidth="1"/>
+    <col min="46" max="16384" width="8.5703125" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:44" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7563,13 +7909,13 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="114" t="s">
+      <c r="K1" s="115" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="114"/>
-      <c r="M1" s="114"/>
-      <c r="N1" s="114"/>
-      <c r="O1" s="114"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="115"/>
+      <c r="O1" s="115"/>
       <c r="P1" s="5" t="s">
         <v>11</v>
       </c>
@@ -7615,36 +7961,38 @@
       <c r="AF1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AL1" s="11" t="s">
+      <c r="AN1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AM1" s="112"/>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="112"/>
+      <c r="AP1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AO1" s="11" t="s">
+      <c r="AQ1" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AP1" s="12" t="s">
+      <c r="AR1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:42" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" s="1" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>34</v>
       </c>
@@ -7722,18 +8070,24 @@
       <c r="AF2" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="AL2" s="11" t="s">
+      <c r="AG2" s="10" t="s">
+        <v>1086</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="AN2" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="AM2" s="112" t="s">
+      <c r="AO2" s="112" t="s">
         <v>1015</v>
       </c>
-      <c r="AO2" s="11" t="s">
+      <c r="AQ2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="AP2" s="12"/>
+      <c r="AR2" s="12"/>
     </row>
-    <row r="3" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="16" t="s">
         <v>53</v>
       </c>
@@ -7750,10 +8104,10 @@
       <c r="AB3" s="17"/>
       <c r="AC3" s="17"/>
       <c r="AD3" s="16"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="16"/>
+      <c r="AI3" s="18"/>
+      <c r="AJ3" s="16"/>
     </row>
-    <row r="4" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15">
         <v>1</v>
       </c>
@@ -7840,35 +8194,41 @@
       <c r="AF4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG4" s="18" t="s">
+      <c r="AG4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI4" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH4" s="15" t="s">
+      <c r="AJ4" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AI4" s="15" t="s">
+      <c r="AK4" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="AJ4" s="28" t="s">
+      <c r="AL4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="AK4" s="29" t="s">
+      <c r="AM4" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="AL4" s="30" t="s">
+      <c r="AN4" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM4" s="113" t="s">
+      <c r="AO4" s="113" t="s">
         <v>73</v>
       </c>
-      <c r="AN4" s="28" t="s">
+      <c r="AP4" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="AO4" s="30" t="s">
+      <c r="AQ4" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15">
         <v>0</v>
       </c>
@@ -7951,36 +8311,42 @@
       <c r="AF5" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG5" s="18" t="s">
+      <c r="AG5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI5" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH5" s="15" t="s">
+      <c r="AJ5" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AK5" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="AJ5" s="15" t="s">
+      <c r="AL5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="AK5" s="32" t="s">
+      <c r="AM5" s="32" t="s">
         <v>80</v>
       </c>
-      <c r="AL5" s="30" t="s">
+      <c r="AN5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM5" s="30"/>
-      <c r="AN5" s="32" t="s">
+      <c r="AO5" s="30"/>
+      <c r="AP5" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="AO5" s="30" t="s">
+      <c r="AQ5" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP5" s="15" t="s">
+      <c r="AR5" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="15">
         <v>1</v>
       </c>
@@ -8067,35 +8433,41 @@
       <c r="AF6" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG6" s="18" t="s">
+      <c r="AG6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI6" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AH6" s="15" t="s">
+      <c r="AJ6" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI6" s="15" t="s">
+      <c r="AK6" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="AJ6" s="15" t="s">
+      <c r="AL6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="AK6" s="29" t="s">
+      <c r="AM6" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="AL6" s="30" t="s">
+      <c r="AN6" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM6" s="113" t="s">
+      <c r="AO6" s="113" t="s">
         <v>94</v>
       </c>
-      <c r="AN6" s="28" t="s">
+      <c r="AP6" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="AO6" s="30" t="s">
+      <c r="AQ6" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="7" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>0</v>
       </c>
@@ -8178,36 +8550,42 @@
       <c r="AF7" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG7" s="18" t="s">
+      <c r="AG7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="AH7" s="15" t="s">
+      <c r="AJ7" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="AI7" s="15" t="s">
+      <c r="AK7" s="15" t="s">
         <v>98</v>
       </c>
-      <c r="AJ7" s="15" t="s">
+      <c r="AL7" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="AK7" s="29" t="s">
+      <c r="AM7" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="AL7" s="30" t="s">
+      <c r="AN7" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM7" s="30"/>
-      <c r="AN7" s="28" t="s">
+      <c r="AO7" s="30"/>
+      <c r="AP7" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="AO7" s="30" t="s">
+      <c r="AQ7" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP7" s="15" t="s">
+      <c r="AR7" s="15" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>1</v>
       </c>
@@ -8294,32 +8672,38 @@
       <c r="AF8" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG8" s="18" t="s">
+      <c r="AG8" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI8" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH8" s="15" t="s">
+      <c r="AJ8" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI8" s="15" t="s">
+      <c r="AK8" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="AK8" s="29" t="s">
+      <c r="AM8" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="AL8" s="30" t="s">
+      <c r="AN8" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM8" s="113" t="s">
+      <c r="AO8" s="113" t="s">
         <v>112</v>
       </c>
-      <c r="AN8" s="28" t="s">
+      <c r="AP8" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="AO8" s="36" t="s">
+      <c r="AQ8" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="9" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>1</v>
       </c>
@@ -8403,32 +8787,38 @@
       <c r="AF9" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG9" s="18" t="s">
+      <c r="AG9" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI9" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH9" s="15" t="s">
+      <c r="AJ9" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI9" s="15" t="s">
+      <c r="AK9" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="AK9" s="39" t="s">
+      <c r="AM9" s="39" t="s">
         <v>119</v>
       </c>
-      <c r="AL9" s="36" t="s">
+      <c r="AN9" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM9" s="113" t="s">
-        <v>1030</v>
-      </c>
-      <c r="AN9" s="39" t="s">
+      <c r="AO9" s="113" t="s">
+        <v>1028</v>
+      </c>
+      <c r="AP9" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="AO9" s="36" t="s">
+      <c r="AQ9" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15">
         <v>1</v>
       </c>
@@ -8512,32 +8902,38 @@
       <c r="AF10" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG10" s="18" t="s">
+      <c r="AG10" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI10" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH10" s="15" t="s">
+      <c r="AJ10" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI10" s="15" t="s">
+      <c r="AK10" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="AK10" s="39" t="s">
+      <c r="AM10" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="AL10" s="36" t="s">
+      <c r="AN10" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM10" s="113" t="s">
+      <c r="AO10" s="113" t="s">
         <v>123</v>
       </c>
-      <c r="AN10" s="39" t="s">
+      <c r="AP10" s="39" t="s">
         <v>124</v>
       </c>
-      <c r="AO10" s="36" t="s">
+      <c r="AQ10" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="15">
         <v>1</v>
       </c>
@@ -8621,35 +9017,41 @@
       <c r="AF11" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG11" s="18" t="s">
+      <c r="AG11" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI11" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH11" s="15" t="s">
+      <c r="AJ11" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI11" s="15" t="s">
+      <c r="AK11" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AJ11" s="15" t="s">
+      <c r="AL11" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AK11" s="39" t="s">
+      <c r="AM11" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AL11" s="30" t="s">
+      <c r="AN11" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM11" s="113" t="s">
+      <c r="AO11" s="113" t="s">
         <v>128</v>
       </c>
-      <c r="AN11" s="39" t="s">
+      <c r="AP11" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AO11" s="30" t="s">
+      <c r="AQ11" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15">
         <v>1</v>
       </c>
@@ -8733,38 +9135,44 @@
       <c r="AF12" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG12" s="18" t="s">
+      <c r="AG12" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI12" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH12" s="15" t="s">
+      <c r="AJ12" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI12" s="15" t="s">
+      <c r="AK12" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AJ12" s="15" t="s">
+      <c r="AL12" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AK12" s="40" t="s">
+      <c r="AM12" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="AL12" s="30" t="s">
+      <c r="AN12" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM12" s="113" t="s">
+      <c r="AO12" s="113" t="s">
         <v>134</v>
       </c>
-      <c r="AN12" s="40" t="s">
+      <c r="AP12" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AO12" s="30" t="s">
+      <c r="AQ12" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP12" s="15" t="s">
+      <c r="AR12" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15">
         <v>1</v>
       </c>
@@ -8848,35 +9256,41 @@
       <c r="AF13" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG13" s="18" t="s">
+      <c r="AG13" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH13" s="15" t="s">
+      <c r="AJ13" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI13" s="15" t="s">
+      <c r="AK13" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="AJ13" s="15" t="s">
+      <c r="AL13" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="AK13" s="39" t="s">
+      <c r="AM13" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AL13" s="36" t="s">
+      <c r="AN13" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM13" s="113" t="s">
+      <c r="AO13" s="113" t="s">
         <v>140</v>
       </c>
-      <c r="AN13" s="39" t="s">
+      <c r="AP13" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AO13" s="36" t="s">
+      <c r="AQ13" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="15">
         <v>1</v>
       </c>
@@ -8960,38 +9374,44 @@
       <c r="AF14" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG14" s="18" t="s">
+      <c r="AG14" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI14" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH14" s="15" t="s">
+      <c r="AJ14" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI14" s="15" t="s">
+      <c r="AK14" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="AJ14" s="15" t="s">
+      <c r="AL14" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="AK14" s="40" t="s">
+      <c r="AM14" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AL14" s="30" t="s">
+      <c r="AN14" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM14" s="113" t="s">
+      <c r="AO14" s="113" t="s">
         <v>145</v>
       </c>
-      <c r="AN14" s="41" t="s">
+      <c r="AP14" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="AO14" s="30" t="s">
+      <c r="AQ14" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP14" s="15" t="s">
+      <c r="AR14" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="15" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="15">
         <v>1</v>
       </c>
@@ -9078,33 +9498,39 @@
       <c r="AF15" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG15" s="18" t="s">
+      <c r="AG15" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI15" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH15" s="15" t="s">
+      <c r="AJ15" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI15" s="15" t="s">
+      <c r="AK15" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="AJ15" s="15" t="s">
+      <c r="AL15" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="AK15" s="19" t="s">
+      <c r="AM15" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="AL15" s="30" t="s">
+      <c r="AN15" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM15" s="113"/>
-      <c r="AN15" s="19" t="s">
+      <c r="AO15" s="113"/>
+      <c r="AP15" s="19" t="s">
         <v>149</v>
       </c>
-      <c r="AO15" s="30" t="s">
+      <c r="AQ15" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="15">
         <v>0</v>
       </c>
@@ -9187,33 +9613,39 @@
       <c r="AF16" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG16" s="18" t="s">
+      <c r="AG16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI16" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH16" s="15" t="s">
+      <c r="AJ16" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI16" s="15" t="s">
+      <c r="AK16" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="AJ16" s="28" t="s">
+      <c r="AL16" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="AK16" s="29" t="s">
+      <c r="AM16" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="AL16" s="30" t="s">
+      <c r="AN16" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM16" s="30"/>
-      <c r="AN16" s="28" t="s">
+      <c r="AO16" s="30"/>
+      <c r="AP16" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="AO16" s="30" t="s">
+      <c r="AQ16" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="17" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="15">
         <v>0</v>
       </c>
@@ -9293,33 +9725,39 @@
       <c r="AF17" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG17" s="18" t="s">
+      <c r="AG17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI17" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH17" s="15" t="s">
+      <c r="AJ17" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AI17" s="15" t="s">
+      <c r="AK17" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="AJ17" s="28" t="s">
+      <c r="AL17" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="AK17" s="29" t="s">
+      <c r="AM17" s="29" t="s">
         <v>160</v>
       </c>
-      <c r="AL17" s="30" t="s">
+      <c r="AN17" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM17" s="30"/>
-      <c r="AN17" s="28" t="s">
+      <c r="AO17" s="30"/>
+      <c r="AP17" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="AO17" s="30" t="s">
+      <c r="AQ17" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="15">
         <v>0</v>
       </c>
@@ -9399,33 +9837,39 @@
       <c r="AF18" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG18" s="18" t="s">
+      <c r="AG18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI18" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH18" s="15" t="s">
+      <c r="AJ18" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AI18" s="15" t="s">
+      <c r="AK18" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="AJ18" s="15" t="s">
+      <c r="AL18" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="AK18" s="39" t="s">
+      <c r="AM18" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="AL18" s="30" t="s">
+      <c r="AN18" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM18" s="30"/>
-      <c r="AN18" s="39" t="s">
+      <c r="AO18" s="30"/>
+      <c r="AP18" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="AO18" s="30" t="s">
+      <c r="AQ18" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="15">
         <v>0</v>
       </c>
@@ -9505,36 +9949,42 @@
       <c r="AF19" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG19" s="18" t="s">
+      <c r="AG19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI19" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH19" s="15" t="s">
+      <c r="AJ19" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AI19" s="15" t="s">
+      <c r="AK19" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="AJ19" s="15" t="s">
+      <c r="AL19" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="AK19" s="40" t="s">
+      <c r="AM19" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="AL19" s="36" t="s">
+      <c r="AN19" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM19" s="36"/>
-      <c r="AN19" s="40" t="s">
+      <c r="AO19" s="36"/>
+      <c r="AP19" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="AO19" s="36" t="s">
+      <c r="AQ19" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AP19" s="15" t="s">
+      <c r="AR19" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="20" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15">
         <v>0</v>
       </c>
@@ -9614,33 +10064,39 @@
       <c r="AF20" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG20" s="18" t="s">
+      <c r="AG20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI20" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH20" s="15" t="s">
+      <c r="AJ20" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AI20" s="15" t="s">
+      <c r="AK20" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="AJ20" s="15" t="s">
+      <c r="AL20" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="AK20" s="39" t="s">
+      <c r="AM20" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="AL20" s="36" t="s">
+      <c r="AN20" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM20" s="36"/>
-      <c r="AN20" s="39" t="s">
+      <c r="AO20" s="36"/>
+      <c r="AP20" s="39" t="s">
         <v>141</v>
       </c>
-      <c r="AO20" s="36" t="s">
+      <c r="AQ20" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="15">
         <v>0</v>
       </c>
@@ -9720,36 +10176,42 @@
       <c r="AF21" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG21" s="18" t="s">
+      <c r="AG21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>77</v>
+      </c>
+      <c r="AI21" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH21" s="15" t="s">
+      <c r="AJ21" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="AI21" s="15" t="s">
+      <c r="AK21" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="AJ21" s="15" t="s">
+      <c r="AL21" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="AK21" s="40" t="s">
+      <c r="AM21" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="AL21" s="36" t="s">
+      <c r="AN21" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM21" s="36"/>
-      <c r="AN21" s="41" t="s">
+      <c r="AO21" s="36"/>
+      <c r="AP21" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="AO21" s="36" t="s">
+      <c r="AQ21" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AP21" s="15" t="s">
+      <c r="AR21" s="15" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="22" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="15">
         <v>1</v>
       </c>
@@ -9836,35 +10298,41 @@
       <c r="AF22" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG22" s="18" t="s">
+      <c r="AG22" s="15" t="s">
+        <v>1088</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>1055</v>
+      </c>
+      <c r="AI22" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH22" s="15" t="s">
+      <c r="AJ22" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI22" s="15" t="s">
+      <c r="AK22" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="AJ22" s="28" t="s">
+      <c r="AL22" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="AK22" s="29" t="s">
+      <c r="AM22" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="AL22" s="30" t="s">
+      <c r="AN22" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM22" s="113" t="s">
+      <c r="AO22" s="113" t="s">
         <v>173</v>
       </c>
-      <c r="AN22" s="28" t="s">
+      <c r="AP22" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="AO22" s="30" t="s">
+      <c r="AQ22" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="15">
         <v>0</v>
       </c>
@@ -9947,33 +10415,39 @@
       <c r="AF23" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG23" s="18" t="s">
+      <c r="AG23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>110</v>
+      </c>
+      <c r="AI23" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH23" s="15" t="s">
+      <c r="AJ23" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="AI23" s="15" t="s">
+      <c r="AK23" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="AJ23" s="28" t="s">
+      <c r="AL23" s="28" t="s">
         <v>172</v>
       </c>
-      <c r="AK23" s="29" t="s">
+      <c r="AM23" s="29" t="s">
         <v>173</v>
       </c>
-      <c r="AL23" s="30" t="s">
+      <c r="AN23" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM23" s="30"/>
-      <c r="AN23" s="28" t="s">
+      <c r="AO23" s="30"/>
+      <c r="AP23" s="28" t="s">
         <v>174</v>
       </c>
-      <c r="AO23" s="30" t="s">
+      <c r="AQ23" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="15">
         <v>1</v>
       </c>
@@ -10063,35 +10537,41 @@
       <c r="AF24" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG24" s="18" t="s">
+      <c r="AG24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AI24" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH24" s="15" t="s">
+      <c r="AJ24" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="AI24" s="15" t="s">
+      <c r="AK24" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AJ24" s="15" t="s">
+      <c r="AL24" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="AK24" s="29" t="s">
+      <c r="AM24" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="AL24" s="36" t="s">
+      <c r="AN24" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM24" s="113" t="s">
+      <c r="AO24" s="113" t="s">
         <v>187</v>
       </c>
-      <c r="AN24" s="28" t="s">
+      <c r="AP24" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="AO24" s="30" t="s">
+      <c r="AQ24" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="25" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="15">
         <v>0</v>
       </c>
@@ -10174,33 +10654,39 @@
       <c r="AF25" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG25" s="18" t="s">
+      <c r="AG25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI25" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH25" s="15" t="s">
+      <c r="AJ25" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="AI25" s="15" t="s">
+      <c r="AK25" s="15" t="s">
         <v>185</v>
       </c>
-      <c r="AJ25" s="15" t="s">
+      <c r="AL25" s="15" t="s">
         <v>186</v>
       </c>
-      <c r="AK25" s="29" t="s">
+      <c r="AM25" s="29" t="s">
         <v>187</v>
       </c>
-      <c r="AL25" s="36" t="s">
+      <c r="AN25" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM25" s="36"/>
-      <c r="AN25" s="28" t="s">
+      <c r="AO25" s="36"/>
+      <c r="AP25" s="28" t="s">
         <v>188</v>
       </c>
-      <c r="AO25" s="30" t="s">
+      <c r="AQ25" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="26" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="15">
         <v>1</v>
       </c>
@@ -10287,32 +10773,38 @@
       <c r="AF26" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG26" s="18" t="s">
+      <c r="AG26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>1056</v>
+      </c>
+      <c r="AI26" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH26" s="15" t="s">
+      <c r="AJ26" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="AI26" s="15" t="s">
+      <c r="AK26" s="15" t="s">
         <v>197</v>
       </c>
-      <c r="AK26" s="29" t="s">
+      <c r="AM26" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="AL26" s="30" t="s">
+      <c r="AN26" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM26" s="113" t="s">
+      <c r="AO26" s="113" t="s">
         <v>198</v>
       </c>
-      <c r="AN26" s="28" t="s">
+      <c r="AP26" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="AO26" s="30" t="s">
+      <c r="AQ26" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="15">
         <v>0</v>
       </c>
@@ -10395,36 +10887,42 @@
       <c r="AF27" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG27" s="18" t="s">
+      <c r="AG27" t="s">
+        <v>184</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>184</v>
+      </c>
+      <c r="AI27" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH27" s="15" t="s">
+      <c r="AJ27" s="15" t="s">
         <v>184</v>
       </c>
-      <c r="AI27" s="15" t="s">
+      <c r="AK27" s="15" t="s">
         <v>201</v>
       </c>
-      <c r="AJ27" s="15" t="s">
+      <c r="AL27" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="AK27" s="43" t="s">
+      <c r="AM27" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="AL27" s="36" t="s">
+      <c r="AN27" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM27" s="36"/>
-      <c r="AN27" s="43" t="s">
+      <c r="AO27" s="36"/>
+      <c r="AP27" s="43" t="s">
         <v>204</v>
       </c>
-      <c r="AO27" s="30" t="s">
+      <c r="AQ27" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP27" s="15" t="s">
+      <c r="AR27" s="15" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="28" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="15">
         <v>1</v>
       </c>
@@ -10511,35 +11009,41 @@
       <c r="AF28" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG28" s="18" t="s">
+      <c r="AG28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>1057</v>
+      </c>
+      <c r="AI28" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="AH28" s="15" t="s">
+      <c r="AJ28" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AI28" s="15" t="s">
+      <c r="AK28" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="AJ28" s="15" t="s">
+      <c r="AL28" s="15" t="s">
         <v>214</v>
       </c>
-      <c r="AK28" s="29" t="s">
+      <c r="AM28" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="AL28" s="30" t="s">
+      <c r="AN28" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM28" s="113" t="s">
+      <c r="AO28" s="113" t="s">
         <v>215</v>
       </c>
-      <c r="AN28" s="28" t="s">
+      <c r="AP28" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="AO28" s="30" t="s">
+      <c r="AQ28" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="29" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="15">
         <v>0</v>
       </c>
@@ -10622,33 +11126,39 @@
       <c r="AF29" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG29" s="18" t="s">
+      <c r="AG29" t="s">
+        <v>212</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>212</v>
+      </c>
+      <c r="AI29" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="AH29" s="15" t="s">
+      <c r="AJ29" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AI29" s="15" t="s">
+      <c r="AK29" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="AJ29" s="15" t="s">
+      <c r="AL29" s="15" t="s">
         <v>218</v>
       </c>
-      <c r="AK29" s="29" t="s">
+      <c r="AM29" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="AL29" s="30" t="s">
+      <c r="AN29" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM29" s="30"/>
-      <c r="AN29" s="28" t="s">
+      <c r="AO29" s="30"/>
+      <c r="AP29" s="28" t="s">
         <v>216</v>
       </c>
-      <c r="AO29" s="30" t="s">
+      <c r="AQ29" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="15">
         <v>10</v>
       </c>
@@ -10733,35 +11243,41 @@
       <c r="AF30" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG30" s="18" t="s">
+      <c r="AG30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AI30" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH30" s="15" t="s">
+      <c r="AJ30" s="15" t="s">
         <v>224</v>
       </c>
-      <c r="AI30" s="15" t="s">
+      <c r="AK30" s="15" t="s">
         <v>225</v>
       </c>
-      <c r="AJ30" s="15" t="s">
+      <c r="AL30" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="AK30" s="29" t="s">
+      <c r="AM30" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="AL30" s="30" t="s">
+      <c r="AN30" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM30" s="113" t="s">
+      <c r="AO30" s="113" t="s">
         <v>227</v>
       </c>
-      <c r="AN30" s="28" t="s">
+      <c r="AP30" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="AO30" s="30" t="s">
+      <c r="AQ30" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="15">
         <v>10</v>
       </c>
@@ -10846,38 +11362,44 @@
       <c r="AF31" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG31" s="18" t="s">
+      <c r="AG31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>1058</v>
+      </c>
+      <c r="AI31" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH31" s="15" t="s">
+      <c r="AJ31" s="15" t="s">
         <v>233</v>
       </c>
-      <c r="AI31" s="15" t="s">
+      <c r="AK31" s="15" t="s">
         <v>234</v>
       </c>
-      <c r="AJ31" s="15" t="s">
+      <c r="AL31" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="AK31" s="29" t="s">
+      <c r="AM31" s="29" t="s">
         <v>235</v>
       </c>
-      <c r="AL31" s="30" t="s">
+      <c r="AN31" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM31" s="113" t="s">
+      <c r="AO31" s="113" t="s">
         <v>235</v>
       </c>
-      <c r="AN31" s="43" t="s">
+      <c r="AP31" s="43" t="s">
         <v>236</v>
       </c>
-      <c r="AO31" s="30" t="s">
+      <c r="AQ31" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP31" s="15" t="s">
+      <c r="AR31" s="15" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="32" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="15">
         <v>1</v>
       </c>
@@ -10962,36 +11484,42 @@
       <c r="AF32" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG32" s="18" t="s">
+      <c r="AG32" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI32" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="AH32" s="12" t="s">
+      <c r="AJ32" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="AI32" s="47" t="s">
+      <c r="AK32" s="47" t="s">
         <v>244</v>
       </c>
-      <c r="AJ32" s="15" t="s">
+      <c r="AL32" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AK32" s="48" t="s">
+      <c r="AM32" s="48" t="s">
         <v>246</v>
       </c>
-      <c r="AL32" s="30" t="s">
+      <c r="AN32" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM32" s="113"/>
-      <c r="AN32" s="48" t="s">
+      <c r="AO32" s="113"/>
+      <c r="AP32" s="48" t="s">
         <v>247</v>
       </c>
-      <c r="AO32" s="30" t="s">
+      <c r="AQ32" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP32" s="49" t="s">
+      <c r="AR32" s="49" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="33" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="15">
         <v>1</v>
       </c>
@@ -11076,38 +11604,44 @@
       <c r="AF33" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG33" s="18" t="s">
+      <c r="AG33" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AI33" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="AH33" s="12" t="s">
+      <c r="AJ33" s="12" t="s">
         <v>252</v>
       </c>
-      <c r="AI33" s="15" t="s">
+      <c r="AK33" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="AJ33" s="15" t="s">
+      <c r="AL33" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AK33" s="43" t="s">
+      <c r="AM33" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="AL33" s="30" t="s">
+      <c r="AN33" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM33" s="113" t="s">
-        <v>1023</v>
-      </c>
-      <c r="AN33" s="43" t="s">
+      <c r="AO33" s="113" t="s">
+        <v>1021</v>
+      </c>
+      <c r="AP33" s="43" t="s">
         <v>255</v>
       </c>
-      <c r="AO33" s="30" t="s">
+      <c r="AQ33" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP33" s="17" t="s">
+      <c r="AR33" s="17" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="34" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="15">
         <v>1</v>
       </c>
@@ -11192,38 +11726,44 @@
       <c r="AF34" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG34" s="18" t="s">
+      <c r="AG34" t="s">
+        <v>1089</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>1059</v>
+      </c>
+      <c r="AI34" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="AH34" s="12" t="s">
+      <c r="AJ34" s="12" t="s">
         <v>259</v>
       </c>
-      <c r="AI34" s="15" t="s">
+      <c r="AK34" s="15" t="s">
         <v>260</v>
       </c>
-      <c r="AJ34" s="15" t="s">
+      <c r="AL34" s="15" t="s">
         <v>245</v>
       </c>
-      <c r="AK34" s="29" t="s">
+      <c r="AM34" s="29" t="s">
         <v>261</v>
       </c>
-      <c r="AL34" s="30" t="s">
+      <c r="AN34" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM34" s="113" t="s">
-        <v>261</v>
-      </c>
-      <c r="AN34" s="50" t="s">
+      <c r="AO34" s="113" t="s">
+        <v>1029</v>
+      </c>
+      <c r="AP34" s="50" t="s">
         <v>262</v>
       </c>
-      <c r="AO34" s="30" t="s">
+      <c r="AQ34" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP34" s="15" t="s">
+      <c r="AR34" s="15" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="35" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="15">
         <v>1</v>
       </c>
@@ -11308,36 +11848,42 @@
       <c r="AF35" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG35" s="18" t="s">
+      <c r="AG35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI35" s="18" t="s">
         <v>268</v>
       </c>
-      <c r="AH35" s="15" t="s">
+      <c r="AJ35" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="AI35" s="15" t="s">
+      <c r="AK35" s="15" t="s">
         <v>270</v>
       </c>
-      <c r="AJ35" s="15" t="s">
+      <c r="AL35" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AK35" s="51" t="s">
+      <c r="AM35" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="AL35" s="30" t="s">
+      <c r="AN35" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM35" s="113"/>
-      <c r="AN35" s="51" t="s">
+      <c r="AO35" s="113"/>
+      <c r="AP35" s="51" t="s">
         <v>271</v>
       </c>
-      <c r="AO35" s="30" t="s">
+      <c r="AQ35" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP35" s="52" t="s">
+      <c r="AR35" s="52" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="36" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="15">
         <v>1</v>
       </c>
@@ -11422,38 +11968,44 @@
       <c r="AF36" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG36" s="18" t="s">
+      <c r="AG36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI36" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH36" s="15" t="s">
+      <c r="AJ36" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="AI36" s="15" t="s">
+      <c r="AK36" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="AJ36" s="15" t="s">
+      <c r="AL36" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AK36" s="29" t="s">
+      <c r="AM36" s="29" t="s">
         <v>276</v>
       </c>
-      <c r="AL36" s="30" t="s">
+      <c r="AN36" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM36" s="113" t="s">
-        <v>276</v>
-      </c>
-      <c r="AN36" s="28" t="s">
+      <c r="AO36" s="113" t="s">
+        <v>1030</v>
+      </c>
+      <c r="AP36" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="AO36" s="30" t="s">
+      <c r="AQ36" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP36" s="47" t="s">
+      <c r="AR36" s="47" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="37" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="15">
         <v>1</v>
       </c>
@@ -11538,38 +12090,44 @@
       <c r="AF37" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG37" s="18" t="s">
+      <c r="AG37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI37" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH37" s="15" t="s">
+      <c r="AJ37" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="AI37" s="28" t="s">
+      <c r="AK37" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="AJ37" s="15" t="s">
+      <c r="AL37" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AK37" s="40" t="s">
+      <c r="AM37" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="AL37" s="30" t="s">
+      <c r="AN37" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM37" s="113" t="s">
-        <v>284</v>
-      </c>
-      <c r="AN37" s="40" t="s">
+      <c r="AO37" s="113" t="s">
+        <v>1031</v>
+      </c>
+      <c r="AP37" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="AO37" s="30" t="s">
+      <c r="AQ37" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP37" s="12" t="s">
+      <c r="AR37" s="12" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="38" spans="1:42" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:44" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="47">
         <v>10</v>
       </c>
@@ -11654,38 +12212,44 @@
       <c r="AF38" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG38" s="56" t="s">
+      <c r="AG38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI38" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AH38" s="47" t="s">
+      <c r="AJ38" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="AI38" s="47" t="s">
+      <c r="AK38" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="AJ38" s="47" t="s">
+      <c r="AL38" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="AK38" s="57" t="s">
+      <c r="AM38" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="AL38" s="58" t="s">
+      <c r="AN38" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="AM38" s="113" t="s">
+      <c r="AO38" s="113" t="s">
         <v>294</v>
       </c>
-      <c r="AN38" s="32" t="s">
+      <c r="AP38" s="32" t="s">
         <v>295</v>
       </c>
-      <c r="AO38" s="58" t="s">
+      <c r="AQ38" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="AP38" s="44" t="s">
+      <c r="AR38" s="44" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="39" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="15">
         <v>10</v>
       </c>
@@ -11770,38 +12334,44 @@
       <c r="AF39" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG39" s="18" t="s">
+      <c r="AG39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI39" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH39" s="15" t="s">
+      <c r="AJ39" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="AI39" s="15" t="s">
+      <c r="AK39" s="15" t="s">
         <v>300</v>
       </c>
-      <c r="AJ39" s="28" t="s">
+      <c r="AL39" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="AK39" s="40" t="s">
+      <c r="AM39" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="AL39" s="30" t="s">
+      <c r="AN39" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM39" s="113" t="s">
-        <v>1022</v>
-      </c>
-      <c r="AN39" s="40" t="s">
+      <c r="AO39" s="113" t="s">
+        <v>1020</v>
+      </c>
+      <c r="AP39" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="AO39" s="30" t="s">
+      <c r="AQ39" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP39" s="47" t="s">
+      <c r="AR39" s="47" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="40" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="15">
         <v>10</v>
       </c>
@@ -11886,38 +12456,44 @@
       <c r="AF40" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG40" s="18" t="s">
+      <c r="AG40" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI40" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH40" s="15" t="s">
+      <c r="AJ40" s="15" t="s">
         <v>269</v>
       </c>
-      <c r="AI40" s="15" t="s">
+      <c r="AK40" s="15" t="s">
         <v>307</v>
       </c>
-      <c r="AJ40" s="28" t="s">
+      <c r="AL40" s="28" t="s">
         <v>308</v>
       </c>
-      <c r="AK40" s="40" t="s">
+      <c r="AM40" s="40" t="s">
         <v>309</v>
       </c>
-      <c r="AL40" s="30" t="s">
+      <c r="AN40" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM40" s="113" t="s">
-        <v>309</v>
-      </c>
-      <c r="AN40" s="40" t="s">
+      <c r="AO40" s="113" t="s">
+        <v>1051</v>
+      </c>
+      <c r="AP40" s="40" t="s">
         <v>310</v>
       </c>
-      <c r="AO40" s="30" t="s">
+      <c r="AQ40" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP40" s="47" t="s">
+      <c r="AR40" s="47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="41" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="15">
         <v>10</v>
       </c>
@@ -12007,38 +12583,44 @@
       <c r="AF41" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG41" s="18" t="s">
+      <c r="AG41" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AI41" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH41" s="23" t="s">
+      <c r="AJ41" s="23" t="s">
         <v>320</v>
       </c>
-      <c r="AI41" s="15" t="s">
+      <c r="AK41" s="15" t="s">
         <v>321</v>
       </c>
-      <c r="AJ41" s="15" t="s">
+      <c r="AL41" s="15" t="s">
         <v>322</v>
       </c>
-      <c r="AK41" s="40" t="s">
+      <c r="AM41" s="40" t="s">
         <v>323</v>
       </c>
-      <c r="AL41" s="30" t="s">
+      <c r="AN41" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM41" s="113" t="s">
+      <c r="AO41" s="113" t="s">
         <v>323</v>
       </c>
-      <c r="AN41" s="40" t="s">
+      <c r="AP41" s="40" t="s">
         <v>324</v>
       </c>
-      <c r="AO41" s="30" t="s">
+      <c r="AQ41" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP41" s="47" t="s">
+      <c r="AR41" s="47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="42" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="15">
         <v>10</v>
       </c>
@@ -12128,38 +12710,44 @@
       <c r="AF42" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG42" s="18" t="s">
+      <c r="AG42" t="s">
+        <v>1060</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AI42" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH42" s="15" t="s">
+      <c r="AJ42" s="15" t="s">
         <v>327</v>
       </c>
-      <c r="AI42" s="15" t="s">
+      <c r="AK42" s="15" t="s">
         <v>328</v>
       </c>
-      <c r="AJ42" s="15" t="s">
+      <c r="AL42" s="15" t="s">
         <v>329</v>
       </c>
-      <c r="AK42" s="40" t="s">
+      <c r="AM42" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="AL42" s="30" t="s">
+      <c r="AN42" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM42" s="113" t="s">
-        <v>330</v>
-      </c>
-      <c r="AN42" s="40" t="s">
+      <c r="AO42" s="113" t="s">
+        <v>1033</v>
+      </c>
+      <c r="AP42" s="40" t="s">
         <v>331</v>
       </c>
-      <c r="AO42" s="30" t="s">
+      <c r="AQ42" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP42" s="47" t="s">
+      <c r="AR42" s="47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="43" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="15">
         <v>1</v>
       </c>
@@ -12244,38 +12832,44 @@
       <c r="AF43" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG43" s="18" t="s">
+      <c r="AG43" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>1061</v>
+      </c>
+      <c r="AI43" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH43" s="44" t="s">
+      <c r="AJ43" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="AI43" s="15" t="s">
+      <c r="AK43" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="AJ43" s="28" t="s">
+      <c r="AL43" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="AK43" s="40" t="s">
+      <c r="AM43" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="AL43" s="36" t="s">
+      <c r="AN43" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM43" s="113" t="s">
-        <v>340</v>
-      </c>
-      <c r="AN43" s="40" t="s">
+      <c r="AO43" s="113" t="s">
+        <v>1034</v>
+      </c>
+      <c r="AP43" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="AO43" s="30" t="s">
+      <c r="AQ43" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP43" s="47" t="s">
+      <c r="AR43" s="47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="44" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="15">
         <v>0</v>
       </c>
@@ -12358,36 +12952,42 @@
       <c r="AF44" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG44" s="18" t="s">
+      <c r="AG44" t="s">
+        <v>337</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>337</v>
+      </c>
+      <c r="AI44" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH44" s="44" t="s">
+      <c r="AJ44" s="44" t="s">
         <v>337</v>
       </c>
-      <c r="AI44" s="15" t="s">
+      <c r="AK44" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="AJ44" s="28" t="s">
+      <c r="AL44" s="28" t="s">
         <v>339</v>
       </c>
-      <c r="AK44" s="40" t="s">
+      <c r="AM44" s="40" t="s">
         <v>340</v>
       </c>
-      <c r="AL44" s="36" t="s">
+      <c r="AN44" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM44" s="36"/>
-      <c r="AN44" s="40" t="s">
+      <c r="AO44" s="36"/>
+      <c r="AP44" s="40" t="s">
         <v>341</v>
       </c>
-      <c r="AO44" s="30" t="s">
+      <c r="AQ44" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP44" s="15" t="s">
+      <c r="AR44" s="15" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="45" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B45" s="16" t="s">
         <v>344</v>
       </c>
@@ -12410,13 +13010,19 @@
       <c r="AA45" s="13"/>
       <c r="AB45" s="17"/>
       <c r="AC45" s="17"/>
-      <c r="AH45" s="47"/>
-      <c r="AK45" s="15"/>
-      <c r="AL45" s="15"/>
+      <c r="AG45">
+        <v>0</v>
+      </c>
+      <c r="AH45">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="47"/>
       <c r="AM45" s="15"/>
+      <c r="AN45" s="15"/>
       <c r="AO45" s="15"/>
+      <c r="AQ45" s="15"/>
     </row>
-    <row r="46" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="15">
         <v>1</v>
       </c>
@@ -12504,35 +13110,41 @@
       <c r="AF46" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG46" s="18" t="s">
+      <c r="AG46" t="s">
+        <v>1091</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AI46" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH46" s="15" t="s">
+      <c r="AJ46" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="AI46" s="15" t="s">
+      <c r="AK46" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="AJ46" s="15" t="s">
+      <c r="AL46" s="15" t="s">
         <v>353</v>
       </c>
-      <c r="AK46" s="29" t="s">
+      <c r="AM46" s="29" t="s">
         <v>354</v>
       </c>
-      <c r="AL46" s="36" t="s">
+      <c r="AN46" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM46" s="113" t="s">
+      <c r="AO46" s="113" t="s">
         <v>354</v>
       </c>
-      <c r="AN46" s="29" t="s">
+      <c r="AP46" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="AO46" s="30" t="s">
+      <c r="AQ46" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="15">
         <v>0</v>
       </c>
@@ -12615,36 +13227,42 @@
       <c r="AF47" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG47" s="18" t="s">
+      <c r="AG47" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>351</v>
+      </c>
+      <c r="AI47" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH47" s="15" t="s">
+      <c r="AJ47" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="AI47" s="15" t="s">
+      <c r="AK47" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AJ47" s="15" t="s">
+      <c r="AL47" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AK47" s="61" t="s">
+      <c r="AM47" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="AL47" s="30" t="s">
+      <c r="AN47" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM47" s="30"/>
-      <c r="AN47" s="62" t="s">
+      <c r="AO47" s="30"/>
+      <c r="AP47" s="62" t="s">
         <v>358</v>
       </c>
-      <c r="AO47" s="30" t="s">
+      <c r="AQ47" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP47" s="47" t="s">
+      <c r="AR47" s="47" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="48" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="15">
         <v>1</v>
       </c>
@@ -12734,35 +13352,41 @@
       <c r="AF48" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG48" s="18" t="s">
+      <c r="AG48" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AI48" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH48" s="15" t="s">
+      <c r="AJ48" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AI48" s="15" t="s">
+      <c r="AK48" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="AJ48" s="28" t="s">
+      <c r="AL48" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="AK48" s="29" t="s">
+      <c r="AM48" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="AL48" s="30" t="s">
+      <c r="AN48" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM48" s="113" t="s">
+      <c r="AO48" s="113" t="s">
         <v>368</v>
       </c>
-      <c r="AN48" s="28" t="s">
+      <c r="AP48" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="AO48" s="30" t="s">
+      <c r="AQ48" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="49" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="15">
         <v>1</v>
       </c>
@@ -12852,35 +13476,41 @@
       <c r="AF49" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG49" s="18" t="s">
+      <c r="AG49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AI49" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH49" s="15" t="s">
+      <c r="AJ49" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AI49" s="15" t="s">
+      <c r="AK49" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="AK49" s="64" t="s">
+      <c r="AM49" s="64" t="s">
         <v>373</v>
       </c>
-      <c r="AL49" s="30" t="s">
+      <c r="AN49" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM49" s="113" t="s">
+      <c r="AO49" s="113" t="s">
         <v>373</v>
       </c>
-      <c r="AN49" s="64" t="s">
+      <c r="AP49" s="64" t="s">
         <v>374</v>
       </c>
-      <c r="AO49" s="30" t="s">
+      <c r="AQ49" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP49" s="47" t="s">
+      <c r="AR49" s="47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="50" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="15">
         <v>0</v>
       </c>
@@ -12963,33 +13593,39 @@
       <c r="AF50" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG50" s="18" t="s">
+      <c r="AG50" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI50" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH50" s="15" t="s">
+      <c r="AJ50" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AI50" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ50" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK50" s="65" t="s">
+      <c r="AK50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL50" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM50" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="AL50" s="36" t="s">
+      <c r="AN50" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM50" s="36"/>
-      <c r="AN50" s="65" t="s">
+      <c r="AO50" s="36"/>
+      <c r="AP50" s="65" t="s">
         <v>376</v>
       </c>
-      <c r="AO50" s="36" t="s">
+      <c r="AQ50" s="36" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="51" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="15">
         <v>1</v>
       </c>
@@ -13079,35 +13715,41 @@
       <c r="AF51" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG51" s="18" t="s">
+      <c r="AG51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>1062</v>
+      </c>
+      <c r="AI51" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH51" s="15" t="s">
+      <c r="AJ51" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AI51" s="15" t="s">
+      <c r="AK51" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="AK51" s="29" t="s">
+      <c r="AM51" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="AL51" s="36" t="s">
+      <c r="AN51" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM51" s="113" t="s">
+      <c r="AO51" s="113" t="s">
         <v>380</v>
       </c>
-      <c r="AN51" s="64" t="s">
+      <c r="AP51" s="64" t="s">
         <v>381</v>
       </c>
-      <c r="AO51" s="30" t="s">
+      <c r="AQ51" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP51" s="47" t="s">
+      <c r="AR51" s="47" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="52" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="15">
         <v>0</v>
       </c>
@@ -13190,33 +13832,39 @@
       <c r="AF52" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG52" s="18" t="s">
+      <c r="AG52" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI52" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH52" s="15" t="s">
+      <c r="AJ52" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AI52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ52" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK52" s="57" t="s">
+      <c r="AK52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL52" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM52" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="AL52" s="36" t="s">
+      <c r="AN52" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM52" s="36"/>
-      <c r="AN52" s="57" t="s">
+      <c r="AO52" s="36"/>
+      <c r="AP52" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="AO52" s="30" t="s">
+      <c r="AQ52" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="53" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="15">
         <v>0</v>
       </c>
@@ -13299,33 +13947,39 @@
       <c r="AF53" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG53" s="18" t="s">
+      <c r="AG53" t="s">
+        <v>365</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>365</v>
+      </c>
+      <c r="AI53" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH53" s="15" t="s">
+      <c r="AJ53" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="AI53" s="15" t="s">
+      <c r="AK53" s="15" t="s">
         <v>366</v>
       </c>
-      <c r="AJ53" s="28" t="s">
+      <c r="AL53" s="28" t="s">
         <v>367</v>
       </c>
-      <c r="AK53" s="29" t="s">
+      <c r="AM53" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="AL53" s="30" t="s">
+      <c r="AN53" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM53" s="30"/>
-      <c r="AN53" s="28" t="s">
+      <c r="AO53" s="30"/>
+      <c r="AP53" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="AO53" s="30" t="s">
+      <c r="AQ53" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="54" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="15">
         <v>1</v>
       </c>
@@ -13415,38 +14069,44 @@
       <c r="AF54" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG54" s="18" t="s">
+      <c r="AG54" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI54" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH54" s="15" t="s">
+      <c r="AJ54" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="AI54" s="15" t="s">
+      <c r="AK54" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="AJ54" s="15" t="s">
+      <c r="AL54" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="AK54" s="29" t="s">
+      <c r="AM54" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="AL54" s="36" t="s">
+      <c r="AN54" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM54" s="113" t="s">
+      <c r="AO54" s="113" t="s">
         <v>391</v>
       </c>
-      <c r="AN54" s="28" t="s">
+      <c r="AP54" s="28" t="s">
         <v>392</v>
       </c>
-      <c r="AO54" s="30" t="s">
+      <c r="AQ54" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP54" s="15" t="s">
+      <c r="AR54" s="15" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="55" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="15">
         <v>0</v>
       </c>
@@ -13529,33 +14189,39 @@
       <c r="AF55" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG55" s="18" t="s">
+      <c r="AG55" t="s">
+        <v>388</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>388</v>
+      </c>
+      <c r="AI55" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH55" s="15" t="s">
+      <c r="AJ55" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="AI55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ55" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK55" s="51" t="s">
+      <c r="AK55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL55" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM55" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="AL55" s="36" t="s">
+      <c r="AN55" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM55" s="36"/>
-      <c r="AN55" s="51" t="s">
+      <c r="AO55" s="36"/>
+      <c r="AP55" s="51" t="s">
         <v>395</v>
       </c>
-      <c r="AO55" s="30" t="s">
+      <c r="AQ55" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="56" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="15">
         <v>1</v>
       </c>
@@ -13645,35 +14311,41 @@
       <c r="AF56" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG56" s="18" t="s">
+      <c r="AG56" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>70</v>
+      </c>
+      <c r="AI56" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH56" s="15" t="s">
+      <c r="AJ56" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="AI56" s="15" t="s">
+      <c r="AK56" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="AJ56" s="15" t="s">
+      <c r="AL56" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="AK56" s="29" t="s">
+      <c r="AM56" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="AL56" s="36" t="s">
+      <c r="AN56" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM56" s="113" t="s">
+      <c r="AO56" s="113" t="s">
         <v>401</v>
       </c>
-      <c r="AN56" s="28" t="s">
+      <c r="AP56" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="AO56" s="30" t="s">
+      <c r="AQ56" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="57" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="15">
         <v>0</v>
       </c>
@@ -13756,33 +14428,39 @@
       <c r="AF57" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG57" s="18" t="s">
+      <c r="AG57" t="s">
+        <v>399</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>399</v>
+      </c>
+      <c r="AI57" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH57" s="15" t="s">
+      <c r="AJ57" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="AI57" s="15" t="s">
+      <c r="AK57" s="15" t="s">
         <v>400</v>
       </c>
-      <c r="AJ57" s="15" t="s">
+      <c r="AL57" s="15" t="s">
         <v>226</v>
       </c>
-      <c r="AK57" s="29" t="s">
+      <c r="AM57" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="AL57" s="36" t="s">
+      <c r="AN57" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM57" s="36"/>
-      <c r="AN57" s="28" t="s">
+      <c r="AO57" s="36"/>
+      <c r="AP57" s="28" t="s">
         <v>402</v>
       </c>
-      <c r="AO57" s="30" t="s">
+      <c r="AQ57" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="58" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="15">
         <v>1</v>
       </c>
@@ -13869,38 +14547,44 @@
       <c r="AF58" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG58" s="66" t="s">
+      <c r="AG58" t="s">
+        <v>1063</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>1092</v>
+      </c>
+      <c r="AI58" s="66" t="s">
         <v>411</v>
       </c>
-      <c r="AH58" s="52" t="s">
+      <c r="AJ58" s="52" t="s">
         <v>412</v>
       </c>
-      <c r="AI58" s="28" t="s">
+      <c r="AK58" s="28" t="s">
         <v>413</v>
       </c>
-      <c r="AJ58" s="15" t="s">
+      <c r="AL58" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="AK58" s="28" t="s">
+      <c r="AM58" s="28" t="s">
         <v>414</v>
       </c>
-      <c r="AL58" s="36" t="s">
+      <c r="AN58" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="AM58" s="113" t="s">
+      <c r="AO58" s="113" t="s">
         <v>414</v>
       </c>
-      <c r="AN58" s="28" t="s">
+      <c r="AP58" s="28" t="s">
         <v>415</v>
       </c>
-      <c r="AO58" s="30" t="s">
+      <c r="AQ58" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP58" s="15" t="s">
+      <c r="AR58" s="15" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="59" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="15">
         <v>1</v>
       </c>
@@ -13987,38 +14671,44 @@
       <c r="AF59" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG59" s="66" t="s">
+      <c r="AG59" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>1064</v>
+      </c>
+      <c r="AI59" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH59" s="52" t="s">
+      <c r="AJ59" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="AI59" s="15" t="s">
+      <c r="AK59" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="AJ59" s="15" t="s">
+      <c r="AL59" s="15" t="s">
         <v>423</v>
       </c>
-      <c r="AK59" s="28" t="s">
+      <c r="AM59" s="28" t="s">
         <v>424</v>
       </c>
-      <c r="AL59" s="36" t="s">
+      <c r="AN59" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="AM59" s="113" t="s">
+      <c r="AO59" s="113" t="s">
         <v>424</v>
       </c>
-      <c r="AN59" s="67" t="s">
+      <c r="AP59" s="67" t="s">
         <v>425</v>
       </c>
-      <c r="AO59" s="36" t="s">
+      <c r="AQ59" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="AP59" s="47" t="s">
+      <c r="AR59" s="47" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="60" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="15">
         <v>0</v>
       </c>
@@ -14101,33 +14791,39 @@
       <c r="AF60" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG60" s="18" t="s">
+      <c r="AG60" t="s">
+        <v>421</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>421</v>
+      </c>
+      <c r="AI60" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH60" s="52" t="s">
+      <c r="AJ60" s="52" t="s">
         <v>421</v>
       </c>
-      <c r="AI60" s="15" t="s">
+      <c r="AK60" s="15" t="s">
         <v>428</v>
       </c>
-      <c r="AJ60" s="15" t="s">
+      <c r="AL60" s="15" t="s">
         <v>429</v>
       </c>
-      <c r="AK60" s="29" t="s">
+      <c r="AM60" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="AL60" s="30" t="s">
+      <c r="AN60" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM60" s="30"/>
-      <c r="AN60" s="28" t="s">
+      <c r="AO60" s="30"/>
+      <c r="AP60" s="28" t="s">
         <v>369</v>
       </c>
-      <c r="AO60" s="30" t="s">
+      <c r="AQ60" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="61" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="15">
         <v>0</v>
       </c>
@@ -14210,36 +14906,42 @@
       <c r="AF61" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG61" s="18" t="s">
+      <c r="AG61" t="s">
+        <v>432</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>432</v>
+      </c>
+      <c r="AI61" s="18" t="s">
         <v>431</v>
       </c>
-      <c r="AH61" s="44" t="s">
+      <c r="AJ61" s="44" t="s">
         <v>432</v>
       </c>
-      <c r="AI61" s="15" t="s">
+      <c r="AK61" s="15" t="s">
         <v>433</v>
       </c>
-      <c r="AJ61" s="15" t="s">
+      <c r="AL61" s="15" t="s">
         <v>434</v>
       </c>
-      <c r="AK61" s="68" t="s">
+      <c r="AM61" s="68" t="s">
         <v>435</v>
       </c>
-      <c r="AL61" s="36" t="s">
+      <c r="AN61" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="AM61" s="36"/>
-      <c r="AN61" s="61" t="s">
+      <c r="AO61" s="36"/>
+      <c r="AP61" s="61" t="s">
         <v>436</v>
       </c>
-      <c r="AO61" s="30" t="s">
+      <c r="AQ61" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP61" s="15" t="s">
+      <c r="AR61" s="15" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="62" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B62" s="16" t="s">
         <v>438</v>
       </c>
@@ -14260,12 +14962,18 @@
       <c r="AA62" s="13"/>
       <c r="AB62" s="17"/>
       <c r="AC62" s="17"/>
-      <c r="AK62" s="15"/>
-      <c r="AL62" s="15"/>
+      <c r="AG62">
+        <v>0</v>
+      </c>
+      <c r="AH62">
+        <v>0</v>
+      </c>
       <c r="AM62" s="15"/>
+      <c r="AN62" s="15"/>
       <c r="AO62" s="15"/>
+      <c r="AQ62" s="15"/>
     </row>
-    <row r="63" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="15">
         <v>10</v>
       </c>
@@ -14355,38 +15063,44 @@
       <c r="AF63" s="69" t="s">
         <v>68</v>
       </c>
-      <c r="AG63" s="70" t="s">
+      <c r="AG63" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI63" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AH63" s="23" t="s">
+      <c r="AJ63" s="23" t="s">
         <v>445</v>
       </c>
-      <c r="AI63" s="15" t="s">
+      <c r="AK63" s="15" t="s">
         <v>446</v>
       </c>
-      <c r="AJ63" s="15" t="s">
+      <c r="AL63" s="15" t="s">
         <v>447</v>
       </c>
-      <c r="AK63" s="62" t="s">
+      <c r="AM63" s="62" t="s">
         <v>448</v>
       </c>
-      <c r="AL63" s="36" t="s">
+      <c r="AN63" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="AM63" s="113" t="s">
-        <v>448</v>
-      </c>
-      <c r="AN63" s="64" t="s">
+      <c r="AO63" s="113" t="s">
+        <v>1032</v>
+      </c>
+      <c r="AP63" s="64" t="s">
         <v>449</v>
       </c>
-      <c r="AO63" s="30" t="s">
+      <c r="AQ63" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP63" s="15" t="s">
+      <c r="AR63" s="15" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="64" spans="1:42" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:44" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="47">
         <v>1</v>
       </c>
@@ -14476,35 +15190,41 @@
       <c r="AF64" s="69" t="s">
         <v>457</v>
       </c>
-      <c r="AG64" s="70" t="s">
+      <c r="AG64" s="114" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AH64" s="114" t="s">
+        <v>1065</v>
+      </c>
+      <c r="AI64" s="70" t="s">
         <v>69</v>
       </c>
-      <c r="AH64" s="52" t="s">
+      <c r="AJ64" s="52" t="s">
         <v>458</v>
       </c>
-      <c r="AI64" s="25" t="s">
+      <c r="AK64" s="25" t="s">
         <v>459</v>
       </c>
-      <c r="AJ64" s="25" t="s">
+      <c r="AL64" s="25" t="s">
         <v>460</v>
       </c>
-      <c r="AK64" s="57" t="s">
+      <c r="AM64" s="57" t="s">
         <v>461</v>
       </c>
-      <c r="AL64" s="58" t="s">
+      <c r="AN64" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="AM64" s="113" t="s">
+      <c r="AO64" s="113" t="s">
         <v>461</v>
       </c>
-      <c r="AN64" s="74" t="s">
+      <c r="AP64" s="74" t="s">
         <v>462</v>
       </c>
-      <c r="AO64" s="58" t="s">
+      <c r="AQ64" s="58" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="65" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="15">
         <v>0</v>
       </c>
@@ -14587,33 +15307,39 @@
       <c r="AF65" s="69" t="s">
         <v>457</v>
       </c>
-      <c r="AG65" s="66" t="s">
+      <c r="AG65" t="s">
+        <v>464</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI65" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH65" s="23" t="s">
+      <c r="AJ65" s="23" t="s">
         <v>464</v>
       </c>
-      <c r="AI65" s="24" t="s">
+      <c r="AK65" s="24" t="s">
         <v>465</v>
       </c>
-      <c r="AJ65" s="24" t="s">
+      <c r="AL65" s="24" t="s">
         <v>466</v>
       </c>
-      <c r="AK65" s="29" t="s">
+      <c r="AM65" s="29" t="s">
         <v>467</v>
       </c>
-      <c r="AL65" s="30" t="s">
+      <c r="AN65" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM65" s="30"/>
-      <c r="AN65" s="75" t="s">
+      <c r="AO65" s="30"/>
+      <c r="AP65" s="75" t="s">
         <v>468</v>
       </c>
-      <c r="AO65" s="30" t="s">
+      <c r="AQ65" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="66" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="15">
         <v>1</v>
       </c>
@@ -14700,38 +15426,44 @@
       <c r="AF66" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG66" s="66" t="s">
+      <c r="AG66" t="s">
+        <v>1093</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AI66" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH66" s="15" t="s">
+      <c r="AJ66" s="15" t="s">
         <v>475</v>
       </c>
-      <c r="AI66" s="24" t="s">
+      <c r="AK66" s="24" t="s">
         <v>476</v>
       </c>
-      <c r="AJ66" s="24" t="s">
+      <c r="AL66" s="24" t="s">
         <v>477</v>
       </c>
-      <c r="AK66" s="29" t="s">
+      <c r="AM66" s="29" t="s">
         <v>478</v>
       </c>
-      <c r="AL66" s="30" t="s">
+      <c r="AN66" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM66" s="113" t="s">
+      <c r="AO66" s="113" t="s">
         <v>478</v>
       </c>
-      <c r="AN66" s="64" t="s">
+      <c r="AP66" s="64" t="s">
         <v>479</v>
       </c>
-      <c r="AO66" s="30" t="s">
+      <c r="AQ66" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP66" s="15" t="s">
+      <c r="AR66" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="67" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="15">
         <v>0</v>
       </c>
@@ -14811,36 +15543,42 @@
       <c r="AF67" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG67" s="66" t="s">
+      <c r="AG67" t="s">
+        <v>481</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>481</v>
+      </c>
+      <c r="AI67" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH67" s="15" t="s">
+      <c r="AJ67" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="AI67" s="24" t="s">
+      <c r="AK67" s="24" t="s">
         <v>482</v>
       </c>
-      <c r="AJ67" s="24" t="s">
+      <c r="AL67" s="24" t="s">
         <v>483</v>
       </c>
-      <c r="AK67" s="64" t="s">
+      <c r="AM67" s="64" t="s">
         <v>484</v>
       </c>
-      <c r="AL67" s="30" t="s">
+      <c r="AN67" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM67" s="30"/>
-      <c r="AN67" s="64" t="s">
+      <c r="AO67" s="30"/>
+      <c r="AP67" s="64" t="s">
         <v>485</v>
       </c>
-      <c r="AO67" s="30" t="s">
+      <c r="AQ67" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP67" s="15" t="s">
+      <c r="AR67" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="68" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="15">
         <v>1</v>
       </c>
@@ -14930,35 +15668,41 @@
       <c r="AF68" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG68" s="66" t="s">
+      <c r="AG68" t="s">
+        <v>1066</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>1095</v>
+      </c>
+      <c r="AI68" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH68" s="15" t="s">
+      <c r="AJ68" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="AI68" s="24" t="s">
+      <c r="AK68" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="AJ68" s="24" t="s">
+      <c r="AL68" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="AK68" s="29" t="s">
+      <c r="AM68" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="AL68" s="30" t="s">
+      <c r="AN68" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM68" s="113" t="s">
-        <v>495</v>
-      </c>
-      <c r="AN68" s="28" t="s">
+      <c r="AO68" s="113" t="s">
+        <v>1035</v>
+      </c>
+      <c r="AP68" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="AO68" s="30" t="s">
+      <c r="AQ68" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="15">
         <v>0</v>
       </c>
@@ -15041,33 +15785,39 @@
       <c r="AF69" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG69" s="66" t="s">
+      <c r="AG69" t="s">
+        <v>492</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>492</v>
+      </c>
+      <c r="AI69" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH69" s="15" t="s">
+      <c r="AJ69" s="15" t="s">
         <v>492</v>
       </c>
-      <c r="AI69" s="24" t="s">
+      <c r="AK69" s="24" t="s">
         <v>493</v>
       </c>
-      <c r="AJ69" s="24" t="s">
+      <c r="AL69" s="24" t="s">
         <v>494</v>
       </c>
-      <c r="AK69" s="29" t="s">
+      <c r="AM69" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="AL69" s="30" t="s">
+      <c r="AN69" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM69" s="30"/>
-      <c r="AN69" s="28" t="s">
+      <c r="AO69" s="30"/>
+      <c r="AP69" s="28" t="s">
         <v>496</v>
       </c>
-      <c r="AO69" s="30" t="s">
+      <c r="AQ69" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="70" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="15">
         <v>10</v>
       </c>
@@ -15157,35 +15907,41 @@
       <c r="AF70" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG70" s="66" t="s">
+      <c r="AG70" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AI70" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH70" s="15" t="s">
+      <c r="AJ70" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="AI70" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ70" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK70" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="AL70" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="AM70" s="113" t="s">
-        <v>60</v>
-      </c>
-      <c r="AN70" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="AO70" s="30" t="s">
+      <c r="AK70" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL70" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM70" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN70" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO70" s="113" t="s">
+        <v>60</v>
+      </c>
+      <c r="AP70" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="AQ70" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="15">
         <v>10</v>
       </c>
@@ -15275,35 +16031,41 @@
       <c r="AF71" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG71" s="66" t="s">
+      <c r="AG71" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AI71" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH71" s="15" t="s">
+      <c r="AJ71" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="AI71" s="24" t="s">
+      <c r="AK71" s="24" t="s">
         <v>509</v>
       </c>
-      <c r="AJ71" s="24" t="s">
+      <c r="AL71" s="24" t="s">
         <v>510</v>
       </c>
-      <c r="AK71" s="29" t="s">
+      <c r="AM71" s="29" t="s">
         <v>511</v>
       </c>
-      <c r="AL71" s="30" t="s">
+      <c r="AN71" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM71" s="113" t="s">
-        <v>511</v>
-      </c>
-      <c r="AN71" s="28" t="s">
+      <c r="AO71" s="113" t="s">
+        <v>1036</v>
+      </c>
+      <c r="AP71" s="28" t="s">
         <v>512</v>
       </c>
-      <c r="AO71" s="30" t="s">
+      <c r="AQ71" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="72" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="15">
         <v>10</v>
       </c>
@@ -15393,35 +16155,41 @@
       <c r="AF72" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG72" s="66" t="s">
+      <c r="AG72" t="s">
+        <v>1096</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>1094</v>
+      </c>
+      <c r="AI72" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH72" s="15" t="s">
+      <c r="AJ72" s="15" t="s">
         <v>504</v>
       </c>
-      <c r="AI72" s="24" t="s">
+      <c r="AK72" s="24" t="s">
         <v>515</v>
       </c>
-      <c r="AJ72" s="24" t="s">
+      <c r="AL72" s="24" t="s">
         <v>516</v>
       </c>
-      <c r="AK72" s="29" t="s">
+      <c r="AM72" s="29" t="s">
         <v>517</v>
       </c>
-      <c r="AL72" s="30" t="s">
+      <c r="AN72" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM72" s="113" t="s">
+      <c r="AO72" s="113" t="s">
         <v>517</v>
       </c>
-      <c r="AN72" s="28" t="s">
+      <c r="AP72" s="28" t="s">
         <v>518</v>
       </c>
-      <c r="AO72" s="30" t="s">
+      <c r="AQ72" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="15">
         <v>1</v>
       </c>
@@ -15511,38 +16279,44 @@
       <c r="AF73" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG73" s="66" t="s">
+      <c r="AG73" t="s">
+        <v>1067</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AI73" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH73" s="15" t="s">
+      <c r="AJ73" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="AI73" s="24" t="s">
+      <c r="AK73" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="AJ73" s="24" t="s">
+      <c r="AL73" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="AK73" s="64" t="s">
+      <c r="AM73" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="AL73" s="30" t="s">
+      <c r="AN73" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM73" s="113" t="s">
-        <v>527</v>
-      </c>
-      <c r="AN73" s="64" t="s">
+      <c r="AO73" s="113" t="s">
+        <v>1050</v>
+      </c>
+      <c r="AP73" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="AO73" s="30" t="s">
+      <c r="AQ73" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP73" s="15" t="s">
+      <c r="AR73" s="15" t="s">
         <v>529</v>
       </c>
     </row>
-    <row r="74" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="15">
         <v>0</v>
       </c>
@@ -15625,36 +16399,42 @@
       <c r="AF74" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG74" s="66" t="s">
+      <c r="AG74" t="s">
+        <v>524</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>524</v>
+      </c>
+      <c r="AI74" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH74" s="15" t="s">
+      <c r="AJ74" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="AI74" s="24" t="s">
+      <c r="AK74" s="24" t="s">
         <v>525</v>
       </c>
-      <c r="AJ74" s="24" t="s">
+      <c r="AL74" s="24" t="s">
         <v>526</v>
       </c>
-      <c r="AK74" s="64" t="s">
+      <c r="AM74" s="64" t="s">
         <v>527</v>
       </c>
-      <c r="AL74" s="30" t="s">
+      <c r="AN74" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM74" s="30"/>
-      <c r="AN74" s="64" t="s">
+      <c r="AO74" s="30"/>
+      <c r="AP74" s="64" t="s">
         <v>528</v>
       </c>
-      <c r="AO74" s="30" t="s">
+      <c r="AQ74" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP74" s="15" t="s">
+      <c r="AR74" s="15" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="75" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="15">
         <v>1</v>
       </c>
@@ -15744,35 +16524,41 @@
       <c r="AF75" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG75" s="66" t="s">
+      <c r="AG75" t="s">
+        <v>1068</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>1097</v>
+      </c>
+      <c r="AI75" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH75" s="15" t="s">
+      <c r="AJ75" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="AI75" s="24" t="s">
+      <c r="AK75" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="AJ75" s="24" t="s">
+      <c r="AL75" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="AK75" s="29" t="s">
+      <c r="AM75" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="AL75" s="30" t="s">
+      <c r="AN75" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM75" s="113" t="s">
+      <c r="AO75" s="113" t="s">
         <v>539</v>
       </c>
-      <c r="AN75" s="28" t="s">
+      <c r="AP75" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="AO75" s="30" t="s">
+      <c r="AQ75" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="15">
         <v>0</v>
       </c>
@@ -15856,33 +16642,39 @@
       <c r="AF76" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG76" s="66" t="s">
+      <c r="AG76" t="s">
+        <v>536</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>536</v>
+      </c>
+      <c r="AI76" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH76" s="15" t="s">
+      <c r="AJ76" s="15" t="s">
         <v>536</v>
       </c>
-      <c r="AI76" s="24" t="s">
+      <c r="AK76" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="AJ76" s="24" t="s">
+      <c r="AL76" s="24" t="s">
         <v>538</v>
       </c>
-      <c r="AK76" s="29" t="s">
+      <c r="AM76" s="29" t="s">
         <v>539</v>
       </c>
-      <c r="AL76" s="30" t="s">
+      <c r="AN76" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM76" s="30"/>
-      <c r="AN76" s="28" t="s">
+      <c r="AO76" s="30"/>
+      <c r="AP76" s="28" t="s">
         <v>540</v>
       </c>
-      <c r="AO76" s="30" t="s">
+      <c r="AQ76" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="77" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="15">
         <v>10</v>
       </c>
@@ -15928,7 +16720,7 @@
         <v>543</v>
       </c>
       <c r="R77" s="106" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="S77" s="47"/>
       <c r="T77" s="71" t="s">
@@ -15970,38 +16762,44 @@
       <c r="AF77" s="27" t="s">
         <v>410</v>
       </c>
-      <c r="AG77" s="18" t="s">
+      <c r="AG77" s="114" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AH77" s="114" t="s">
+        <v>1069</v>
+      </c>
+      <c r="AI77" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH77" s="23" t="s">
+      <c r="AJ77" s="23" t="s">
         <v>548</v>
       </c>
-      <c r="AI77" s="15" t="s">
+      <c r="AK77" s="15" t="s">
         <v>549</v>
       </c>
-      <c r="AJ77" s="15" t="s">
+      <c r="AL77" s="15" t="s">
         <v>550</v>
       </c>
-      <c r="AK77" s="64" t="s">
+      <c r="AM77" s="64" t="s">
         <v>551</v>
       </c>
-      <c r="AL77" s="30" t="s">
+      <c r="AN77" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM77" s="113" t="s">
-        <v>551</v>
-      </c>
-      <c r="AN77" s="64" t="s">
+      <c r="AO77" s="113" t="s">
+        <v>1037</v>
+      </c>
+      <c r="AP77" s="64" t="s">
         <v>552</v>
       </c>
-      <c r="AO77" s="30" t="s">
+      <c r="AQ77" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP77" s="15" t="s">
+      <c r="AR77" s="15" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="78" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15">
         <v>10</v>
       </c>
@@ -16047,7 +16845,7 @@
         <v>177</v>
       </c>
       <c r="R78" s="106" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="S78" s="47"/>
       <c r="T78" s="38" t="s">
@@ -16087,38 +16885,44 @@
       <c r="AF78" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG78" s="18" t="s">
+      <c r="AG78" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>1070</v>
+      </c>
+      <c r="AI78" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH78" s="12" t="s">
+      <c r="AJ78" s="12" t="s">
         <v>558</v>
       </c>
-      <c r="AI78" s="15" t="s">
+      <c r="AK78" s="15" t="s">
         <v>559</v>
       </c>
-      <c r="AJ78" s="15" t="s">
+      <c r="AL78" s="15" t="s">
         <v>560</v>
       </c>
-      <c r="AK78" s="64" t="s">
+      <c r="AM78" s="64" t="s">
         <v>561</v>
       </c>
-      <c r="AL78" s="30" t="s">
+      <c r="AN78" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM78" s="113" t="s">
-        <v>561</v>
-      </c>
-      <c r="AN78" s="64" t="s">
+      <c r="AO78" s="113" t="s">
+        <v>1049</v>
+      </c>
+      <c r="AP78" s="64" t="s">
         <v>562</v>
       </c>
-      <c r="AO78" s="30" t="s">
+      <c r="AQ78" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP78" s="15" t="s">
+      <c r="AR78" s="15" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="79" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="15">
         <v>1</v>
       </c>
@@ -16208,35 +17012,41 @@
       <c r="AF79" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG79" s="18" t="s">
+      <c r="AG79" t="s">
+        <v>1073</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AI79" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="AH79" s="23" t="s">
+      <c r="AJ79" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="AI79" s="15" t="s">
+      <c r="AK79" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="AJ79" s="15" t="s">
+      <c r="AL79" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="AK79" s="29" t="s">
+      <c r="AM79" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="AL79" s="30" t="s">
+      <c r="AN79" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM79" s="113" t="s">
+      <c r="AO79" s="113" t="s">
         <v>572</v>
       </c>
-      <c r="AN79" s="28" t="s">
+      <c r="AP79" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="AO79" s="30" t="s">
+      <c r="AQ79" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="80" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B80" s="15" t="s">
         <v>574</v>
       </c>
@@ -16316,33 +17126,39 @@
       <c r="AF80" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG80" s="18" t="s">
+      <c r="AG80" t="s">
+        <v>569</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>569</v>
+      </c>
+      <c r="AI80" s="18" t="s">
         <v>568</v>
       </c>
-      <c r="AH80" s="23" t="s">
+      <c r="AJ80" s="23" t="s">
         <v>569</v>
       </c>
-      <c r="AI80" s="15" t="s">
+      <c r="AK80" s="15" t="s">
         <v>570</v>
       </c>
-      <c r="AJ80" s="15" t="s">
+      <c r="AL80" s="15" t="s">
         <v>571</v>
       </c>
-      <c r="AK80" s="29" t="s">
+      <c r="AM80" s="29" t="s">
         <v>572</v>
       </c>
-      <c r="AL80" s="30" t="s">
+      <c r="AN80" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM80" s="30"/>
-      <c r="AN80" s="28" t="s">
+      <c r="AO80" s="30"/>
+      <c r="AP80" s="28" t="s">
         <v>573</v>
       </c>
-      <c r="AO80" s="30" t="s">
+      <c r="AQ80" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="81" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="15">
         <v>1</v>
       </c>
@@ -16432,35 +17248,41 @@
       <c r="AF81" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG81" s="79" t="s">
+      <c r="AG81" s="114" t="s">
+        <v>1072</v>
+      </c>
+      <c r="AH81" s="114" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AI81" s="79" t="s">
         <v>581</v>
       </c>
-      <c r="AH81" s="44" t="s">
+      <c r="AJ81" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="AI81" s="15" t="s">
+      <c r="AK81" s="15" t="s">
         <v>583</v>
       </c>
-      <c r="AJ81" s="28" t="s">
+      <c r="AL81" s="28" t="s">
         <v>584</v>
       </c>
-      <c r="AK81" s="29" t="s">
+      <c r="AM81" s="29" t="s">
         <v>585</v>
       </c>
-      <c r="AL81" s="30" t="s">
+      <c r="AN81" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM81" s="113" t="s">
+      <c r="AO81" s="113" t="s">
         <v>585</v>
       </c>
-      <c r="AN81" s="28" t="s">
+      <c r="AP81" s="28" t="s">
         <v>586</v>
       </c>
-      <c r="AO81" s="30" t="s">
+      <c r="AQ81" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="82" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="15" t="s">
         <v>587</v>
       </c>
@@ -16541,36 +17363,42 @@
       <c r="AF82" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG82" s="18" t="s">
+      <c r="AG82" t="s">
+        <v>582</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>582</v>
+      </c>
+      <c r="AI82" s="18" t="s">
         <v>589</v>
       </c>
-      <c r="AH82" s="44" t="s">
+      <c r="AJ82" s="44" t="s">
         <v>582</v>
       </c>
-      <c r="AI82" s="15" t="s">
+      <c r="AK82" s="15" t="s">
         <v>590</v>
       </c>
-      <c r="AJ82" s="28" t="s">
+      <c r="AL82" s="28" t="s">
         <v>591</v>
       </c>
-      <c r="AK82" s="61" t="s">
+      <c r="AM82" s="61" t="s">
         <v>592</v>
       </c>
-      <c r="AL82" s="30" t="s">
+      <c r="AN82" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM82" s="30"/>
-      <c r="AN82" s="80" t="s">
+      <c r="AO82" s="30"/>
+      <c r="AP82" s="80" t="s">
         <v>593</v>
       </c>
-      <c r="AO82" s="30" t="s">
+      <c r="AQ82" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP82" s="15" t="s">
+      <c r="AR82" s="15" t="s">
         <v>594</v>
       </c>
     </row>
-    <row r="83" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="15">
         <v>10</v>
       </c>
@@ -16660,38 +17488,44 @@
       <c r="AF83" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG83" s="18" t="s">
+      <c r="AG83" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>1071</v>
+      </c>
+      <c r="AI83" s="18" t="s">
         <v>600</v>
       </c>
-      <c r="AH83" s="15" t="s">
+      <c r="AJ83" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="AI83" s="15" t="s">
+      <c r="AK83" s="15" t="s">
         <v>602</v>
       </c>
-      <c r="AJ83" s="15" t="s">
+      <c r="AL83" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="AK83" s="64" t="s">
+      <c r="AM83" s="64" t="s">
         <v>604</v>
       </c>
-      <c r="AL83" s="30" t="s">
+      <c r="AN83" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM83" s="113" t="s">
-        <v>604</v>
-      </c>
-      <c r="AN83" s="64" t="s">
+      <c r="AO83" s="113" t="s">
+        <v>1038</v>
+      </c>
+      <c r="AP83" s="64" t="s">
         <v>605</v>
       </c>
-      <c r="AO83" s="30" t="s">
+      <c r="AQ83" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP83" s="15" t="s">
+      <c r="AR83" s="15" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="84" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="15">
         <v>10</v>
       </c>
@@ -16780,38 +17614,44 @@
       <c r="AF84" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG84" s="18" t="s">
+      <c r="AG84" s="114" t="s">
+        <v>1074</v>
+      </c>
+      <c r="AH84" s="114" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AI84" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH84" s="23" t="s">
+      <c r="AJ84" s="23" t="s">
         <v>613</v>
       </c>
-      <c r="AI84" s="15" t="s">
+      <c r="AK84" s="15" t="s">
         <v>614</v>
       </c>
-      <c r="AJ84" s="15" t="s">
+      <c r="AL84" s="15" t="s">
         <v>615</v>
       </c>
-      <c r="AK84" s="64" t="s">
+      <c r="AM84" s="64" t="s">
         <v>616</v>
       </c>
-      <c r="AL84" s="30" t="s">
+      <c r="AN84" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM84" s="113" t="s">
-        <v>616</v>
-      </c>
-      <c r="AN84" s="64" t="s">
+      <c r="AO84" s="113" t="s">
+        <v>1039</v>
+      </c>
+      <c r="AP84" s="64" t="s">
         <v>617</v>
       </c>
-      <c r="AO84" s="30" t="s">
+      <c r="AQ84" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP84" s="15" t="s">
+      <c r="AR84" s="15" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="85" spans="1:42" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:44" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="47">
         <v>1</v>
       </c>
@@ -16901,35 +17741,41 @@
       <c r="AF85" s="69" t="s">
         <v>457</v>
       </c>
-      <c r="AG85" s="56" t="s">
+      <c r="AG85" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>1075</v>
+      </c>
+      <c r="AI85" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="AH85" s="52" t="s">
+      <c r="AJ85" s="52" t="s">
         <v>623</v>
       </c>
-      <c r="AI85" s="47" t="s">
+      <c r="AK85" s="47" t="s">
         <v>624</v>
       </c>
-      <c r="AJ85" s="47" t="s">
+      <c r="AL85" s="47" t="s">
         <v>625</v>
       </c>
-      <c r="AK85" s="57" t="s">
+      <c r="AM85" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="AL85" s="58" t="s">
+      <c r="AN85" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AM85" s="113" t="s">
-        <v>626</v>
-      </c>
-      <c r="AN85" s="67" t="s">
+      <c r="AO85" s="113" t="s">
+        <v>1048</v>
+      </c>
+      <c r="AP85" s="67" t="s">
         <v>627</v>
       </c>
-      <c r="AO85" s="58" t="s">
+      <c r="AQ85" s="58" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="86" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="15">
         <v>0</v>
       </c>
@@ -17013,33 +17859,39 @@
       <c r="AF86" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG86" s="18" t="s">
+      <c r="AG86" t="s">
+        <v>630</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>630</v>
+      </c>
+      <c r="AI86" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH86" s="15" t="s">
+      <c r="AJ86" s="15" t="s">
         <v>630</v>
       </c>
-      <c r="AI86" s="15" t="s">
+      <c r="AK86" s="15" t="s">
         <v>631</v>
       </c>
-      <c r="AJ86" s="15" t="s">
+      <c r="AL86" s="15" t="s">
         <v>632</v>
       </c>
-      <c r="AK86" s="29" t="s">
+      <c r="AM86" s="29" t="s">
         <v>633</v>
       </c>
-      <c r="AL86" s="30" t="s">
+      <c r="AN86" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM86" s="30"/>
-      <c r="AN86" s="28" t="s">
+      <c r="AO86" s="30"/>
+      <c r="AP86" s="28" t="s">
         <v>634</v>
       </c>
-      <c r="AO86" s="30" t="s">
+      <c r="AQ86" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="87" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="15">
         <v>10</v>
       </c>
@@ -17129,38 +17981,44 @@
       <c r="AF87" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG87" s="18" t="s">
+      <c r="AG87" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI87" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH87" s="23" t="s">
+      <c r="AJ87" s="23" t="s">
         <v>640</v>
       </c>
-      <c r="AI87" s="15" t="s">
+      <c r="AK87" s="15" t="s">
         <v>641</v>
       </c>
-      <c r="AJ87" s="15" t="s">
+      <c r="AL87" s="15" t="s">
         <v>642</v>
       </c>
-      <c r="AK87" s="64" t="s">
+      <c r="AM87" s="64" t="s">
         <v>643</v>
       </c>
-      <c r="AL87" s="30" t="s">
+      <c r="AN87" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM87" s="113" t="s">
-        <v>643</v>
-      </c>
-      <c r="AN87" s="64" t="s">
+      <c r="AO87" s="113" t="s">
+        <v>1040</v>
+      </c>
+      <c r="AP87" s="64" t="s">
         <v>644</v>
       </c>
-      <c r="AO87" s="30" t="s">
+      <c r="AQ87" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP87" s="15" t="s">
+      <c r="AR87" s="15" t="s">
         <v>645</v>
       </c>
     </row>
-    <row r="88" spans="1:42" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:44" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="47">
         <v>1</v>
       </c>
@@ -17250,38 +18108,44 @@
       <c r="AF88" s="69" t="s">
         <v>652</v>
       </c>
-      <c r="AG88" s="56" t="s">
+      <c r="AG88" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>1076</v>
+      </c>
+      <c r="AI88" s="56" t="s">
         <v>653</v>
       </c>
-      <c r="AH88" s="44" t="s">
+      <c r="AJ88" s="44" t="s">
         <v>654</v>
       </c>
-      <c r="AI88" s="47" t="s">
+      <c r="AK88" s="47" t="s">
         <v>655</v>
       </c>
-      <c r="AJ88" s="47" t="s">
+      <c r="AL88" s="47" t="s">
         <v>656</v>
       </c>
-      <c r="AK88" s="62" t="s">
+      <c r="AM88" s="62" t="s">
         <v>657</v>
       </c>
-      <c r="AL88" s="58" t="s">
+      <c r="AN88" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="AM88" s="113" t="s">
-        <v>657</v>
-      </c>
-      <c r="AN88" s="62" t="s">
+      <c r="AO88" s="113" t="s">
+        <v>1047</v>
+      </c>
+      <c r="AP88" s="62" t="s">
         <v>658</v>
       </c>
-      <c r="AO88" s="58" t="s">
+      <c r="AQ88" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="AP88" s="47" t="s">
+      <c r="AR88" s="47" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="89" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="15">
         <v>0</v>
       </c>
@@ -17364,36 +18228,42 @@
       <c r="AF89" s="69" t="s">
         <v>652</v>
       </c>
-      <c r="AG89" s="84" t="s">
+      <c r="AG89" t="s">
+        <v>654</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>654</v>
+      </c>
+      <c r="AI89" s="84" t="s">
         <v>660</v>
       </c>
-      <c r="AH89" s="12" t="s">
+      <c r="AJ89" s="12" t="s">
         <v>654</v>
       </c>
-      <c r="AI89" s="15" t="s">
+      <c r="AK89" s="15" t="s">
         <v>661</v>
       </c>
-      <c r="AJ89" s="15" t="s">
+      <c r="AL89" s="15" t="s">
         <v>656</v>
       </c>
-      <c r="AK89" s="64" t="s">
+      <c r="AM89" s="64" t="s">
         <v>657</v>
       </c>
-      <c r="AL89" s="30" t="s">
+      <c r="AN89" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM89" s="30"/>
-      <c r="AN89" s="64" t="s">
+      <c r="AO89" s="30"/>
+      <c r="AP89" s="64" t="s">
         <v>658</v>
       </c>
-      <c r="AO89" s="30" t="s">
+      <c r="AQ89" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP89" s="15" t="s">
+      <c r="AR89" s="15" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="90" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="15">
         <v>1</v>
       </c>
@@ -17439,7 +18309,7 @@
         <v>57</v>
       </c>
       <c r="R90" s="105" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="S90" s="15" t="s">
         <v>663</v>
@@ -17483,35 +18353,41 @@
       <c r="AF90" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG90" s="18" t="s">
+      <c r="AG90" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI90" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH90" s="15" t="s">
+      <c r="AJ90" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="AI90" s="15" t="s">
+      <c r="AK90" s="15" t="s">
         <v>669</v>
       </c>
-      <c r="AJ90" s="15" t="s">
+      <c r="AL90" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="AK90" s="29" t="s">
+      <c r="AM90" s="29" t="s">
         <v>671</v>
       </c>
-      <c r="AL90" s="30" t="s">
+      <c r="AN90" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM90" s="113" t="s">
-        <v>1021</v>
-      </c>
-      <c r="AN90" s="28" t="s">
+      <c r="AO90" s="113" t="s">
+        <v>1041</v>
+      </c>
+      <c r="AP90" s="28" t="s">
         <v>672</v>
       </c>
-      <c r="AO90" s="30" t="s">
+      <c r="AQ90" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="91" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="15">
         <v>0</v>
       </c>
@@ -17594,36 +18470,42 @@
       <c r="AF91" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG91" s="18" t="s">
+      <c r="AG91" t="s">
+        <v>668</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>668</v>
+      </c>
+      <c r="AI91" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH91" s="15" t="s">
+      <c r="AJ91" s="15" t="s">
         <v>668</v>
       </c>
-      <c r="AI91" s="15" t="s">
+      <c r="AK91" s="15" t="s">
         <v>674</v>
       </c>
-      <c r="AJ91" s="15" t="s">
+      <c r="AL91" s="15" t="s">
         <v>670</v>
       </c>
-      <c r="AK91" s="29" t="s">
+      <c r="AM91" s="29" t="s">
         <v>675</v>
       </c>
-      <c r="AL91" s="30" t="s">
+      <c r="AN91" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM91" s="30"/>
-      <c r="AN91" s="28" t="s">
+      <c r="AO91" s="30"/>
+      <c r="AP91" s="28" t="s">
         <v>676</v>
       </c>
-      <c r="AO91" s="30" t="s">
+      <c r="AQ91" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP91" s="15" t="s">
+      <c r="AR91" s="15" t="s">
         <v>677</v>
       </c>
     </row>
-    <row r="92" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="15">
         <v>1</v>
       </c>
@@ -17713,35 +18595,41 @@
       <c r="AF92" s="69" t="s">
         <v>652</v>
       </c>
-      <c r="AG92" s="18" t="s">
+      <c r="AG92" t="s">
+        <v>1098</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>1099</v>
+      </c>
+      <c r="AI92" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH92" s="15" t="s">
+      <c r="AJ92" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="AI92" s="15" t="s">
+      <c r="AK92" s="15" t="s">
         <v>686</v>
       </c>
-      <c r="AJ92" s="15" t="s">
+      <c r="AL92" s="15" t="s">
         <v>687</v>
       </c>
-      <c r="AK92" s="29" t="s">
+      <c r="AM92" s="29" t="s">
         <v>688</v>
       </c>
-      <c r="AL92" s="30" t="s">
+      <c r="AN92" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM92" s="113" t="s">
+      <c r="AO92" s="113" t="s">
         <v>688</v>
       </c>
-      <c r="AN92" s="28" t="s">
+      <c r="AP92" s="28" t="s">
         <v>689</v>
       </c>
-      <c r="AO92" s="30" t="s">
+      <c r="AQ92" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="15">
         <v>0</v>
       </c>
@@ -17824,33 +18712,39 @@
       <c r="AF93" s="69" t="s">
         <v>457</v>
       </c>
-      <c r="AG93" s="18" t="s">
+      <c r="AG93" t="s">
+        <v>685</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>685</v>
+      </c>
+      <c r="AI93" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH93" s="15" t="s">
+      <c r="AJ93" s="15" t="s">
         <v>685</v>
       </c>
-      <c r="AI93" s="15" t="s">
+      <c r="AK93" s="15" t="s">
         <v>691</v>
       </c>
-      <c r="AJ93" s="15" t="s">
+      <c r="AL93" s="15" t="s">
         <v>692</v>
       </c>
-      <c r="AK93" s="29" t="s">
+      <c r="AM93" s="29" t="s">
         <v>693</v>
       </c>
-      <c r="AL93" s="30" t="s">
+      <c r="AN93" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM93" s="30"/>
-      <c r="AN93" s="28" t="s">
+      <c r="AO93" s="30"/>
+      <c r="AP93" s="28" t="s">
         <v>694</v>
       </c>
-      <c r="AO93" s="30" t="s">
+      <c r="AQ93" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:42" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:44" s="47" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="47">
         <v>10</v>
       </c>
@@ -17937,38 +18831,44 @@
       <c r="AF94" s="69" t="s">
         <v>652</v>
       </c>
-      <c r="AG94" s="56" t="s">
+      <c r="AG94" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>1077</v>
+      </c>
+      <c r="AI94" s="56" t="s">
         <v>702</v>
       </c>
-      <c r="AH94" s="52" t="s">
+      <c r="AJ94" s="52" t="s">
         <v>703</v>
       </c>
-      <c r="AI94" s="47" t="s">
+      <c r="AK94" s="47" t="s">
         <v>704</v>
       </c>
-      <c r="AJ94" s="67" t="s">
+      <c r="AL94" s="67" t="s">
         <v>705</v>
       </c>
-      <c r="AK94" s="57" t="s">
+      <c r="AM94" s="57" t="s">
         <v>706</v>
       </c>
-      <c r="AL94" s="58" t="s">
+      <c r="AN94" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="AM94" s="113" t="s">
+      <c r="AO94" s="113" t="s">
         <v>706</v>
       </c>
-      <c r="AN94" s="62" t="s">
+      <c r="AP94" s="62" t="s">
         <v>707</v>
       </c>
-      <c r="AO94" s="58" t="s">
+      <c r="AQ94" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="AP94" s="47" t="s">
+      <c r="AR94" s="47" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="95" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="15">
         <v>10</v>
       </c>
@@ -18055,38 +18955,44 @@
       <c r="AF95" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG95" s="18" t="s">
+      <c r="AG95" t="s">
+        <v>1100</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>1090</v>
+      </c>
+      <c r="AI95" s="18" t="s">
         <v>702</v>
       </c>
-      <c r="AH95" s="23" t="s">
+      <c r="AJ95" s="23" t="s">
         <v>714</v>
       </c>
-      <c r="AI95" s="15" t="s">
+      <c r="AK95" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AJ95" s="15" t="s">
+      <c r="AL95" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AK95" s="64" t="s">
+      <c r="AM95" s="64" t="s">
         <v>715</v>
       </c>
-      <c r="AL95" s="30" t="s">
+      <c r="AN95" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM95" s="113" t="s">
+      <c r="AO95" s="113" t="s">
         <v>715</v>
       </c>
-      <c r="AN95" s="28" t="s">
+      <c r="AP95" s="28" t="s">
         <v>716</v>
       </c>
-      <c r="AO95" s="30" t="s">
+      <c r="AQ95" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP95" s="15" t="s">
+      <c r="AR95" s="15" t="s">
         <v>553</v>
       </c>
     </row>
-    <row r="96" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="15">
         <v>1</v>
       </c>
@@ -18173,38 +19079,44 @@
       <c r="AF96" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG96" s="18" t="s">
+      <c r="AG96" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>1078</v>
+      </c>
+      <c r="AI96" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH96" s="15" t="s">
+      <c r="AJ96" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="AI96" s="15" t="s">
+      <c r="AK96" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="AJ96" s="15" t="s">
+      <c r="AL96" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="AK96" s="64" t="s">
+      <c r="AM96" s="64" t="s">
         <v>726</v>
       </c>
-      <c r="AL96" s="30" t="s">
+      <c r="AN96" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM96" s="113" t="s">
-        <v>726</v>
-      </c>
-      <c r="AN96" s="64" t="s">
+      <c r="AO96" s="113" t="s">
+        <v>1043</v>
+      </c>
+      <c r="AP96" s="64" t="s">
         <v>727</v>
       </c>
-      <c r="AO96" s="30" t="s">
+      <c r="AQ96" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP96" s="15" t="s">
+      <c r="AR96" s="15" t="s">
         <v>728</v>
       </c>
     </row>
-    <row r="97" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="15">
         <v>0</v>
       </c>
@@ -18287,36 +19199,42 @@
       <c r="AF97" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG97" s="18" t="s">
+      <c r="AG97" t="s">
+        <v>723</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>723</v>
+      </c>
+      <c r="AI97" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH97" s="15" t="s">
+      <c r="AJ97" s="15" t="s">
         <v>723</v>
       </c>
-      <c r="AI97" s="15" t="s">
+      <c r="AK97" s="15" t="s">
         <v>724</v>
       </c>
-      <c r="AJ97" s="15" t="s">
+      <c r="AL97" s="15" t="s">
         <v>725</v>
       </c>
-      <c r="AK97" s="64" t="s">
+      <c r="AM97" s="64" t="s">
         <v>730</v>
       </c>
-      <c r="AL97" s="30" t="s">
+      <c r="AN97" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM97" s="30"/>
-      <c r="AN97" s="64" t="s">
+      <c r="AO97" s="30"/>
+      <c r="AP97" s="64" t="s">
         <v>731</v>
       </c>
-      <c r="AO97" s="30" t="s">
+      <c r="AQ97" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP97" s="15" t="s">
+      <c r="AR97" s="15" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="98" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B98" s="16" t="s">
         <v>733</v>
       </c>
@@ -18337,9 +19255,15 @@
       <c r="AA98" s="13"/>
       <c r="AB98" s="17"/>
       <c r="AC98" s="17"/>
-      <c r="AM98" s="13"/>
+      <c r="AG98">
+        <v>0</v>
+      </c>
+      <c r="AH98">
+        <v>0</v>
+      </c>
+      <c r="AO98" s="13"/>
     </row>
-    <row r="99" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="15">
         <v>10</v>
       </c>
@@ -18427,35 +19351,41 @@
       <c r="AF99" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG99" s="18" t="s">
+      <c r="AG99" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI99" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH99" s="15" t="s">
+      <c r="AJ99" s="15" t="s">
         <v>739</v>
       </c>
-      <c r="AI99" s="15" t="s">
+      <c r="AK99" s="15" t="s">
         <v>740</v>
       </c>
-      <c r="AJ99" s="28" t="s">
+      <c r="AL99" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="AK99" s="29" t="s">
+      <c r="AM99" s="29" t="s">
         <v>741</v>
       </c>
-      <c r="AL99" s="30" t="s">
+      <c r="AN99" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM99" s="113" t="s">
-        <v>1020</v>
-      </c>
-      <c r="AN99" s="28" t="s">
+      <c r="AO99" s="113" t="s">
+        <v>1019</v>
+      </c>
+      <c r="AP99" s="28" t="s">
         <v>742</v>
       </c>
-      <c r="AO99" s="30" t="s">
+      <c r="AQ99" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="15">
         <v>10</v>
       </c>
@@ -18543,36 +19473,42 @@
       <c r="AF100" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG100" s="18" t="s">
+      <c r="AG100" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI100" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH100" s="15" t="s">
+      <c r="AJ100" s="15" t="s">
         <v>747</v>
       </c>
-      <c r="AI100" s="15" t="s">
+      <c r="AK100" s="15" t="s">
         <v>748</v>
       </c>
-      <c r="AJ100" s="28" t="s">
+      <c r="AL100" s="28" t="s">
         <v>749</v>
       </c>
-      <c r="AK100" s="29" t="s">
+      <c r="AM100" s="29" t="s">
         <v>750</v>
       </c>
-      <c r="AL100" s="30" t="s">
+      <c r="AN100" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM100" s="113" t="s">
-        <v>750</v>
-      </c>
-      <c r="AN100" s="28" t="s">
+      <c r="AO100" s="113" t="s">
+        <v>1042</v>
+      </c>
+      <c r="AP100" s="28" t="s">
         <v>751</v>
       </c>
-      <c r="AO100" s="30" t="s">
+      <c r="AQ100" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AQ100" s="28"/>
+      <c r="AS100" s="28"/>
     </row>
-    <row r="101" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="15">
         <v>10</v>
       </c>
@@ -18660,35 +19596,41 @@
       <c r="AF101" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG101" s="18" t="s">
+      <c r="AG101" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI101" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH101" s="15" t="s">
+      <c r="AJ101" s="15" t="s">
         <v>756</v>
       </c>
-      <c r="AI101" s="15" t="s">
+      <c r="AK101" s="15" t="s">
         <v>757</v>
       </c>
-      <c r="AJ101" s="15" t="s">
+      <c r="AL101" s="15" t="s">
         <v>758</v>
       </c>
-      <c r="AK101" s="29" t="s">
+      <c r="AM101" s="29" t="s">
         <v>759</v>
       </c>
-      <c r="AL101" s="30" t="s">
+      <c r="AN101" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM101" s="113" t="s">
-        <v>759</v>
-      </c>
-      <c r="AN101" s="28" t="s">
+      <c r="AO101" s="113" t="s">
+        <v>1052</v>
+      </c>
+      <c r="AP101" s="28" t="s">
         <v>760</v>
       </c>
-      <c r="AO101" s="30" t="s">
+      <c r="AQ101" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="102" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="15">
         <v>1</v>
       </c>
@@ -18734,7 +19676,7 @@
         <v>57</v>
       </c>
       <c r="R102" s="105" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="S102" s="15" t="s">
         <v>178</v>
@@ -18776,38 +19718,44 @@
       <c r="AF102" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG102" s="18" t="s">
+      <c r="AG102" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI102" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH102" s="15" t="s">
+      <c r="AJ102" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="AI102" s="15" t="s">
+      <c r="AK102" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="AJ102" s="15" t="s">
+      <c r="AL102" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="AK102" s="64" t="s">
+      <c r="AM102" s="64" t="s">
         <v>767</v>
       </c>
-      <c r="AL102" s="30" t="s">
+      <c r="AN102" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM102" s="113" t="s">
-        <v>767</v>
-      </c>
-      <c r="AN102" s="64" t="s">
+      <c r="AO102" s="113" t="s">
+        <v>1053</v>
+      </c>
+      <c r="AP102" s="64" t="s">
         <v>768</v>
       </c>
-      <c r="AO102" s="30" t="s">
+      <c r="AQ102" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP102" s="17" t="s">
+      <c r="AR102" s="17" t="s">
         <v>769</v>
       </c>
     </row>
-    <row r="103" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="15">
         <v>0</v>
       </c>
@@ -18890,36 +19838,42 @@
       <c r="AF103" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG103" s="18" t="s">
+      <c r="AG103" t="s">
+        <v>764</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>764</v>
+      </c>
+      <c r="AI103" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH103" s="15" t="s">
+      <c r="AJ103" s="15" t="s">
         <v>764</v>
       </c>
-      <c r="AI103" s="15" t="s">
+      <c r="AK103" s="15" t="s">
         <v>765</v>
       </c>
-      <c r="AJ103" s="15" t="s">
+      <c r="AL103" s="15" t="s">
         <v>766</v>
       </c>
-      <c r="AK103" s="64" t="s">
+      <c r="AM103" s="64" t="s">
         <v>767</v>
       </c>
-      <c r="AL103" s="30" t="s">
+      <c r="AN103" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM103" s="30"/>
-      <c r="AN103" s="64" t="s">
+      <c r="AO103" s="30"/>
+      <c r="AP103" s="64" t="s">
         <v>768</v>
       </c>
-      <c r="AO103" s="30" t="s">
+      <c r="AQ103" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP103" s="15" t="s">
+      <c r="AR103" s="15" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="104" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B104" s="16" t="s">
         <v>771</v>
       </c>
@@ -18940,9 +19894,15 @@
       <c r="AA104" s="13"/>
       <c r="AB104" s="17"/>
       <c r="AC104" s="17"/>
-      <c r="AM104" s="13"/>
+      <c r="AG104">
+        <v>0</v>
+      </c>
+      <c r="AH104">
+        <v>0</v>
+      </c>
+      <c r="AO104" s="13"/>
     </row>
-    <row r="105" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15">
         <v>1</v>
       </c>
@@ -19030,35 +19990,41 @@
       <c r="AF105" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG105" s="18" t="s">
+      <c r="AG105" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>1079</v>
+      </c>
+      <c r="AI105" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH105" s="23" t="s">
+      <c r="AJ105" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="AI105" s="15" t="s">
+      <c r="AK105" s="15" t="s">
         <v>776</v>
       </c>
-      <c r="AJ105" s="15" t="s">
+      <c r="AL105" s="15" t="s">
         <v>777</v>
       </c>
-      <c r="AK105" s="29" t="s">
+      <c r="AM105" s="29" t="s">
         <v>778</v>
       </c>
-      <c r="AL105" s="30" t="s">
+      <c r="AN105" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM105" s="113" t="s">
-        <v>1019</v>
-      </c>
-      <c r="AN105" s="28" t="s">
+      <c r="AO105" s="113" t="s">
+        <v>1018</v>
+      </c>
+      <c r="AP105" s="28" t="s">
         <v>779</v>
       </c>
-      <c r="AO105" s="30" t="s">
+      <c r="AQ105" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="106" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="15">
         <v>0</v>
       </c>
@@ -19141,36 +20107,42 @@
       <c r="AF106" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG106" s="18" t="s">
+      <c r="AG106" t="s">
+        <v>775</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>775</v>
+      </c>
+      <c r="AI106" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH106" s="23" t="s">
+      <c r="AJ106" s="23" t="s">
         <v>775</v>
       </c>
-      <c r="AI106" s="15" t="s">
+      <c r="AK106" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="AJ106" s="15" t="s">
+      <c r="AL106" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="AK106" s="64" t="s">
+      <c r="AM106" s="64" t="s">
         <v>783</v>
       </c>
-      <c r="AL106" s="30" t="s">
+      <c r="AN106" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM106" s="30"/>
-      <c r="AN106" s="64" t="s">
+      <c r="AO106" s="30"/>
+      <c r="AP106" s="64" t="s">
         <v>784</v>
       </c>
-      <c r="AO106" s="30" t="s">
+      <c r="AQ106" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP106" s="15" t="s">
+      <c r="AR106" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="107" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="15">
         <v>10</v>
       </c>
@@ -19258,35 +20230,41 @@
       <c r="AF107" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG107" s="18" t="s">
+      <c r="AG107" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI107" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH107" s="15" t="s">
+      <c r="AJ107" s="15" t="s">
         <v>786</v>
       </c>
-      <c r="AI107" s="15" t="s">
+      <c r="AK107" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="AJ107" s="15" t="s">
+      <c r="AL107" s="15" t="s">
         <v>788</v>
       </c>
-      <c r="AK107" s="29" t="s">
+      <c r="AM107" s="29" t="s">
         <v>789</v>
       </c>
-      <c r="AL107" s="30" t="s">
+      <c r="AN107" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM107" s="113" t="s">
-        <v>1018</v>
-      </c>
-      <c r="AN107" s="28" t="s">
+      <c r="AO107" s="113" t="s">
+        <v>1017</v>
+      </c>
+      <c r="AP107" s="28" t="s">
         <v>790</v>
       </c>
-      <c r="AO107" s="30" t="s">
+      <c r="AQ107" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="108" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="15">
         <v>10</v>
       </c>
@@ -19374,35 +20352,41 @@
       <c r="AF108" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG108" s="18" t="s">
+      <c r="AG108" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI108" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH108" s="23" t="s">
+      <c r="AJ108" s="23" t="s">
         <v>794</v>
       </c>
-      <c r="AI108" s="15" t="s">
+      <c r="AK108" s="15" t="s">
         <v>795</v>
       </c>
-      <c r="AJ108" s="15" t="s">
+      <c r="AL108" s="15" t="s">
         <v>796</v>
       </c>
-      <c r="AK108" s="29" t="s">
+      <c r="AM108" s="29" t="s">
         <v>797</v>
       </c>
-      <c r="AL108" s="30" t="s">
+      <c r="AN108" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM108" s="113" t="s">
-        <v>797</v>
-      </c>
-      <c r="AN108" s="28" t="s">
+      <c r="AO108" s="113" t="s">
+        <v>1046</v>
+      </c>
+      <c r="AP108" s="28" t="s">
         <v>798</v>
       </c>
-      <c r="AO108" s="30" t="s">
+      <c r="AQ108" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="109" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="15">
         <v>1</v>
       </c>
@@ -19490,35 +20474,41 @@
       <c r="AF109" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG109" s="18" t="s">
+      <c r="AG109" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AH109" t="s">
+        <v>1081</v>
+      </c>
+      <c r="AI109" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH109" s="15" t="s">
+      <c r="AJ109" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="AI109" s="15" t="s">
+      <c r="AK109" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="AJ109" s="15" t="s">
+      <c r="AL109" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="AK109" s="29" t="s">
+      <c r="AM109" s="29" t="s">
         <v>805</v>
       </c>
-      <c r="AL109" s="30" t="s">
+      <c r="AN109" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM109" s="113" t="s">
+      <c r="AO109" s="113" t="s">
         <v>805</v>
       </c>
-      <c r="AN109" s="28" t="s">
+      <c r="AP109" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="AO109" s="30" t="s">
+      <c r="AQ109" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="110" spans="1:43" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:45" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="15">
         <v>0</v>
       </c>
@@ -19601,33 +20591,39 @@
       <c r="AF110" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG110" s="18" t="s">
+      <c r="AG110" t="s">
+        <v>802</v>
+      </c>
+      <c r="AH110" t="s">
+        <v>802</v>
+      </c>
+      <c r="AI110" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH110" s="15" t="s">
+      <c r="AJ110" s="15" t="s">
         <v>802</v>
       </c>
-      <c r="AI110" s="15" t="s">
+      <c r="AK110" s="15" t="s">
         <v>803</v>
       </c>
-      <c r="AJ110" s="15" t="s">
+      <c r="AL110" s="15" t="s">
         <v>804</v>
       </c>
-      <c r="AK110" s="29" t="s">
+      <c r="AM110" s="29" t="s">
         <v>805</v>
       </c>
-      <c r="AL110" s="30" t="s">
+      <c r="AN110" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM110" s="30"/>
-      <c r="AN110" s="28" t="s">
+      <c r="AO110" s="30"/>
+      <c r="AP110" s="28" t="s">
         <v>806</v>
       </c>
-      <c r="AO110" s="30" t="s">
+      <c r="AQ110" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="111" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="15">
         <v>10</v>
       </c>
@@ -19715,35 +20711,41 @@
       <c r="AF111" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG111" s="18" t="s">
+      <c r="AG111" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AH111" t="s">
+        <v>1082</v>
+      </c>
+      <c r="AI111" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH111" s="15" t="s">
+      <c r="AJ111" s="15" t="s">
         <v>811</v>
       </c>
-      <c r="AI111" s="15" t="s">
+      <c r="AK111" s="15" t="s">
         <v>812</v>
       </c>
-      <c r="AJ111" s="15" t="s">
+      <c r="AL111" s="15" t="s">
         <v>813</v>
       </c>
-      <c r="AK111" s="29" t="s">
+      <c r="AM111" s="29" t="s">
         <v>814</v>
       </c>
-      <c r="AL111" s="30" t="s">
+      <c r="AN111" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM111" s="113" t="s">
+      <c r="AO111" s="113" t="s">
         <v>814</v>
       </c>
-      <c r="AN111" s="28" t="s">
+      <c r="AP111" s="28" t="s">
         <v>815</v>
       </c>
-      <c r="AO111" s="30" t="s">
+      <c r="AQ111" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="112" spans="1:43" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:45" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="15">
         <v>1</v>
       </c>
@@ -19831,35 +20833,41 @@
       <c r="AF112" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG112" s="18" t="s">
+      <c r="AG112" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH112" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI112" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH112" s="15" t="s">
+      <c r="AJ112" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="AI112" s="15" t="s">
+      <c r="AK112" s="15" t="s">
         <v>820</v>
       </c>
-      <c r="AJ112" s="15" t="s">
+      <c r="AL112" s="15" t="s">
         <v>821</v>
       </c>
-      <c r="AK112" s="29" t="s">
+      <c r="AM112" s="29" t="s">
         <v>822</v>
       </c>
-      <c r="AL112" s="30" t="s">
+      <c r="AN112" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM112" s="113" t="s">
+      <c r="AO112" s="113" t="s">
         <v>822</v>
       </c>
-      <c r="AN112" s="28" t="s">
+      <c r="AP112" s="28" t="s">
         <v>823</v>
       </c>
-      <c r="AO112" s="30" t="s">
+      <c r="AQ112" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="113" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="15">
         <v>0</v>
       </c>
@@ -19942,36 +20950,42 @@
       <c r="AF113" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG113" s="18" t="s">
+      <c r="AG113" t="s">
+        <v>819</v>
+      </c>
+      <c r="AH113" t="s">
+        <v>819</v>
+      </c>
+      <c r="AI113" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH113" s="15" t="s">
+      <c r="AJ113" s="15" t="s">
         <v>819</v>
       </c>
-      <c r="AI113" s="15" t="s">
+      <c r="AK113" s="15" t="s">
         <v>825</v>
       </c>
-      <c r="AJ113" s="15" t="s">
+      <c r="AL113" s="15" t="s">
         <v>826</v>
       </c>
-      <c r="AK113" s="61" t="s">
+      <c r="AM113" s="61" t="s">
         <v>827</v>
       </c>
-      <c r="AL113" s="30" t="s">
+      <c r="AN113" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM113" s="30"/>
-      <c r="AN113" s="61" t="s">
+      <c r="AO113" s="30"/>
+      <c r="AP113" s="61" t="s">
         <v>828</v>
       </c>
-      <c r="AO113" s="30" t="s">
+      <c r="AQ113" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP113" s="15" t="s">
+      <c r="AR113" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="114" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="15">
         <v>10</v>
       </c>
@@ -20017,7 +21031,7 @@
         <v>57</v>
       </c>
       <c r="R114" s="105" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="S114" s="15" t="s">
         <v>178</v>
@@ -20059,35 +21073,41 @@
       <c r="AF114" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG114" s="18" t="s">
+      <c r="AG114" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AH114" t="s">
+        <v>1080</v>
+      </c>
+      <c r="AI114" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AH114" s="15" t="s">
+      <c r="AJ114" s="15" t="s">
         <v>833</v>
       </c>
-      <c r="AI114" s="15" t="s">
+      <c r="AK114" s="15" t="s">
         <v>834</v>
       </c>
-      <c r="AJ114" s="15" t="s">
+      <c r="AL114" s="15" t="s">
         <v>835</v>
       </c>
-      <c r="AK114" s="29" t="s">
+      <c r="AM114" s="29" t="s">
         <v>836</v>
       </c>
-      <c r="AL114" s="30" t="s">
+      <c r="AN114" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM114" s="113" t="s">
+      <c r="AO114" s="113" t="s">
         <v>836</v>
       </c>
-      <c r="AN114" s="28" t="s">
+      <c r="AP114" s="28" t="s">
         <v>837</v>
       </c>
-      <c r="AO114" s="30" t="s">
+      <c r="AQ114" s="30" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="15">
         <v>1</v>
       </c>
@@ -20133,7 +21153,7 @@
         <v>57</v>
       </c>
       <c r="R115" s="105" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="S115" s="15" t="s">
         <v>178</v>
@@ -20175,35 +21195,41 @@
       <c r="AF115" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG115" s="88" t="s">
+      <c r="AG115" t="s">
+        <v>1101</v>
+      </c>
+      <c r="AH115" t="s">
+        <v>1083</v>
+      </c>
+      <c r="AI115" s="88" t="s">
         <v>842</v>
       </c>
-      <c r="AH115" s="12" t="s">
+      <c r="AJ115" s="12" t="s">
         <v>843</v>
       </c>
-      <c r="AI115" s="24" t="s">
+      <c r="AK115" s="24" t="s">
         <v>844</v>
       </c>
-      <c r="AJ115" s="24" t="s">
+      <c r="AL115" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="AK115" s="29" t="s">
+      <c r="AM115" s="29" t="s">
         <v>846</v>
       </c>
-      <c r="AL115" s="30" t="s">
+      <c r="AN115" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM115" s="113" t="s">
+      <c r="AO115" s="113" t="s">
         <v>846</v>
       </c>
-      <c r="AN115" s="75" t="s">
+      <c r="AP115" s="75" t="s">
         <v>847</v>
       </c>
-      <c r="AO115" s="30" t="s">
+      <c r="AQ115" s="30" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="116" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="15">
         <v>0</v>
       </c>
@@ -20286,36 +21312,42 @@
       <c r="AF116" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG116" s="88" t="s">
+      <c r="AG116" t="s">
+        <v>849</v>
+      </c>
+      <c r="AH116" t="s">
+        <v>849</v>
+      </c>
+      <c r="AI116" s="88" t="s">
         <v>842</v>
       </c>
-      <c r="AH116" s="12" t="s">
+      <c r="AJ116" s="12" t="s">
         <v>849</v>
       </c>
-      <c r="AI116" s="24" t="s">
+      <c r="AK116" s="24" t="s">
         <v>850</v>
       </c>
-      <c r="AJ116" s="24" t="s">
+      <c r="AL116" s="24" t="s">
         <v>851</v>
       </c>
-      <c r="AK116" s="61" t="s">
+      <c r="AM116" s="61" t="s">
         <v>852</v>
       </c>
-      <c r="AL116" s="30" t="s">
+      <c r="AN116" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AM116" s="30"/>
-      <c r="AN116" s="61" t="s">
+      <c r="AO116" s="30"/>
+      <c r="AP116" s="61" t="s">
         <v>853</v>
       </c>
-      <c r="AO116" s="30" t="s">
+      <c r="AQ116" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP116" s="15" t="s">
+      <c r="AR116" s="15" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="117" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="16" t="s">
         <v>854</v>
       </c>
@@ -20336,12 +21368,18 @@
       <c r="AA117" s="13"/>
       <c r="AB117" s="17"/>
       <c r="AC117" s="17"/>
-      <c r="AK117" s="15"/>
-      <c r="AL117" s="15"/>
+      <c r="AG117">
+        <v>0</v>
+      </c>
+      <c r="AH117">
+        <v>0</v>
+      </c>
       <c r="AM117" s="15"/>
+      <c r="AN117" s="15"/>
       <c r="AO117" s="15"/>
+      <c r="AQ117" s="15"/>
     </row>
-    <row r="118" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="15">
         <v>1</v>
       </c>
@@ -20426,35 +21464,39 @@
       <c r="AF118" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG118" s="66" t="s">
+      <c r="AG118"/>
+      <c r="AH118" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AI118" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH118" s="23" t="s">
+      <c r="AJ118" s="23" t="s">
         <v>861</v>
       </c>
-      <c r="AI118" s="24" t="s">
+      <c r="AK118" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="AJ118" s="15" t="s">
+      <c r="AL118" s="15" t="s">
         <v>862</v>
       </c>
-      <c r="AK118" s="89" t="s">
+      <c r="AM118" s="89" t="s">
         <v>863</v>
       </c>
-      <c r="AL118" s="30" t="s">
+      <c r="AN118" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM118" s="113" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AN118" s="89" t="s">
+      <c r="AO118" s="113" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AP118" s="89" t="s">
         <v>864</v>
       </c>
-      <c r="AO118" s="30" t="s">
+      <c r="AQ118" s="30" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="15">
         <v>0</v>
       </c>
@@ -20537,34 +21579,40 @@
       <c r="AF119" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG119" s="66"/>
-      <c r="AH119" s="23" t="s">
+      <c r="AG119" t="s">
         <v>867</v>
       </c>
-      <c r="AI119" s="24" t="s">
+      <c r="AH119" t="s">
+        <v>867</v>
+      </c>
+      <c r="AI119" s="66"/>
+      <c r="AJ119" s="23" t="s">
+        <v>867</v>
+      </c>
+      <c r="AK119" s="24" t="s">
         <v>358</v>
       </c>
-      <c r="AJ119" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK119" s="62" t="s">
+      <c r="AL119" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM119" s="62" t="s">
         <v>868</v>
       </c>
-      <c r="AL119" s="90" t="s">
+      <c r="AN119" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="AM119" s="90"/>
-      <c r="AN119" s="62" t="s">
+      <c r="AO119" s="90"/>
+      <c r="AP119" s="62" t="s">
         <v>869</v>
       </c>
-      <c r="AO119" s="30" t="s">
+      <c r="AQ119" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP119" s="15" t="s">
+      <c r="AR119" s="15" t="s">
         <v>870</v>
       </c>
     </row>
-    <row r="120" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="15">
         <v>1</v>
       </c>
@@ -20651,35 +21699,39 @@
       <c r="AF120" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG120" s="66" t="s">
+      <c r="AG120"/>
+      <c r="AH120" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AI120" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="AH120" s="23" t="s">
+      <c r="AJ120" s="23" t="s">
         <v>875</v>
       </c>
-      <c r="AI120" s="24" t="s">
+      <c r="AK120" s="24" t="s">
         <v>876</v>
       </c>
-      <c r="AK120" s="64" t="s">
+      <c r="AM120" s="64" t="s">
         <v>877</v>
       </c>
-      <c r="AL120" s="30" t="s">
+      <c r="AN120" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM120" s="113" t="s">
-        <v>877</v>
-      </c>
-      <c r="AN120" s="39" t="s">
+      <c r="AO120" s="113" t="s">
+        <v>1045</v>
+      </c>
+      <c r="AP120" s="39" t="s">
         <v>878</v>
       </c>
-      <c r="AO120" s="30" t="s">
+      <c r="AQ120" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP120" s="15" t="s">
+      <c r="AR120" s="15" t="s">
         <v>879</v>
       </c>
     </row>
-    <row r="121" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="15">
         <v>1</v>
       </c>
@@ -20766,38 +21818,42 @@
       <c r="AF121" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG121" s="66" t="s">
+      <c r="AG121"/>
+      <c r="AH121" t="s">
+        <v>1084</v>
+      </c>
+      <c r="AI121" s="66" t="s">
         <v>884</v>
       </c>
-      <c r="AH121" s="23" t="s">
+      <c r="AJ121" s="23" t="s">
         <v>885</v>
       </c>
-      <c r="AI121" s="15" t="s">
+      <c r="AK121" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AJ121" s="15" t="s">
+      <c r="AL121" s="15" t="s">
         <v>886</v>
       </c>
-      <c r="AK121" s="51" t="s">
+      <c r="AM121" s="51" t="s">
         <v>887</v>
       </c>
-      <c r="AL121" s="30" t="s">
+      <c r="AN121" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM121" s="113" t="s">
-        <v>1017</v>
-      </c>
-      <c r="AN121" s="51" t="s">
+      <c r="AO121" s="113" t="s">
+        <v>1044</v>
+      </c>
+      <c r="AP121" s="51" t="s">
         <v>888</v>
       </c>
-      <c r="AO121" s="30" t="s">
+      <c r="AQ121" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP121" s="15" t="s">
+      <c r="AR121" s="15" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="122" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="15">
         <v>0</v>
       </c>
@@ -20880,31 +21936,37 @@
       <c r="AF122" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG122" s="18"/>
-      <c r="AH122" s="23" t="s">
+      <c r="AG122" t="s">
         <v>892</v>
       </c>
-      <c r="AI122" s="15" t="s">
+      <c r="AH122" t="s">
+        <v>892</v>
+      </c>
+      <c r="AI122" s="18"/>
+      <c r="AJ122" s="23" t="s">
+        <v>892</v>
+      </c>
+      <c r="AK122" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AK122" s="62" t="s">
+      <c r="AM122" s="62" t="s">
         <v>893</v>
       </c>
-      <c r="AL122" s="30" t="s">
+      <c r="AN122" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM122" s="30"/>
-      <c r="AN122" s="62" t="s">
+      <c r="AO122" s="30"/>
+      <c r="AP122" s="62" t="s">
         <v>893</v>
       </c>
-      <c r="AO122" s="30" t="s">
+      <c r="AQ122" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AP122" s="15" t="s">
+      <c r="AR122" s="15" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="123" spans="1:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="15">
         <v>1</v>
       </c>
@@ -20950,7 +22012,7 @@
         <v>607</v>
       </c>
       <c r="R123" s="105" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="T123" s="92" t="s">
         <v>898</v>
@@ -20991,38 +22053,42 @@
       <c r="AF123" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG123" s="66" t="s">
+      <c r="AG123" s="114"/>
+      <c r="AH123" s="114" t="s">
+        <v>1085</v>
+      </c>
+      <c r="AI123" s="66" t="s">
         <v>904</v>
       </c>
-      <c r="AH123" s="44" t="s">
+      <c r="AJ123" s="44" t="s">
         <v>905</v>
       </c>
-      <c r="AI123" s="15" t="s">
+      <c r="AK123" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AJ123" s="15" t="s">
+      <c r="AL123" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="AK123" s="93" t="s">
+      <c r="AM123" s="93" t="s">
         <v>906</v>
       </c>
-      <c r="AL123" s="90" t="s">
+      <c r="AN123" s="90" t="s">
         <v>114</v>
       </c>
-      <c r="AM123" s="113" t="s">
+      <c r="AO123" s="113" t="s">
         <v>1016</v>
       </c>
-      <c r="AN123" s="89" t="s">
+      <c r="AP123" s="89" t="s">
         <v>907</v>
       </c>
-      <c r="AO123" s="30" t="s">
+      <c r="AQ123" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP123" s="15" t="s">
+      <c r="AR123" s="15" t="s">
         <v>908</v>
       </c>
     </row>
-    <row r="124" spans="1:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="15">
         <v>0</v>
       </c>
@@ -21105,62 +22171,68 @@
       <c r="AF124" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG124" s="66"/>
-      <c r="AH124" s="44" t="s">
+      <c r="AG124" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AH124" t="s">
+        <v>1054</v>
+      </c>
+      <c r="AI124" s="66"/>
+      <c r="AJ124" s="44" t="s">
         <v>912</v>
       </c>
-      <c r="AI124" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AJ124" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="AK124" s="89" t="s">
+      <c r="AK124" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AL124" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="AM124" s="89" t="s">
         <v>913</v>
       </c>
-      <c r="AL124" s="30" t="s">
+      <c r="AN124" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AM124" s="30"/>
-      <c r="AN124" s="89" t="s">
+      <c r="AO124" s="30"/>
+      <c r="AP124" s="89" t="s">
         <v>914</v>
       </c>
-      <c r="AO124" s="30" t="s">
+      <c r="AQ124" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="AP124" s="15" t="s">
+      <c r="AR124" s="15" t="s">
         <v>915</v>
       </c>
     </row>
-    <row r="125" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AG125" s="18"/>
+    <row r="125" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AI125" s="18"/>
     </row>
-    <row r="126" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AG126" s="96"/>
-      <c r="AK126" s="15"/>
+    <row r="126" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AI126" s="96"/>
+      <c r="AM126" s="15"/>
     </row>
-    <row r="127" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AG127" s="96"/>
+    <row r="127" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AI127" s="96"/>
     </row>
-    <row r="128" spans="1:42" x14ac:dyDescent="0.25">
-      <c r="AG128" s="96"/>
+    <row r="128" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AI128" s="96"/>
     </row>
-    <row r="129" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="AG129" s="96"/>
+    <row r="129" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AI129" s="96"/>
     </row>
-    <row r="130" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="AG130" s="96"/>
+    <row r="130" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AI130" s="96"/>
     </row>
-    <row r="131" spans="2:42" x14ac:dyDescent="0.25">
-      <c r="AG131" s="96"/>
+    <row r="131" spans="2:44" x14ac:dyDescent="0.25">
+      <c r="AI131" s="96"/>
     </row>
-    <row r="134" spans="2:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:44" hidden="1" x14ac:dyDescent="0.25">
       <c r="R134" s="15"/>
       <c r="U134" s="15"/>
       <c r="AA134" s="15"/>
-      <c r="AM134" s="13"/>
+      <c r="AO134" s="13"/>
     </row>
-    <row r="135" spans="2:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B135" s="15" t="s">
         <v>916</v>
       </c>
@@ -21223,20 +22295,22 @@
       <c r="AF135" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG135" s="18"/>
-      <c r="AH135" s="44" t="s">
+      <c r="AG135" s="27"/>
+      <c r="AH135" s="27"/>
+      <c r="AI135" s="18"/>
+      <c r="AJ135" s="44" t="s">
         <v>924</v>
       </c>
-      <c r="AJ135" s="15" t="s">
+      <c r="AL135" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="AK135" s="99"/>
-      <c r="AL135" s="100"/>
-      <c r="AM135" s="100"/>
-      <c r="AN135" s="99"/>
+      <c r="AM135" s="99"/>
+      <c r="AN135" s="100"/>
       <c r="AO135" s="100"/>
+      <c r="AP135" s="99"/>
+      <c r="AQ135" s="100"/>
     </row>
-    <row r="136" spans="2:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B136" s="15" t="s">
         <v>926</v>
       </c>
@@ -21299,33 +22373,35 @@
       <c r="AF136" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG136" s="18" t="s">
+      <c r="AG136" s="27"/>
+      <c r="AH136" s="27"/>
+      <c r="AI136" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="AH136" s="15" t="s">
+      <c r="AJ136" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AI136" s="18" t="s">
+      <c r="AK136" s="18" t="s">
         <v>932</v>
       </c>
-      <c r="AK136" s="61" t="s">
+      <c r="AM136" s="61" t="s">
         <v>933</v>
       </c>
-      <c r="AL136" s="36" t="s">
+      <c r="AN136" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM136" s="36"/>
-      <c r="AN136" s="61" t="s">
+      <c r="AO136" s="36"/>
+      <c r="AP136" s="61" t="s">
         <v>934</v>
       </c>
-      <c r="AO136" s="30" t="s">
+      <c r="AQ136" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP136" s="51" t="s">
+      <c r="AR136" s="51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="137" spans="2:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B137" s="15" t="s">
         <v>935</v>
       </c>
@@ -21388,72 +22464,74 @@
       <c r="AF137" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="AG137" s="18" t="s">
+      <c r="AG137" s="27"/>
+      <c r="AH137" s="27"/>
+      <c r="AI137" s="18" t="s">
         <v>931</v>
       </c>
-      <c r="AH137" s="15" t="s">
+      <c r="AJ137" s="15" t="s">
         <v>212</v>
       </c>
-      <c r="AI137" s="18" t="s">
+      <c r="AK137" s="18" t="s">
         <v>936</v>
       </c>
-      <c r="AK137" s="50" t="s">
+      <c r="AM137" s="50" t="s">
         <v>937</v>
       </c>
-      <c r="AL137" s="36" t="s">
+      <c r="AN137" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="AM137" s="36"/>
-      <c r="AN137" s="50" t="s">
+      <c r="AO137" s="36"/>
+      <c r="AP137" s="50" t="s">
         <v>938</v>
       </c>
-      <c r="AO137" s="30" t="s">
+      <c r="AQ137" s="30" t="s">
         <v>95</v>
       </c>
-      <c r="AP137" s="51" t="s">
+      <c r="AR137" s="51" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="138" spans="2:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:44" hidden="1" x14ac:dyDescent="0.25">
       <c r="B138" s="15" t="s">
         <v>939</v>
       </c>
       <c r="R138" s="15"/>
       <c r="U138" s="15"/>
       <c r="AA138" s="15"/>
-      <c r="AK138" s="101" t="s">
+      <c r="AM138" s="101" t="s">
         <v>940</v>
       </c>
-      <c r="AM138" s="13"/>
-      <c r="AN138" s="101" t="s">
+      <c r="AO138" s="13"/>
+      <c r="AP138" s="101" t="s">
         <v>941</v>
       </c>
     </row>
-    <row r="139" spans="2:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:44" hidden="1" x14ac:dyDescent="0.25">
       <c r="B139" s="15" t="s">
         <v>942</v>
       </c>
       <c r="R139" s="15"/>
       <c r="U139" s="15"/>
       <c r="AA139" s="15"/>
-      <c r="AK139" s="101" t="s">
+      <c r="AM139" s="101" t="s">
         <v>943</v>
       </c>
-      <c r="AM139" s="13"/>
-      <c r="AN139" s="101" t="s">
+      <c r="AO139" s="13"/>
+      <c r="AP139" s="101" t="s">
         <v>944</v>
       </c>
     </row>
-    <row r="140" spans="2:42" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:44" hidden="1" x14ac:dyDescent="0.25">
       <c r="B140" s="15" t="s">
         <v>945</v>
       </c>
       <c r="R140" s="15"/>
       <c r="U140" s="15"/>
       <c r="AA140" s="15"/>
-      <c r="AM140" s="13"/>
+      <c r="AO140" s="13"/>
     </row>
-    <row r="141" spans="2:42" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:44" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B141" s="15" t="s">
         <v>946</v>
       </c>
@@ -21516,29 +22594,31 @@
       <c r="AF141" s="27" t="s">
         <v>457</v>
       </c>
-      <c r="AG141" s="18"/>
-      <c r="AH141" s="44" t="s">
+      <c r="AG141" s="27"/>
+      <c r="AH141" s="27"/>
+      <c r="AI141" s="18"/>
+      <c r="AJ141" s="44" t="s">
         <v>950</v>
       </c>
-      <c r="AJ141" s="15" t="s">
+      <c r="AL141" s="15" t="s">
         <v>925</v>
       </c>
-      <c r="AK141" s="89" t="s">
+      <c r="AM141" s="89" t="s">
         <v>951</v>
       </c>
-      <c r="AL141" s="30" t="s">
+      <c r="AN141" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="AM141" s="30"/>
-      <c r="AN141" s="89" t="s">
+      <c r="AO141" s="30"/>
+      <c r="AP141" s="89" t="s">
         <v>952</v>
       </c>
-      <c r="AO141" s="30" t="s">
+      <c r="AQ141" s="30" t="s">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AQ124">
+  <autoFilter ref="A3:AS124">
     <filterColumn colId="0">
       <filters>
         <filter val="1"/>
@@ -21549,1284 +22629,1334 @@
   <mergeCells count="1">
     <mergeCell ref="K1:O1"/>
   </mergeCells>
-  <conditionalFormatting sqref="AH28 AH51 AH90 AH46:AH49 AH63:AH64 AH66:AH68 AH4 AH92:AH96 AP91 AK23 AI25:AJ25 AH24:AK24 AH26:AK26 AJ70:AL70 AH61:AK61 AI46:AI52 AJ46:AJ47 AI55:AI57 AI60:AK60 AI105:AK116 AI63:AI74 AJ118:AK121 AJ35 AJ36:AK38 AJ39:AJ44 AH83:AH85 AH87:AH88 AK74 AJ48:AK52 AH53:AK54 AJ55:AK59 AJ63:AK69 AJ71:AK73 AG99:AK103 AN105:AN116 AN99:AN103 AN71:AN97 AN63:AN69 AN36:AN44 AN118:AN122 AH118 AH120:AH121 AH30:AH43 AI30:AI44 AI22:AI23 AH6:AH22 AI81:AK97 AH56:AH59 AJ30:AK34 AG118:AG122 AG105:AG114 AG46:AG61 AG75:AK80 AH70:AH73 AH105:AH115 AG81:AG97 AG63:AG74 AP136:AP137 AN46:AN61 AI27:AK29 AN23:AN34 AN136:AN137 AG4:AG44 AG136:AJ137 AI118:AI123 AJ122:AJ123 AI4:AO21 AK22:AO22 AM24 AM26 AM28 AM30:AM43 AM46 AM48:AM49 AM51 AM54 AM56 AM58:AM59 AM63:AM64 AM66 AM68 AN70:AO70 AM70:AM73 AM75 AM77:AM79 AM81 AM83:AM85 AM87:AM88 AM90 AM92 AM94:AM96 AM99:AM102 AM105 AM107:AM109 AM111:AM112 AM114:AM115 AM118 AM123 AM120:AM121">
-    <cfRule type="cellIs" dxfId="263" priority="261" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH5">
-    <cfRule type="cellIs" dxfId="262" priority="260" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH25">
-    <cfRule type="cellIs" dxfId="261" priority="259" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH23">
-    <cfRule type="cellIs" dxfId="260" priority="258" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AJ22">
-    <cfRule type="cellIs" dxfId="259" priority="257" operator="equal">
-      <formula>$AP$1</formula>
+  <conditionalFormatting sqref="AJ28 AJ51 AJ90 AJ46:AJ49 AJ63:AJ64 AJ66:AJ68 AJ4 AJ92:AJ96 AR91 AM23 AK25:AL25 AJ24:AM24 AJ26:AM26 AL70:AN70 AJ61:AM61 AK46:AK52 AL46:AL47 AK55:AK57 AK60:AM60 AK105:AM116 AK63:AK74 AL118:AM121 AL35 AL36:AM38 AL39:AL44 AJ83:AJ85 AJ87:AJ88 AM74 AL48:AM52 AJ53:AM54 AL55:AM59 AL63:AM69 AL71:AM73 AI99:AM103 AP105:AP116 AP99:AP103 AP71:AP97 AP63:AP69 AP36:AP44 AP118:AP122 AJ118 AJ120:AJ121 AJ30:AJ43 AK30:AK44 AK22:AK23 AJ6:AJ22 AK81:AM97 AJ56:AJ59 AL30:AM34 AI118:AI122 AI105:AI114 AI46:AI61 AI75:AM80 AJ70:AJ73 AJ105:AJ115 AI81:AI97 AI63:AI74 AR136:AR137 AP46:AP61 AK27:AM29 AP23:AP34 AP136:AP137 AI4:AI44 AI136:AL137 AK118:AK123 AL122:AL123 AK4:AQ21 AM22:AQ22 AO24 AO26 AO28 AO30:AO43 AO46 AO48:AO49 AO51 AO54 AO56 AO58:AO59 AO63:AO64 AO66 AO68 AP70:AQ70 AO70:AO73 AO75 AO77:AO79 AO81 AO83:AO85 AO87:AO88 AO90 AO92 AO94:AO96 AO99:AO102 AO105 AO107:AO109 AO111:AO112 AO114:AO115 AO118 AO123 AO120:AO121">
+    <cfRule type="cellIs" dxfId="275" priority="271" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ5">
+    <cfRule type="cellIs" dxfId="274" priority="270" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ25">
+    <cfRule type="cellIs" dxfId="273" priority="269" operator="equal">
+      <formula>$AR$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ23">
-    <cfRule type="cellIs" dxfId="258" priority="256" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK25">
-    <cfRule type="cellIs" dxfId="257" priority="255" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH27">
-    <cfRule type="cellIs" dxfId="256" priority="254" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH29">
-    <cfRule type="cellIs" dxfId="255" priority="253" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH50">
-    <cfRule type="cellIs" dxfId="254" priority="252" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH55">
-    <cfRule type="cellIs" dxfId="253" priority="251" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH52">
-    <cfRule type="cellIs" dxfId="252" priority="250" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH65">
-    <cfRule type="cellIs" dxfId="251" priority="249" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH69">
-    <cfRule type="cellIs" dxfId="250" priority="248" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH74">
-    <cfRule type="cellIs" dxfId="249" priority="247" operator="equal">
-      <formula>$AP$1</formula>
+    <cfRule type="cellIs" dxfId="272" priority="268" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL22">
+    <cfRule type="cellIs" dxfId="271" priority="267" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL23">
+    <cfRule type="cellIs" dxfId="270" priority="266" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM25">
+    <cfRule type="cellIs" dxfId="269" priority="265" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ27">
+    <cfRule type="cellIs" dxfId="268" priority="264" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ29">
+    <cfRule type="cellIs" dxfId="267" priority="263" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ50">
+    <cfRule type="cellIs" dxfId="266" priority="262" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ55">
+    <cfRule type="cellIs" dxfId="265" priority="261" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ52">
+    <cfRule type="cellIs" dxfId="264" priority="260" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ65">
+    <cfRule type="cellIs" dxfId="263" priority="259" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ69">
+    <cfRule type="cellIs" dxfId="262" priority="258" operator="equal">
+      <formula>$AR$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ74">
-    <cfRule type="cellIs" dxfId="248" priority="246" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH116">
-    <cfRule type="cellIs" dxfId="247" priority="245" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH86">
-    <cfRule type="cellIs" dxfId="246" priority="244" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH91">
-    <cfRule type="cellIs" dxfId="245" priority="243" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH97">
-    <cfRule type="cellIs" dxfId="244" priority="242" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH119">
-    <cfRule type="cellIs" dxfId="243" priority="241" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH122">
-    <cfRule type="cellIs" dxfId="242" priority="240" operator="equal">
-      <formula>$AP$1</formula>
+    <cfRule type="cellIs" dxfId="261" priority="257" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AL74">
+    <cfRule type="cellIs" dxfId="260" priority="256" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ116">
+    <cfRule type="cellIs" dxfId="259" priority="255" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ86">
+    <cfRule type="cellIs" dxfId="258" priority="254" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ91">
+    <cfRule type="cellIs" dxfId="257" priority="253" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ97">
+    <cfRule type="cellIs" dxfId="256" priority="252" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ119">
+    <cfRule type="cellIs" dxfId="255" priority="251" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ122">
+    <cfRule type="cellIs" dxfId="254" priority="250" operator="equal">
+      <formula>$AR$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:O2 D136:J136 D99:J103 D4:J44 D46:J61 D63:J97 D105:J116 D118:J122 D141:J141">
-    <cfRule type="cellIs" dxfId="241" priority="239" operator="equal">
+    <cfRule type="cellIs" dxfId="253" priority="249" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI99:AJ103 AG99:AG103 AI105:AJ116 AI46:AJ61 AI63:AJ97 AG105:AG114 AG46:AG61 AG63:AG97 AG4:AG44 AG136:AG137 AI4:AJ44 AI136:AJ136 AI141:AJ141 AG118:AG124 AG141 AI118:AJ124">
-    <cfRule type="cellIs" dxfId="240" priority="262" operator="equal">
+  <conditionalFormatting sqref="AK99:AL103 AI99:AI103 AK105:AL116 AK46:AL61 AK63:AL97 AI105:AI114 AI46:AI61 AI63:AI97 AI4:AI44 AI136:AI137 AK4:AL44 AK136:AL136 AK141:AL141 AI118:AI124 AI141 AK118:AL124">
+    <cfRule type="cellIs" dxfId="252" priority="272" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AE123 AF118:AF123 AE114 AF114:AF116 AE105:AF113 AE99:AF103 AE63:AF97 AE46:AF61 AE4:AF44 AE135:AF137 AE124:AF124 AE141:AF141">
-    <cfRule type="cellIs" dxfId="239" priority="238" operator="equal">
+  <conditionalFormatting sqref="AE114 AE135:AF137 AE141:AF141 AE123:AF124 AF118:AF122 AF114:AF116 AE105:AF113 AE99:AF103 AE63:AF97 AE46:AF61 AE4:AF44 AH141 AH135:AH137">
+    <cfRule type="cellIs" dxfId="251" priority="248" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE116">
-    <cfRule type="cellIs" dxfId="238" priority="237" operator="equal">
+    <cfRule type="cellIs" dxfId="250" priority="247" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF124">
-    <cfRule type="cellIs" dxfId="237" priority="236" operator="equal">
+    <cfRule type="cellIs" dxfId="249" priority="246" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE124">
-    <cfRule type="cellIs" dxfId="236" priority="235" operator="equal">
+    <cfRule type="cellIs" dxfId="248" priority="245" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AN119:AN122">
-    <cfRule type="cellIs" dxfId="235" priority="234" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK39:AK44">
-    <cfRule type="cellIs" dxfId="234" priority="233" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK46:AK47">
-    <cfRule type="cellIs" dxfId="233" priority="232" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL23:AM23">
-    <cfRule type="cellIs" dxfId="232" priority="231" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO23">
+  <conditionalFormatting sqref="AP119:AP122">
+    <cfRule type="cellIs" dxfId="247" priority="244" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM39:AM44">
+    <cfRule type="cellIs" dxfId="246" priority="243" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM46:AM47">
+    <cfRule type="cellIs" dxfId="245" priority="242" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN23:AO23">
+    <cfRule type="cellIs" dxfId="244" priority="241" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ23">
+    <cfRule type="cellIs" dxfId="243" priority="240" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN24">
+    <cfRule type="cellIs" dxfId="242" priority="239" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN25:AO25">
+    <cfRule type="cellIs" dxfId="241" priority="238" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN26">
+    <cfRule type="cellIs" dxfId="240" priority="237" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN27:AO27">
+    <cfRule type="cellIs" dxfId="239" priority="236" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN28">
+    <cfRule type="cellIs" dxfId="238" priority="235" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN29:AO29">
+    <cfRule type="cellIs" dxfId="237" priority="234" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN30">
+    <cfRule type="cellIs" dxfId="236" priority="233" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN63">
+    <cfRule type="cellIs" dxfId="235" priority="215" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN33">
+    <cfRule type="cellIs" dxfId="234" priority="232" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN36">
+    <cfRule type="cellIs" dxfId="233" priority="231" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN65:AO65">
+    <cfRule type="cellIs" dxfId="232" priority="214" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN38">
     <cfRule type="cellIs" dxfId="231" priority="230" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL24">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN40">
     <cfRule type="cellIs" dxfId="230" priority="229" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL25:AM25">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN42">
     <cfRule type="cellIs" dxfId="229" priority="228" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL26">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN43">
     <cfRule type="cellIs" dxfId="228" priority="227" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL27:AM27">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN44:AO44">
     <cfRule type="cellIs" dxfId="227" priority="226" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL28">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN46">
     <cfRule type="cellIs" dxfId="226" priority="225" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL29:AM29">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN47:AO47">
     <cfRule type="cellIs" dxfId="225" priority="224" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL30">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN48">
     <cfRule type="cellIs" dxfId="224" priority="223" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL63">
-    <cfRule type="cellIs" dxfId="223" priority="205" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL33">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN71">
+    <cfRule type="cellIs" dxfId="223" priority="208" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN51">
     <cfRule type="cellIs" dxfId="222" priority="222" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL36">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN53:AO53">
     <cfRule type="cellIs" dxfId="221" priority="221" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL65:AM65">
-    <cfRule type="cellIs" dxfId="220" priority="204" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL38">
-    <cfRule type="cellIs" dxfId="219" priority="220" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL40">
-    <cfRule type="cellIs" dxfId="218" priority="219" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL42">
-    <cfRule type="cellIs" dxfId="217" priority="218" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL43">
-    <cfRule type="cellIs" dxfId="216" priority="217" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL44:AM44">
-    <cfRule type="cellIs" dxfId="215" priority="216" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL46">
-    <cfRule type="cellIs" dxfId="214" priority="215" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL47:AM47">
-    <cfRule type="cellIs" dxfId="213" priority="214" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL48">
-    <cfRule type="cellIs" dxfId="212" priority="213" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL71">
-    <cfRule type="cellIs" dxfId="211" priority="198" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL51">
-    <cfRule type="cellIs" dxfId="210" priority="212" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL53:AM53">
-    <cfRule type="cellIs" dxfId="209" priority="211" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL54">
-    <cfRule type="cellIs" dxfId="208" priority="210" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL56">
-    <cfRule type="cellIs" dxfId="207" priority="209" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL57:AM57">
-    <cfRule type="cellIs" dxfId="206" priority="208" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL58">
-    <cfRule type="cellIs" dxfId="205" priority="207" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL60:AM60">
-    <cfRule type="cellIs" dxfId="204" priority="206" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL64">
-    <cfRule type="cellIs" dxfId="203" priority="203" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL66">
-    <cfRule type="cellIs" dxfId="202" priority="202" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL67:AM67">
-    <cfRule type="cellIs" dxfId="201" priority="201" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL68">
-    <cfRule type="cellIs" dxfId="200" priority="200" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL69:AM69">
-    <cfRule type="cellIs" dxfId="199" priority="199" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL72">
-    <cfRule type="cellIs" dxfId="198" priority="197" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL73">
-    <cfRule type="cellIs" dxfId="197" priority="196" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL74:AM74">
-    <cfRule type="cellIs" dxfId="196" priority="195" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL75">
-    <cfRule type="cellIs" dxfId="195" priority="194" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL76:AM76">
-    <cfRule type="cellIs" dxfId="194" priority="193" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL77">
-    <cfRule type="cellIs" dxfId="193" priority="192" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL78">
-    <cfRule type="cellIs" dxfId="192" priority="191" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL79">
-    <cfRule type="cellIs" dxfId="191" priority="190" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL80:AM80">
-    <cfRule type="cellIs" dxfId="190" priority="189" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL81">
-    <cfRule type="cellIs" dxfId="189" priority="188" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL83">
-    <cfRule type="cellIs" dxfId="188" priority="187" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL82:AM82">
-    <cfRule type="cellIs" dxfId="187" priority="186" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL84">
-    <cfRule type="cellIs" dxfId="186" priority="185" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL85">
-    <cfRule type="cellIs" dxfId="185" priority="184" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL86:AM86">
-    <cfRule type="cellIs" dxfId="184" priority="183" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL89:AM89">
-    <cfRule type="cellIs" dxfId="183" priority="182" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL90">
-    <cfRule type="cellIs" dxfId="182" priority="181" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL91:AM91">
-    <cfRule type="cellIs" dxfId="181" priority="180" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL92">
-    <cfRule type="cellIs" dxfId="180" priority="179" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL93:AM93">
-    <cfRule type="cellIs" dxfId="179" priority="178" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL94">
-    <cfRule type="cellIs" dxfId="178" priority="177" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL101">
-    <cfRule type="cellIs" dxfId="177" priority="173" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL97:AM97">
-    <cfRule type="cellIs" dxfId="176" priority="176" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL99">
-    <cfRule type="cellIs" dxfId="175" priority="175" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL100">
-    <cfRule type="cellIs" dxfId="174" priority="174" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL105">
-    <cfRule type="cellIs" dxfId="173" priority="171" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL103:AM103">
-    <cfRule type="cellIs" dxfId="172" priority="172" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL106:AM106">
-    <cfRule type="cellIs" dxfId="171" priority="170" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL107">
-    <cfRule type="cellIs" dxfId="170" priority="169" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL108">
-    <cfRule type="cellIs" dxfId="169" priority="168" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL109">
-    <cfRule type="cellIs" dxfId="168" priority="167" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL110:AM110">
-    <cfRule type="cellIs" dxfId="167" priority="166" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL111">
-    <cfRule type="cellIs" dxfId="166" priority="165" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL112">
-    <cfRule type="cellIs" dxfId="165" priority="164" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL113:AM113">
-    <cfRule type="cellIs" dxfId="164" priority="163" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL114">
-    <cfRule type="cellIs" dxfId="163" priority="162" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL115">
-    <cfRule type="cellIs" dxfId="162" priority="161" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL116:AM116">
-    <cfRule type="cellIs" dxfId="161" priority="160" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL120">
-    <cfRule type="cellIs" dxfId="160" priority="159" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL123">
-    <cfRule type="cellIs" dxfId="159" priority="158" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL124:AM124">
-    <cfRule type="cellIs" dxfId="158" priority="157" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO124">
-    <cfRule type="cellIs" dxfId="157" priority="156" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO123">
-    <cfRule type="cellIs" dxfId="156" priority="155" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL141:AM141">
-    <cfRule type="cellIs" dxfId="155" priority="154" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO141">
-    <cfRule type="cellIs" dxfId="154" priority="153" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL118">
-    <cfRule type="cellIs" dxfId="153" priority="152" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO118">
-    <cfRule type="cellIs" dxfId="152" priority="151" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL121">
-    <cfRule type="cellIs" dxfId="151" priority="150" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL122:AM122">
-    <cfRule type="cellIs" dxfId="150" priority="149" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO122">
-    <cfRule type="cellIs" dxfId="149" priority="148" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO121">
-    <cfRule type="cellIs" dxfId="148" priority="147" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO120">
-    <cfRule type="cellIs" dxfId="147" priority="146" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO116">
-    <cfRule type="cellIs" dxfId="146" priority="145" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO115">
-    <cfRule type="cellIs" dxfId="145" priority="144" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO113">
-    <cfRule type="cellIs" dxfId="144" priority="143" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO112">
-    <cfRule type="cellIs" dxfId="143" priority="142" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO111">
-    <cfRule type="cellIs" dxfId="142" priority="141" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO110">
-    <cfRule type="cellIs" dxfId="141" priority="140" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO109">
-    <cfRule type="cellIs" dxfId="140" priority="139" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO108">
-    <cfRule type="cellIs" dxfId="139" priority="138" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO114">
-    <cfRule type="cellIs" dxfId="138" priority="137" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO107">
-    <cfRule type="cellIs" dxfId="137" priority="136" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO106">
-    <cfRule type="cellIs" dxfId="136" priority="135" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO105">
-    <cfRule type="cellIs" dxfId="135" priority="134" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO103">
-    <cfRule type="cellIs" dxfId="134" priority="133" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO101">
-    <cfRule type="cellIs" dxfId="133" priority="132" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO100">
-    <cfRule type="cellIs" dxfId="132" priority="131" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO99">
-    <cfRule type="cellIs" dxfId="131" priority="130" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO97">
-    <cfRule type="cellIs" dxfId="130" priority="129" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO93">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN54">
+    <cfRule type="cellIs" dxfId="220" priority="220" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN56">
+    <cfRule type="cellIs" dxfId="219" priority="219" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN57:AO57">
+    <cfRule type="cellIs" dxfId="218" priority="218" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN58">
+    <cfRule type="cellIs" dxfId="217" priority="217" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN60:AO60">
+    <cfRule type="cellIs" dxfId="216" priority="216" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN64">
+    <cfRule type="cellIs" dxfId="215" priority="213" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN66">
+    <cfRule type="cellIs" dxfId="214" priority="212" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN67:AO67">
+    <cfRule type="cellIs" dxfId="213" priority="211" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN68">
+    <cfRule type="cellIs" dxfId="212" priority="210" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN69:AO69">
+    <cfRule type="cellIs" dxfId="211" priority="209" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN72">
+    <cfRule type="cellIs" dxfId="210" priority="207" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN73">
+    <cfRule type="cellIs" dxfId="209" priority="206" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN74:AO74">
+    <cfRule type="cellIs" dxfId="208" priority="205" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN75">
+    <cfRule type="cellIs" dxfId="207" priority="204" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN76:AO76">
+    <cfRule type="cellIs" dxfId="206" priority="203" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN77">
+    <cfRule type="cellIs" dxfId="205" priority="202" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN78">
+    <cfRule type="cellIs" dxfId="204" priority="201" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN79">
+    <cfRule type="cellIs" dxfId="203" priority="200" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN80:AO80">
+    <cfRule type="cellIs" dxfId="202" priority="199" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN81">
+    <cfRule type="cellIs" dxfId="201" priority="198" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN83">
+    <cfRule type="cellIs" dxfId="200" priority="197" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN82:AO82">
+    <cfRule type="cellIs" dxfId="199" priority="196" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN84">
+    <cfRule type="cellIs" dxfId="198" priority="195" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN85">
+    <cfRule type="cellIs" dxfId="197" priority="194" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN86:AO86">
+    <cfRule type="cellIs" dxfId="196" priority="193" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN89:AO89">
+    <cfRule type="cellIs" dxfId="195" priority="192" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN90">
+    <cfRule type="cellIs" dxfId="194" priority="191" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN91:AO91">
+    <cfRule type="cellIs" dxfId="193" priority="190" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN92">
+    <cfRule type="cellIs" dxfId="192" priority="189" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN93:AO93">
+    <cfRule type="cellIs" dxfId="191" priority="188" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN94">
+    <cfRule type="cellIs" dxfId="190" priority="187" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN101">
+    <cfRule type="cellIs" dxfId="189" priority="183" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN97:AO97">
+    <cfRule type="cellIs" dxfId="188" priority="186" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN99">
+    <cfRule type="cellIs" dxfId="187" priority="185" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN100">
+    <cfRule type="cellIs" dxfId="186" priority="184" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN105">
+    <cfRule type="cellIs" dxfId="185" priority="181" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN103:AO103">
+    <cfRule type="cellIs" dxfId="184" priority="182" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN106:AO106">
+    <cfRule type="cellIs" dxfId="183" priority="180" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN107">
+    <cfRule type="cellIs" dxfId="182" priority="179" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN108">
+    <cfRule type="cellIs" dxfId="181" priority="178" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN109">
+    <cfRule type="cellIs" dxfId="180" priority="177" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN110:AO110">
+    <cfRule type="cellIs" dxfId="179" priority="176" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN111">
+    <cfRule type="cellIs" dxfId="178" priority="175" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN112">
+    <cfRule type="cellIs" dxfId="177" priority="174" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN113:AO113">
+    <cfRule type="cellIs" dxfId="176" priority="173" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN114">
+    <cfRule type="cellIs" dxfId="175" priority="172" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN115">
+    <cfRule type="cellIs" dxfId="174" priority="171" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN116:AO116">
+    <cfRule type="cellIs" dxfId="173" priority="170" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN120">
+    <cfRule type="cellIs" dxfId="172" priority="169" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN123">
+    <cfRule type="cellIs" dxfId="171" priority="168" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN124:AO124">
+    <cfRule type="cellIs" dxfId="170" priority="167" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ124">
+    <cfRule type="cellIs" dxfId="169" priority="166" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ123">
+    <cfRule type="cellIs" dxfId="168" priority="165" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN141:AO141">
+    <cfRule type="cellIs" dxfId="167" priority="164" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ141">
+    <cfRule type="cellIs" dxfId="166" priority="163" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN118">
+    <cfRule type="cellIs" dxfId="165" priority="162" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ118">
+    <cfRule type="cellIs" dxfId="164" priority="161" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN121">
+    <cfRule type="cellIs" dxfId="163" priority="160" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN122:AO122">
+    <cfRule type="cellIs" dxfId="162" priority="159" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ122">
+    <cfRule type="cellIs" dxfId="161" priority="158" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ121">
+    <cfRule type="cellIs" dxfId="160" priority="157" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ120">
+    <cfRule type="cellIs" dxfId="159" priority="156" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ116">
+    <cfRule type="cellIs" dxfId="158" priority="155" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ115">
+    <cfRule type="cellIs" dxfId="157" priority="154" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ113">
+    <cfRule type="cellIs" dxfId="156" priority="153" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ112">
+    <cfRule type="cellIs" dxfId="155" priority="152" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ111">
+    <cfRule type="cellIs" dxfId="154" priority="151" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ110">
+    <cfRule type="cellIs" dxfId="153" priority="150" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ109">
+    <cfRule type="cellIs" dxfId="152" priority="149" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ108">
+    <cfRule type="cellIs" dxfId="151" priority="148" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ114">
+    <cfRule type="cellIs" dxfId="150" priority="147" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ107">
+    <cfRule type="cellIs" dxfId="149" priority="146" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ106">
+    <cfRule type="cellIs" dxfId="148" priority="145" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ105">
+    <cfRule type="cellIs" dxfId="147" priority="144" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ103">
+    <cfRule type="cellIs" dxfId="146" priority="143" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ101">
+    <cfRule type="cellIs" dxfId="145" priority="142" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ100">
+    <cfRule type="cellIs" dxfId="144" priority="141" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ99">
+    <cfRule type="cellIs" dxfId="143" priority="140" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ97">
+    <cfRule type="cellIs" dxfId="142" priority="139" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ93">
+    <cfRule type="cellIs" dxfId="141" priority="137" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ95">
+    <cfRule type="cellIs" dxfId="140" priority="138" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ92">
+    <cfRule type="cellIs" dxfId="139" priority="136" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ91">
+    <cfRule type="cellIs" dxfId="138" priority="135" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ90">
+    <cfRule type="cellIs" dxfId="137" priority="134" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ89">
+    <cfRule type="cellIs" dxfId="136" priority="133" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ76">
+    <cfRule type="cellIs" dxfId="135" priority="124" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ86">
+    <cfRule type="cellIs" dxfId="134" priority="132" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ85">
+    <cfRule type="cellIs" dxfId="133" priority="131" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ84">
+    <cfRule type="cellIs" dxfId="132" priority="130" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ83">
+    <cfRule type="cellIs" dxfId="131" priority="129" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ81">
+    <cfRule type="cellIs" dxfId="130" priority="128" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ80">
     <cfRule type="cellIs" dxfId="129" priority="127" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO95">
-    <cfRule type="cellIs" dxfId="128" priority="128" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO92">
-    <cfRule type="cellIs" dxfId="127" priority="126" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO91">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ79">
+    <cfRule type="cellIs" dxfId="128" priority="126" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ66">
+    <cfRule type="cellIs" dxfId="127" priority="116" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ77">
     <cfRule type="cellIs" dxfId="126" priority="125" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO90">
-    <cfRule type="cellIs" dxfId="125" priority="124" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO89">
-    <cfRule type="cellIs" dxfId="124" priority="123" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO76">
-    <cfRule type="cellIs" dxfId="123" priority="114" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO86">
-    <cfRule type="cellIs" dxfId="122" priority="122" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO85">
-    <cfRule type="cellIs" dxfId="121" priority="121" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO84">
-    <cfRule type="cellIs" dxfId="120" priority="120" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO83">
-    <cfRule type="cellIs" dxfId="119" priority="119" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO81">
-    <cfRule type="cellIs" dxfId="118" priority="118" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO80">
-    <cfRule type="cellIs" dxfId="117" priority="117" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO79">
-    <cfRule type="cellIs" dxfId="116" priority="116" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO66">
-    <cfRule type="cellIs" dxfId="115" priority="106" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO77">
-    <cfRule type="cellIs" dxfId="114" priority="115" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO75">
-    <cfRule type="cellIs" dxfId="113" priority="113" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO74">
-    <cfRule type="cellIs" dxfId="112" priority="112" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO58">
-    <cfRule type="cellIs" dxfId="111" priority="100" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO72">
-    <cfRule type="cellIs" dxfId="110" priority="111" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO71">
-    <cfRule type="cellIs" dxfId="109" priority="110" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO69">
-    <cfRule type="cellIs" dxfId="108" priority="109" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO68">
-    <cfRule type="cellIs" dxfId="107" priority="108" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO67">
-    <cfRule type="cellIs" dxfId="106" priority="107" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO65">
-    <cfRule type="cellIs" dxfId="105" priority="105" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO64">
-    <cfRule type="cellIs" dxfId="104" priority="104" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO63">
-    <cfRule type="cellIs" dxfId="103" priority="103" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO61">
-    <cfRule type="cellIs" dxfId="102" priority="102" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO60">
-    <cfRule type="cellIs" dxfId="101" priority="101" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO57">
-    <cfRule type="cellIs" dxfId="100" priority="99" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO56">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ75">
+    <cfRule type="cellIs" dxfId="125" priority="123" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ74">
+    <cfRule type="cellIs" dxfId="124" priority="122" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ58">
+    <cfRule type="cellIs" dxfId="123" priority="110" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ72">
+    <cfRule type="cellIs" dxfId="122" priority="121" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ71">
+    <cfRule type="cellIs" dxfId="121" priority="120" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ69">
+    <cfRule type="cellIs" dxfId="120" priority="119" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ68">
+    <cfRule type="cellIs" dxfId="119" priority="118" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ67">
+    <cfRule type="cellIs" dxfId="118" priority="117" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ65">
+    <cfRule type="cellIs" dxfId="117" priority="115" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ64">
+    <cfRule type="cellIs" dxfId="116" priority="114" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ63">
+    <cfRule type="cellIs" dxfId="115" priority="113" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ61">
+    <cfRule type="cellIs" dxfId="114" priority="112" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ60">
+    <cfRule type="cellIs" dxfId="113" priority="111" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ57">
+    <cfRule type="cellIs" dxfId="112" priority="109" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ56">
+    <cfRule type="cellIs" dxfId="111" priority="108" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ54">
+    <cfRule type="cellIs" dxfId="110" priority="107" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ53">
+    <cfRule type="cellIs" dxfId="109" priority="106" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ34">
+    <cfRule type="cellIs" dxfId="108" priority="96" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ48">
+    <cfRule type="cellIs" dxfId="107" priority="105" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ46">
+    <cfRule type="cellIs" dxfId="106" priority="104" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ44">
+    <cfRule type="cellIs" dxfId="105" priority="103" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ43">
+    <cfRule type="cellIs" dxfId="104" priority="102" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ42">
+    <cfRule type="cellIs" dxfId="103" priority="101" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ41">
+    <cfRule type="cellIs" dxfId="102" priority="100" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ40">
+    <cfRule type="cellIs" dxfId="101" priority="99" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ82">
+    <cfRule type="cellIs" dxfId="100" priority="84" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ38">
     <cfRule type="cellIs" dxfId="99" priority="98" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO54">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ36">
     <cfRule type="cellIs" dxfId="98" priority="97" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO53">
-    <cfRule type="cellIs" dxfId="97" priority="96" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO34">
-    <cfRule type="cellIs" dxfId="96" priority="86" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO48">
-    <cfRule type="cellIs" dxfId="95" priority="95" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO46">
-    <cfRule type="cellIs" dxfId="94" priority="94" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO44">
-    <cfRule type="cellIs" dxfId="93" priority="93" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO43">
-    <cfRule type="cellIs" dxfId="92" priority="92" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO42">
-    <cfRule type="cellIs" dxfId="91" priority="91" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO41">
-    <cfRule type="cellIs" dxfId="90" priority="90" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO40">
-    <cfRule type="cellIs" dxfId="89" priority="89" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO82">
-    <cfRule type="cellIs" dxfId="88" priority="74" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO38">
-    <cfRule type="cellIs" dxfId="87" priority="88" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO36">
-    <cfRule type="cellIs" dxfId="86" priority="87" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO33">
-    <cfRule type="cellIs" dxfId="85" priority="85" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO47">
-    <cfRule type="cellIs" dxfId="84" priority="63" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO30">
-    <cfRule type="cellIs" dxfId="83" priority="84" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO29">
-    <cfRule type="cellIs" dxfId="82" priority="83" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO28">
-    <cfRule type="cellIs" dxfId="81" priority="82" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO27">
-    <cfRule type="cellIs" dxfId="80" priority="81" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO26">
-    <cfRule type="cellIs" dxfId="79" priority="80" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO25">
-    <cfRule type="cellIs" dxfId="78" priority="79" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO24">
-    <cfRule type="cellIs" dxfId="77" priority="78" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL119:AM119">
-    <cfRule type="cellIs" dxfId="76" priority="77" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK122">
-    <cfRule type="cellIs" dxfId="75" priority="76" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AK122">
-    <cfRule type="cellIs" dxfId="74" priority="75" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO119">
-    <cfRule type="cellIs" dxfId="73" priority="73" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL136:AM136">
-    <cfRule type="cellIs" dxfId="72" priority="72" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO136">
-    <cfRule type="cellIs" dxfId="71" priority="71" operator="equal">
-      <formula>$AP$1</formula>
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ33">
+    <cfRule type="cellIs" dxfId="97" priority="95" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ47">
+    <cfRule type="cellIs" dxfId="96" priority="73" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ30">
+    <cfRule type="cellIs" dxfId="95" priority="94" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ29">
+    <cfRule type="cellIs" dxfId="94" priority="93" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ28">
+    <cfRule type="cellIs" dxfId="93" priority="92" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ27">
+    <cfRule type="cellIs" dxfId="92" priority="91" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ26">
+    <cfRule type="cellIs" dxfId="91" priority="90" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ25">
+    <cfRule type="cellIs" dxfId="90" priority="89" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ24">
+    <cfRule type="cellIs" dxfId="89" priority="88" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN119:AO119">
+    <cfRule type="cellIs" dxfId="88" priority="87" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM122">
+    <cfRule type="cellIs" dxfId="87" priority="86" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AM122">
+    <cfRule type="cellIs" dxfId="86" priority="85" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ119">
+    <cfRule type="cellIs" dxfId="85" priority="83" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN136:AO136">
+    <cfRule type="cellIs" dxfId="84" priority="82" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ136">
+    <cfRule type="cellIs" dxfId="83" priority="81" operator="equal">
+      <formula>$AR$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D137:J137">
-    <cfRule type="cellIs" dxfId="70" priority="69" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="79" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI137:AJ137">
-    <cfRule type="cellIs" dxfId="69" priority="70" operator="equal">
+  <conditionalFormatting sqref="AK137:AL137">
+    <cfRule type="cellIs" dxfId="81" priority="80" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL137:AM137">
-    <cfRule type="cellIs" dxfId="68" priority="67" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO137">
-    <cfRule type="cellIs" dxfId="67" priority="66" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL32">
-    <cfRule type="cellIs" dxfId="66" priority="65" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO32">
-    <cfRule type="cellIs" dxfId="65" priority="64" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH81">
-    <cfRule type="cellIs" dxfId="64" priority="62" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH44">
-    <cfRule type="cellIs" dxfId="63" priority="61" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL59">
-    <cfRule type="cellIs" dxfId="62" priority="60" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO59">
-    <cfRule type="cellIs" dxfId="61" priority="59" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH60">
-    <cfRule type="cellIs" dxfId="60" priority="58" operator="equal">
-      <formula>$AP$1</formula>
+  <conditionalFormatting sqref="AN137:AO137">
+    <cfRule type="cellIs" dxfId="80" priority="77" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ137">
+    <cfRule type="cellIs" dxfId="79" priority="76" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN32">
+    <cfRule type="cellIs" dxfId="78" priority="75" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ32">
+    <cfRule type="cellIs" dxfId="77" priority="74" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ81">
+    <cfRule type="cellIs" dxfId="76" priority="72" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ44">
+    <cfRule type="cellIs" dxfId="75" priority="71" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN59">
+    <cfRule type="cellIs" dxfId="74" priority="70" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ59">
+    <cfRule type="cellIs" dxfId="73" priority="69" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ60">
+    <cfRule type="cellIs" dxfId="72" priority="68" operator="equal">
+      <formula>$AR$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE115">
-    <cfRule type="cellIs" dxfId="59" priority="57" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="67" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AH89">
-    <cfRule type="cellIs" dxfId="58" priority="56" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL61:AM61">
-    <cfRule type="cellIs" dxfId="57" priority="55" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG137">
-    <cfRule type="cellIs" dxfId="56" priority="54" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AH82">
-    <cfRule type="cellIs" dxfId="55" priority="53" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL35">
-    <cfRule type="cellIs" dxfId="54" priority="52" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO35">
-    <cfRule type="cellIs" dxfId="53" priority="51" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL50:AM50">
-    <cfRule type="cellIs" dxfId="52" priority="50" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO50">
-    <cfRule type="cellIs" dxfId="51" priority="49" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL52:AM52">
-    <cfRule type="cellIs" dxfId="50" priority="48" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO52">
-    <cfRule type="cellIs" dxfId="49" priority="47" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL55:AM55">
-    <cfRule type="cellIs" dxfId="48" priority="46" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO55">
-    <cfRule type="cellIs" dxfId="47" priority="45" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI99:AI103 AG99:AG103 AI105:AI116 AI46:AI61 AI63:AI97 AG105:AG114 AG46:AG61 AG63:AG97 AG4:AG44 AI4:AI44 AG135:AG137 AJ15 AI135:AI137 AI141 AG118:AG124 AG141 AI118:AI124 AJ123">
-    <cfRule type="cellIs" dxfId="46" priority="43" operator="equal">
-      <formula>$AI$135</formula>
+  <conditionalFormatting sqref="AJ89">
+    <cfRule type="cellIs" dxfId="70" priority="66" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN61:AO61">
+    <cfRule type="cellIs" dxfId="69" priority="65" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI137">
+    <cfRule type="cellIs" dxfId="68" priority="64" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ82">
+    <cfRule type="cellIs" dxfId="67" priority="63" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN35">
+    <cfRule type="cellIs" dxfId="66" priority="62" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ35">
+    <cfRule type="cellIs" dxfId="65" priority="61" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN50:AO50">
+    <cfRule type="cellIs" dxfId="64" priority="60" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ50">
+    <cfRule type="cellIs" dxfId="63" priority="59" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN52:AO52">
+    <cfRule type="cellIs" dxfId="62" priority="58" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ52">
+    <cfRule type="cellIs" dxfId="61" priority="57" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN55:AO55">
+    <cfRule type="cellIs" dxfId="60" priority="56" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ55">
+    <cfRule type="cellIs" dxfId="59" priority="55" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK99:AK103 AI99:AI103 AK105:AK116 AK46:AK61 AK63:AK97 AI105:AI114 AI46:AI61 AI63:AI97 AI4:AI44 AK4:AK44 AI135:AI137 AL15 AK135:AK137 AK141 AI118:AI124 AI141 AK118:AK124 AL123">
+    <cfRule type="cellIs" dxfId="58" priority="53" operator="equal">
+      <formula>$AK$135</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C46:C61 C99:C103 C105:C116 C63:C97 W46:Y61 V40:V61 T40:U40 T39:V39 C4:C44 W22:Y44 AB9:AB12 AB14:AB15 AB17:AB21 C135:C137 P1:Y2 P135:Y137 C141 P141:Y141 P118:Y124 C118:C124 P39:S40 P4:Y21 P22:V38 P41:U44 P99:Y103 P105:Y116 P63:Y97 P46:U61">
-    <cfRule type="cellIs" dxfId="45" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="52" operator="equal">
       <formula>$B$135</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D135:J135">
-    <cfRule type="cellIs" dxfId="44" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="51" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI135:AJ135 AG135">
-    <cfRule type="cellIs" dxfId="43" priority="44" operator="equal">
+  <conditionalFormatting sqref="AK135:AL135 AI135">
+    <cfRule type="cellIs" dxfId="55" priority="54" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q135:AB135 Q1:AC2 W41:AA41 W40:AB40 W77:AB77 W79:AB79 W78:AA78 V40:V61 W63:AC63 W64:AB64 W43:AC44 W42:AB42 T40:U40 AB74:AB75 Q76:AB76 AB89:AB97 Q17:Y29 T39:AB39 AC105:AC114 AC46:AC61 Q136:AC137 AC30:AC42 Z17:AB28 AC4:AC28 Z29:AC29 W46:AB48 W53:AB61 Z74:AA74 Q89:AA89 Q118:AB124 Q141:AB141 AC64:AC97 Q39:S40 Q41:U44 Q90:Y97 Q63:V64 Q65:AB73 Q74:Y75 Q80:AB88 Q99:AC103 Q105:AB116 Q4:AB16 Q30:AB38 W49:AA52 Q77:V79 Q46:U61">
-    <cfRule type="cellIs" dxfId="42" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="54" priority="50" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL135:AM135">
-    <cfRule type="cellIs" dxfId="41" priority="38" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO135">
-    <cfRule type="cellIs" dxfId="40" priority="37" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AI137">
-    <cfRule type="cellIs" dxfId="39" priority="36" operator="equal">
+  <conditionalFormatting sqref="AN135:AO135">
+    <cfRule type="cellIs" dxfId="53" priority="48" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ135">
+    <cfRule type="cellIs" dxfId="52" priority="47" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AK137">
+    <cfRule type="cellIs" dxfId="51" priority="46" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AI137">
-    <cfRule type="cellIs" dxfId="38" priority="35" operator="equal">
+  <conditionalFormatting sqref="AK137">
+    <cfRule type="cellIs" dxfId="50" priority="45" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z75:AA75">
-    <cfRule type="cellIs" dxfId="37" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="44" operator="equal">
       <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE118:AE122">
-    <cfRule type="cellIs" dxfId="36" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="43" operator="equal">
       <formula>$AE$127</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E123:J123">
-    <cfRule type="cellIs" dxfId="35" priority="32" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="42" operator="equal">
       <formula>$B$135</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E124:J124">
-    <cfRule type="cellIs" dxfId="34" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="41" operator="equal">
       <formula>$B$135</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="AL31">
-    <cfRule type="cellIs" dxfId="33" priority="30" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO31">
-    <cfRule type="cellIs" dxfId="32" priority="29" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL34">
-    <cfRule type="cellIs" dxfId="31" priority="28" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL37">
-    <cfRule type="cellIs" dxfId="30" priority="27" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO37">
-    <cfRule type="cellIs" dxfId="29" priority="26" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL39">
-    <cfRule type="cellIs" dxfId="28" priority="25" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO39">
-    <cfRule type="cellIs" dxfId="27" priority="24" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL41">
-    <cfRule type="cellIs" dxfId="26" priority="23" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL49">
-    <cfRule type="cellIs" dxfId="25" priority="22" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO49">
-    <cfRule type="cellIs" dxfId="24" priority="21" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO51">
-    <cfRule type="cellIs" dxfId="23" priority="20" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO73">
-    <cfRule type="cellIs" dxfId="22" priority="19" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO78">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO87">
-    <cfRule type="cellIs" dxfId="20" priority="17" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO88">
-    <cfRule type="cellIs" dxfId="19" priority="16" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL87">
-    <cfRule type="cellIs" dxfId="18" priority="15" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL88">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO94">
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL95">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL96">
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO96">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AL102">
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
-      <formula>$AP$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AO102">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="equal">
-      <formula>$AP$1</formula>
+  <conditionalFormatting sqref="AN31">
+    <cfRule type="cellIs" dxfId="45" priority="40" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ31">
+    <cfRule type="cellIs" dxfId="44" priority="39" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN34">
+    <cfRule type="cellIs" dxfId="43" priority="38" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN37">
+    <cfRule type="cellIs" dxfId="42" priority="37" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ37">
+    <cfRule type="cellIs" dxfId="41" priority="36" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN39">
+    <cfRule type="cellIs" dxfId="40" priority="35" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ39">
+    <cfRule type="cellIs" dxfId="39" priority="34" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN41">
+    <cfRule type="cellIs" dxfId="38" priority="33" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN49">
+    <cfRule type="cellIs" dxfId="37" priority="32" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ49">
+    <cfRule type="cellIs" dxfId="36" priority="31" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ51">
+    <cfRule type="cellIs" dxfId="35" priority="30" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ73">
+    <cfRule type="cellIs" dxfId="34" priority="29" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ78">
+    <cfRule type="cellIs" dxfId="33" priority="28" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ87">
+    <cfRule type="cellIs" dxfId="32" priority="27" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ88">
+    <cfRule type="cellIs" dxfId="31" priority="26" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN87">
+    <cfRule type="cellIs" dxfId="30" priority="25" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN88">
+    <cfRule type="cellIs" dxfId="29" priority="24" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ94">
+    <cfRule type="cellIs" dxfId="28" priority="23" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN95">
+    <cfRule type="cellIs" dxfId="27" priority="22" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN96">
+    <cfRule type="cellIs" dxfId="26" priority="21" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ96">
+    <cfRule type="cellIs" dxfId="25" priority="20" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AN102">
+    <cfRule type="cellIs" dxfId="24" priority="19" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AQ102">
+    <cfRule type="cellIs" dxfId="23" priority="18" operator="equal">
+      <formula>$AR$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:O2">
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="17" operator="equal">
       <formula>$A$73</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D123">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="16" operator="equal">
       <formula>$B$125</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D124">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" operator="equal">
       <formula>$B$125</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG141 AG135:AG137">
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="equal">
+      <formula>$AE$127</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG8">
+    <cfRule type="cellIs" dxfId="17" priority="9" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG9">
+    <cfRule type="cellIs" dxfId="15" priority="8" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG10">
+    <cfRule type="cellIs" dxfId="13" priority="7" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG11">
+    <cfRule type="cellIs" dxfId="11" priority="6" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG12">
+    <cfRule type="cellIs" dxfId="9" priority="5" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG13">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG14">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG15">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+      <formula>$AR$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG22">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>$AR$1</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>

--- a/data/raw/Performance-Matrix-RW.xlsx
+++ b/data/raw/Performance-Matrix-RW.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'RACGP 2017'!$A$3:$AS$124</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -144,7 +144,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4552" uniqueCount="1258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4569" uniqueCount="1261">
   <si>
     <t>knee, hip or both filter (1/0/10)</t>
   </si>
@@ -4730,6 +4730,15 @@
   </si>
   <si>
     <t>Strontium ranelate (2mg)</t>
+  </si>
+  <si>
+    <t>Mazzuca 2004</t>
+  </si>
+  <si>
+    <t>Denegar 2010</t>
+  </si>
+  <si>
+    <t>Yildirim 2010</t>
   </si>
 </sst>
 </file>
@@ -25596,11 +25605,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W76"/>
+  <dimension ref="A1:W79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31:XFD38"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="T77" sqref="T77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29130,7 +29139,7 @@
         <v>69</v>
       </c>
       <c r="H52">
-        <f t="shared" ref="H52:H76" si="169">F52+G52</f>
+        <f t="shared" ref="H52:H79" si="169">F52+G52</f>
         <v>170</v>
       </c>
       <c r="I52" s="137" t="s">
@@ -30839,7 +30848,7 @@
         <v>2</v>
       </c>
       <c r="M76">
-        <f t="shared" ref="M76" si="234">SQRT((18*K76^2+16*L76^2+19*17/36*(I76-J76)^2)/35)</f>
+        <f t="shared" ref="M76:M79" si="234">SQRT((18*K76^2+16*L76^2+19*17/36*(I76-J76)^2)/35)</f>
         <v>1.9770649241453135</v>
       </c>
       <c r="N76">
@@ -30871,24 +30880,220 @@
         <v>0.05 [-0.27, 0.38]</v>
       </c>
     </row>
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A77" s="121" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B77" s="121" t="s">
+        <v>1258</v>
+      </c>
+      <c r="C77" s="121">
+        <v>4</v>
+      </c>
+      <c r="D77" s="121" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E77" s="121">
+        <v>-1.1000000000000001</v>
+      </c>
+      <c r="F77" s="121">
+        <v>26</v>
+      </c>
+      <c r="G77" s="121">
+        <v>25</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="169"/>
+        <v>51</v>
+      </c>
+      <c r="I77" s="137" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J77" s="137"/>
+      <c r="K77" s="137"/>
+      <c r="L77" s="137"/>
+      <c r="M77">
+        <v>3.7</v>
+      </c>
+      <c r="N77">
+        <f t="shared" ref="N77" si="242">E77/M77*(1-3/(4*H77-9))</f>
+        <v>-0.29272349272349274</v>
+      </c>
+      <c r="O77">
+        <f t="shared" ref="O77" si="243">SQRT(H77/(F77*G77)+N77^2/(2*(H77-3.94)))</f>
+        <v>0.28173026201564533</v>
+      </c>
+      <c r="P77" t="str">
+        <f t="shared" ref="P77" si="244">CONCATENATE(FIXED(N77,2), " [", FIXED(N77-_xlfn.NORM.S.INV(0.975)*O77,2), ", ", FIXED(N77+_xlfn.NORM.S.INV(0.975)*O77,2), "]")</f>
+        <v>-0.29 [-0.84, 0.26]</v>
+      </c>
+      <c r="Q77">
+        <f t="shared" ref="Q77" si="245">1/O77^2</f>
+        <v>12.598910814760112</v>
+      </c>
+      <c r="R77">
+        <f>SUMPRODUCT(N77:N79,Q77:Q79)/SUM(Q77:Q79)</f>
+        <v>-0.28565980481733749</v>
+      </c>
+      <c r="S77">
+        <f>1/SQRT(SUM(Q77:Q79))</f>
+        <v>0.15967921141231856</v>
+      </c>
+      <c r="T77" t="str">
+        <f>CONCATENATE(FIXED(R77,2), " [", FIXED(R77-_xlfn.NORM.S.INV(0.975)*S77,2), ", ", FIXED(R77+_xlfn.NORM.S.INV(0.975)*S77,2), "]")</f>
+        <v>-0.29 [-0.60, 0.03]</v>
+      </c>
+    </row>
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A78" s="121" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B78" s="121" t="s">
+        <v>1259</v>
+      </c>
+      <c r="C78" s="121">
+        <v>1</v>
+      </c>
+      <c r="D78" s="121" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E78" s="121">
+        <v>-0.62</v>
+      </c>
+      <c r="F78" s="121">
+        <v>34</v>
+      </c>
+      <c r="G78" s="121">
+        <v>34</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="169"/>
+        <v>68</v>
+      </c>
+      <c r="I78" s="137" t="s">
+        <v>355</v>
+      </c>
+      <c r="J78" s="137"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="137"/>
+      <c r="M78">
+        <f>3.7</f>
+        <v>3.7</v>
+      </c>
+      <c r="N78">
+        <f t="shared" ref="N78:N79" si="246">E78/M78*(1-3/(4*H78-9))</f>
+        <v>-0.16565615044702495</v>
+      </c>
+      <c r="O78">
+        <f t="shared" ref="O78:O79" si="247">SQRT(H78/(F78*G78)+N78^2/(2*(H78-3.94)))</f>
+        <v>0.24297678679868043</v>
+      </c>
+      <c r="P78" t="str">
+        <f t="shared" ref="P78:P79" si="248">CONCATENATE(FIXED(N78,2), " [", FIXED(N78-_xlfn.NORM.S.INV(0.975)*O78,2), ", ", FIXED(N78+_xlfn.NORM.S.INV(0.975)*O78,2), "]")</f>
+        <v>-0.17 [-0.64, 0.31]</v>
+      </c>
+      <c r="Q78">
+        <f t="shared" ref="Q78:Q79" si="249">1/O78^2</f>
+        <v>16.938323807938069</v>
+      </c>
+      <c r="R78" s="126" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S78" s="126" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T78" s="126" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A79" s="121" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B79" s="121" t="s">
+        <v>1260</v>
+      </c>
+      <c r="C79" s="121">
+        <v>4</v>
+      </c>
+      <c r="D79" s="121" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E79" s="121">
+        <v>-1.88</v>
+      </c>
+      <c r="F79" s="121">
+        <v>20</v>
+      </c>
+      <c r="G79" s="121">
+        <v>20</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="169"/>
+        <v>40</v>
+      </c>
+      <c r="I79" s="121">
+        <v>7.55</v>
+      </c>
+      <c r="J79" s="121">
+        <v>7.53</v>
+      </c>
+      <c r="K79" s="121">
+        <v>3.67</v>
+      </c>
+      <c r="L79" s="121">
+        <v>4.03</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="234"/>
+        <v>3.7883211090662345</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="246"/>
+        <v>-0.48640253916508741</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="247"/>
+        <v>0.32137278833277938</v>
+      </c>
+      <c r="P79" t="str">
+        <f t="shared" si="248"/>
+        <v>-0.49 [-1.12, 0.14]</v>
+      </c>
+      <c r="Q79">
+        <f t="shared" si="249"/>
+        <v>9.6823727554704018</v>
+      </c>
+      <c r="R79" s="126" t="s">
+        <v>1117</v>
+      </c>
+      <c r="S79" s="126" t="s">
+        <v>1117</v>
+      </c>
+      <c r="T79" s="126" t="s">
+        <v>1117</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
+  <mergeCells count="18">
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I31:L31"/>
     <mergeCell ref="I33:L33"/>
     <mergeCell ref="I35:L35"/>
     <mergeCell ref="I37:L37"/>
     <mergeCell ref="I32:L32"/>
     <mergeCell ref="I34:L34"/>
     <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
